--- a/data/active_stations_2020.xlsx
+++ b/data/active_stations_2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\James_Work\Staff\Oeyvind_G\Tiltaksovervakingen\tiltaksovervakingen\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19DD064A-A3B2-4ADD-BC41-97518D8CAB69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{430D2288-6319-4329-9BC3-A652DA83F69F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="680">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1347" uniqueCount="687">
   <si>
     <t>Nidelva/Arendal</t>
   </si>
@@ -1210,12 +1210,6 @@
     <t>Songeelva oppstrøms doserer</t>
   </si>
   <si>
-    <t>Otra oppstrøms doserer</t>
-  </si>
-  <si>
-    <t>Otra nedstrøms doserer</t>
-  </si>
-  <si>
     <t>Langåna v/Røyknes</t>
   </si>
   <si>
@@ -1303,9 +1297,6 @@
     <t>Ny stasjon juli 2020. Ble også prøvetatt under flomepisoder vår-sommer 2019.</t>
   </si>
   <si>
-    <t xml:space="preserve">Ny stasjon juli 2020 </t>
-  </si>
-  <si>
     <t>Kosåna utløp (13)</t>
   </si>
   <si>
@@ -2072,6 +2063,36 @@
   </si>
   <si>
     <t>021-46388</t>
+  </si>
+  <si>
+    <t>019-101022</t>
+  </si>
+  <si>
+    <t>021-101027</t>
+  </si>
+  <si>
+    <t>021-101031</t>
+  </si>
+  <si>
+    <t>021-101033</t>
+  </si>
+  <si>
+    <t>024-101034</t>
+  </si>
+  <si>
+    <t>026-101039</t>
+  </si>
+  <si>
+    <t>Otra nedstrøms doserer Iveland/Kattefoss</t>
+  </si>
+  <si>
+    <t>Otra oppstrøms doserer Iveland (Dalanekilen inntak)</t>
+  </si>
+  <si>
+    <t>Ny stasjon juli 2020 i forbindelse med ny doserer ved Iveland kraftverk. Prøvetas ved kraftverksinntak i Dalanekilen, Gåseflådammen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ny stasjon juli 2020. Prøvetas nedstrøms Kattefossen, ved Røyknesvegen. </t>
   </si>
 </sst>
 </file>
@@ -2114,18 +2135,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -2140,7 +2155,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -2151,7 +2166,10 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -18992,7 +19010,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="H224" sqref="H224"/>
+      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -19012,37 +19030,37 @@
   <sheetData>
     <row r="1" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
+        <v>665</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>666</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>667</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>668</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="E1" s="6" t="s">
+        <v>671</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>672</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>673</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>674</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>675</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>669</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>670</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>671</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>674</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>675</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>676</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>677</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>678</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>672</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
@@ -19053,10 +19071,10 @@
         <v>58</v>
       </c>
       <c r="C2" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="E2" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="G2" s="7">
         <v>292044.86731100001</v>
@@ -19068,7 +19086,7 @@
         <v>33</v>
       </c>
       <c r="J2" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.45">
@@ -19079,7 +19097,7 @@
         <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D3">
         <v>4</v>
@@ -19100,7 +19118,7 @@
         <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="K3" t="s">
         <v>44</v>
@@ -19120,7 +19138,7 @@
         <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G4" s="7">
         <v>146117.19357</v>
@@ -19132,10 +19150,10 @@
         <v>33</v>
       </c>
       <c r="J4" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="K4" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.45">
@@ -19152,7 +19170,7 @@
         <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G5" s="7">
         <v>143490.19312499999</v>
@@ -19164,7 +19182,7 @@
         <v>33</v>
       </c>
       <c r="J5" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.45">
@@ -19175,13 +19193,13 @@
         <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D6">
         <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G6" s="7">
         <v>143378.37487199999</v>
@@ -19193,10 +19211,10 @@
         <v>33</v>
       </c>
       <c r="J6" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="K6" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.45">
@@ -19228,7 +19246,7 @@
         <v>33</v>
       </c>
       <c r="J7" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.45">
@@ -19245,7 +19263,7 @@
         <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G8" s="7">
         <v>143345.53039299999</v>
@@ -19257,7 +19275,7 @@
         <v>33</v>
       </c>
       <c r="J8" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.45">
@@ -19274,7 +19292,7 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="G9" s="7">
         <v>128523.96044900001</v>
@@ -19286,7 +19304,7 @@
         <v>33</v>
       </c>
       <c r="J9" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.45">
@@ -19303,7 +19321,7 @@
         <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G10" s="7">
         <v>127731.485267</v>
@@ -19315,7 +19333,7 @@
         <v>33</v>
       </c>
       <c r="J10" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="K10" t="s">
         <v>7</v>
@@ -19335,7 +19353,7 @@
         <v>5</v>
       </c>
       <c r="E11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="G11" s="7">
         <v>112203.512682</v>
@@ -19347,7 +19365,7 @@
         <v>33</v>
       </c>
       <c r="J11" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="K11" t="s">
         <v>3</v>
@@ -19367,7 +19385,7 @@
         <v>7</v>
       </c>
       <c r="E12" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="G12" s="7">
         <v>101429.58238000001</v>
@@ -19379,7 +19397,7 @@
         <v>33</v>
       </c>
       <c r="J12" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="K12" t="s">
         <v>5</v>
@@ -19399,7 +19417,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="G13" s="7">
         <v>135135.323378</v>
@@ -19411,7 +19429,7 @@
         <v>33</v>
       </c>
       <c r="J13" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.45">
@@ -19440,7 +19458,7 @@
         <v>33</v>
       </c>
       <c r="J14" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.45">
@@ -19453,7 +19471,9 @@
       <c r="C15" t="s">
         <v>391</v>
       </c>
-      <c r="E15" s="8"/>
+      <c r="E15" t="s">
+        <v>677</v>
+      </c>
       <c r="G15" s="7">
         <v>131566</v>
       </c>
@@ -19464,10 +19484,10 @@
         <v>33</v>
       </c>
       <c r="J15" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="K15" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.45">
@@ -19478,7 +19498,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D16">
         <v>18</v>
@@ -19496,7 +19516,7 @@
         <v>33</v>
       </c>
       <c r="J16" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="K16" t="s">
         <v>341</v>
@@ -19510,10 +19530,10 @@
         <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E17" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="G17" s="7">
         <v>109017.94520099999</v>
@@ -19525,10 +19545,10 @@
         <v>33</v>
       </c>
       <c r="J17" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="K17" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.45">
@@ -19539,10 +19559,10 @@
         <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="E18" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="G18" s="7">
         <v>108864.263483</v>
@@ -19554,10 +19574,10 @@
         <v>33</v>
       </c>
       <c r="J18" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="K18" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.45">
@@ -19574,7 +19594,7 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G19" s="7">
         <v>97714.164554000003</v>
@@ -19586,7 +19606,7 @@
         <v>33</v>
       </c>
       <c r="J19" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.45">
@@ -19603,7 +19623,7 @@
         <v>2</v>
       </c>
       <c r="E20" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G20" s="7">
         <v>110363.331603</v>
@@ -19615,7 +19635,7 @@
         <v>33</v>
       </c>
       <c r="J20" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.45">
@@ -19632,7 +19652,7 @@
         <v>3</v>
       </c>
       <c r="E21" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G21" s="7">
         <v>113473.019562949</v>
@@ -19644,7 +19664,7 @@
         <v>33</v>
       </c>
       <c r="J21" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.45">
@@ -19661,7 +19681,7 @@
         <v>4</v>
       </c>
       <c r="E22" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="G22" s="7">
         <v>107965.167865</v>
@@ -19673,7 +19693,7 @@
         <v>33</v>
       </c>
       <c r="J22" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.45">
@@ -19705,7 +19725,7 @@
         <v>33</v>
       </c>
       <c r="J23" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="K23" t="s">
         <v>30</v>
@@ -19725,7 +19745,7 @@
         <v>7</v>
       </c>
       <c r="E24" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G24" s="7">
         <v>102268.121399</v>
@@ -19737,7 +19757,7 @@
         <v>33</v>
       </c>
       <c r="J24" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.45">
@@ -19769,7 +19789,7 @@
         <v>33</v>
       </c>
       <c r="J25" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.45">
@@ -19795,7 +19815,7 @@
         <v>33</v>
       </c>
       <c r="J26" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="K26" t="s">
         <v>342</v>
@@ -19812,10 +19832,10 @@
         <v>25</v>
       </c>
       <c r="D27" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="E27" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="G27" s="7">
         <v>97590.25232</v>
@@ -19827,7 +19847,7 @@
         <v>33</v>
       </c>
       <c r="J27" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="K27" t="s">
         <v>26</v>
@@ -19859,7 +19879,7 @@
         <v>33</v>
       </c>
       <c r="J28" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="K28" t="s">
         <v>383</v>
@@ -19891,7 +19911,7 @@
         <v>33</v>
       </c>
       <c r="J29" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="K29" t="s">
         <v>381</v>
@@ -19905,23 +19925,25 @@
         <v>330</v>
       </c>
       <c r="C30" t="s">
-        <v>604</v>
-      </c>
-      <c r="E30" s="8"/>
+        <v>601</v>
+      </c>
+      <c r="E30" t="s">
+        <v>678</v>
+      </c>
       <c r="G30" s="7">
         <v>83862</v>
       </c>
       <c r="H30" s="7">
         <v>6475878</v>
       </c>
-      <c r="I30" s="7">
+      <c r="I30" s="9">
         <v>33</v>
       </c>
       <c r="J30" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="K30" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.45">
@@ -19947,7 +19969,7 @@
         <v>33</v>
       </c>
       <c r="J31" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="K31" t="s">
         <v>382</v>
@@ -19961,10 +19983,10 @@
         <v>330</v>
       </c>
       <c r="C32" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E32" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G32" s="7">
         <v>89026</v>
@@ -19976,10 +19998,10 @@
         <v>33</v>
       </c>
       <c r="J32" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="K32" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.45">
@@ -19990,10 +20012,10 @@
         <v>330</v>
       </c>
       <c r="C33" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E33" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="G33" s="7">
         <v>84324</v>
@@ -20005,10 +20027,10 @@
         <v>33</v>
       </c>
       <c r="J33" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="K33" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.45">
@@ -20034,7 +20056,7 @@
         <v>33</v>
       </c>
       <c r="J34" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="K34" t="s">
         <v>385</v>
@@ -20066,7 +20088,7 @@
         <v>33</v>
       </c>
       <c r="J35" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="K35" t="s">
         <v>384</v>
@@ -20098,7 +20120,7 @@
         <v>33</v>
       </c>
       <c r="J36" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="K36" t="s">
         <v>384</v>
@@ -20112,17 +20134,25 @@
         <v>330</v>
       </c>
       <c r="C37" t="s">
-        <v>393</v>
-      </c>
-      <c r="E37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
+        <v>683</v>
+      </c>
+      <c r="E37" t="s">
+        <v>680</v>
+      </c>
+      <c r="G37" s="8">
+        <v>85526</v>
+      </c>
+      <c r="H37" s="8">
+        <v>6493180</v>
+      </c>
+      <c r="I37" s="9">
+        <v>33</v>
+      </c>
       <c r="J37" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="K37" t="s">
-        <v>423</v>
+        <v>686</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.45">
@@ -20133,17 +20163,25 @@
         <v>330</v>
       </c>
       <c r="C38" t="s">
-        <v>392</v>
-      </c>
-      <c r="E38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
+        <v>684</v>
+      </c>
+      <c r="E38" t="s">
+        <v>679</v>
+      </c>
+      <c r="G38" s="8">
+        <v>83953</v>
+      </c>
+      <c r="H38" s="8">
+        <v>6495884</v>
+      </c>
+      <c r="I38" s="9">
+        <v>33</v>
+      </c>
       <c r="J38" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="K38" t="s">
-        <v>423</v>
+        <v>685</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.45">
@@ -20154,10 +20192,10 @@
         <v>330</v>
       </c>
       <c r="C39" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E39" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G39" s="7">
         <v>76504</v>
@@ -20169,10 +20207,10 @@
         <v>33</v>
       </c>
       <c r="J39" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="K39" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.45">
@@ -20198,7 +20236,7 @@
         <v>33</v>
       </c>
       <c r="J40" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="K40" t="s">
         <v>50</v>
@@ -20215,7 +20253,7 @@
         <v>52</v>
       </c>
       <c r="E41" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="G41" s="7">
         <v>71614</v>
@@ -20227,7 +20265,7 @@
         <v>33</v>
       </c>
       <c r="J41" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="K41" t="s">
         <v>343</v>
@@ -20256,7 +20294,7 @@
         <v>33</v>
       </c>
       <c r="J42" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="K42" t="s">
         <v>343</v>
@@ -20285,7 +20323,7 @@
         <v>33</v>
       </c>
       <c r="J43" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="K43" t="s">
         <v>343</v>
@@ -20302,7 +20340,7 @@
         <v>321</v>
       </c>
       <c r="E44" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="G44" s="7">
         <v>78337.500564999995</v>
@@ -20314,7 +20352,7 @@
         <v>33</v>
       </c>
       <c r="J44" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.45">
@@ -20331,7 +20369,7 @@
         <v>324</v>
       </c>
       <c r="F45" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="G45" s="7">
         <v>75109</v>
@@ -20343,7 +20381,7 @@
         <v>33</v>
       </c>
       <c r="J45" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="K45" t="s">
         <v>323</v>
@@ -20375,7 +20413,7 @@
         <v>33</v>
       </c>
       <c r="J46" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="K46" t="s">
         <v>323</v>
@@ -20395,7 +20433,7 @@
         <v>329</v>
       </c>
       <c r="F47" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="G47" s="7">
         <v>76554</v>
@@ -20407,7 +20445,7 @@
         <v>33</v>
       </c>
       <c r="J47" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="K47" t="s">
         <v>323</v>
@@ -20427,7 +20465,7 @@
         <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="G48" s="7">
         <v>61346.669367000002</v>
@@ -20439,7 +20477,7 @@
         <v>33</v>
       </c>
       <c r="J48" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.45">
@@ -20456,7 +20494,7 @@
         <v>3</v>
       </c>
       <c r="E49" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="G49" s="7">
         <v>62838.750856999999</v>
@@ -20468,7 +20506,7 @@
         <v>33</v>
       </c>
       <c r="J49" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.45">
@@ -20479,13 +20517,13 @@
         <v>302</v>
       </c>
       <c r="C50" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D50">
         <v>5</v>
       </c>
       <c r="E50" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="G50" s="7">
         <v>63676.259080999997</v>
@@ -20497,7 +20535,7 @@
         <v>33</v>
       </c>
       <c r="J50" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.45">
@@ -20523,7 +20561,7 @@
         <v>33</v>
       </c>
       <c r="J51" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="K51" t="s">
         <v>376</v>
@@ -20537,13 +20575,13 @@
         <v>302</v>
       </c>
       <c r="C52" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="D52">
         <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="G52" s="7">
         <v>60939.076349000003</v>
@@ -20555,7 +20593,7 @@
         <v>33</v>
       </c>
       <c r="J52" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.45">
@@ -20566,13 +20604,13 @@
         <v>302</v>
       </c>
       <c r="C53" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="D53">
         <v>13</v>
       </c>
       <c r="E53" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="G53" s="7">
         <v>64515.144346000001</v>
@@ -20584,7 +20622,7 @@
         <v>33</v>
       </c>
       <c r="J53" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.45">
@@ -20595,13 +20633,13 @@
         <v>302</v>
       </c>
       <c r="C54" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="D54">
         <v>15</v>
       </c>
       <c r="E54" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="G54" s="7">
         <v>60469.991418999998</v>
@@ -20613,7 +20651,7 @@
         <v>33</v>
       </c>
       <c r="J54" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.45">
@@ -20639,7 +20677,7 @@
         <v>33</v>
       </c>
       <c r="J55" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="K55" t="s">
         <v>377</v>
@@ -20668,7 +20706,7 @@
         <v>33</v>
       </c>
       <c r="J56" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="K56" t="s">
         <v>378</v>
@@ -20703,7 +20741,7 @@
         <v>33</v>
       </c>
       <c r="J57" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.45">
@@ -20735,7 +20773,7 @@
         <v>33</v>
       </c>
       <c r="J58" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.45">
@@ -20752,7 +20790,7 @@
         <v>3</v>
       </c>
       <c r="E59" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="G59" s="7">
         <v>53424.904893999999</v>
@@ -20764,7 +20802,7 @@
         <v>33</v>
       </c>
       <c r="J59" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.45">
@@ -20781,7 +20819,7 @@
         <v>6</v>
       </c>
       <c r="E60" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="G60" s="7">
         <v>49359.760647000003</v>
@@ -20793,7 +20831,7 @@
         <v>33</v>
       </c>
       <c r="J60" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.45">
@@ -20807,10 +20845,10 @@
         <v>281</v>
       </c>
       <c r="D61" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E61" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G61" s="7">
         <v>54729.520605999998</v>
@@ -20822,7 +20860,7 @@
         <v>33</v>
       </c>
       <c r="J61" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.45">
@@ -20839,7 +20877,7 @@
         <v>14</v>
       </c>
       <c r="E62" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="G62" s="7">
         <v>50228.873606000001</v>
@@ -20851,7 +20889,7 @@
         <v>33</v>
       </c>
       <c r="J62" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.45">
@@ -20865,10 +20903,10 @@
         <v>278</v>
       </c>
       <c r="D63" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="E63" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="G63" s="7">
         <v>51266.087678999997</v>
@@ -20880,7 +20918,7 @@
         <v>33</v>
       </c>
       <c r="J63" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="K63" t="s">
         <v>373</v>
@@ -20897,10 +20935,10 @@
         <v>279</v>
       </c>
       <c r="D64" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="E64" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="G64" s="7">
         <v>51203</v>
@@ -20912,7 +20950,7 @@
         <v>33</v>
       </c>
       <c r="J64" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="K64" t="s">
         <v>374</v>
@@ -20932,7 +20970,7 @@
         <v>16</v>
       </c>
       <c r="E65" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="G65" s="7">
         <v>51069.624163</v>
@@ -20944,7 +20982,7 @@
         <v>33</v>
       </c>
       <c r="J65" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.45">
@@ -20973,7 +21011,7 @@
         <v>33</v>
       </c>
       <c r="J66" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="K66" t="s">
         <v>283</v>
@@ -20993,7 +21031,7 @@
         <v>1</v>
       </c>
       <c r="E67" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="G67" s="7">
         <v>38898.998094000002</v>
@@ -21005,7 +21043,7 @@
         <v>33</v>
       </c>
       <c r="J67" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.45">
@@ -21022,7 +21060,7 @@
         <v>2</v>
       </c>
       <c r="E68" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="G68" s="7">
         <v>40591.952972999999</v>
@@ -21034,7 +21072,7 @@
         <v>33</v>
       </c>
       <c r="J68" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.45">
@@ -21051,7 +21089,7 @@
         <v>3</v>
       </c>
       <c r="E69" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="G69" s="7">
         <v>44280.163765999998</v>
@@ -21063,7 +21101,7 @@
         <v>33</v>
       </c>
       <c r="J69" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.45">
@@ -21080,7 +21118,7 @@
         <v>4</v>
       </c>
       <c r="E70" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="G70" s="7">
         <v>46399.403963999997</v>
@@ -21092,7 +21130,7 @@
         <v>33</v>
       </c>
       <c r="J70" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.45">
@@ -21118,7 +21156,7 @@
         <v>33</v>
       </c>
       <c r="J71" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="K71" t="s">
         <v>386</v>
@@ -21132,23 +21170,25 @@
         <v>294</v>
       </c>
       <c r="C72" t="s">
-        <v>397</v>
-      </c>
-      <c r="E72" s="8"/>
+        <v>395</v>
+      </c>
+      <c r="E72" t="s">
+        <v>681</v>
+      </c>
       <c r="G72" s="7">
         <v>33005</v>
       </c>
       <c r="H72" s="7">
         <v>6477280</v>
       </c>
-      <c r="I72" s="7">
+      <c r="I72" s="9">
         <v>33</v>
       </c>
       <c r="J72" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="K72" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.45">
@@ -21165,7 +21205,7 @@
         <v>6</v>
       </c>
       <c r="E73" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="G73" s="7">
         <v>33804.067872</v>
@@ -21177,7 +21217,7 @@
         <v>33</v>
       </c>
       <c r="J73" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.45">
@@ -21188,13 +21228,13 @@
         <v>294</v>
       </c>
       <c r="C74" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="D74">
         <v>18</v>
       </c>
       <c r="E74" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="G74" s="7">
         <v>40380.618582000003</v>
@@ -21206,7 +21246,7 @@
         <v>33</v>
       </c>
       <c r="J74" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.45">
@@ -21217,13 +21257,13 @@
         <v>294</v>
       </c>
       <c r="C75" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D75">
         <v>19</v>
       </c>
       <c r="E75" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="G75" s="7">
         <v>35691.362739999997</v>
@@ -21235,7 +21275,7 @@
         <v>33</v>
       </c>
       <c r="J75" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.45">
@@ -21252,7 +21292,7 @@
         <v>3</v>
       </c>
       <c r="E76" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="G76" s="7">
         <v>30498.686836000001</v>
@@ -21264,7 +21304,7 @@
         <v>33</v>
       </c>
       <c r="J76" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.45">
@@ -21278,10 +21318,10 @@
         <v>291</v>
       </c>
       <c r="D77" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="E77" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="G77" s="7">
         <v>28114.788872000001</v>
@@ -21293,7 +21333,7 @@
         <v>33</v>
       </c>
       <c r="J77" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.45">
@@ -21304,13 +21344,13 @@
         <v>288</v>
       </c>
       <c r="C78" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="D78">
         <v>5</v>
       </c>
       <c r="E78" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="G78" s="7">
         <v>35953.846236999998</v>
@@ -21322,7 +21362,7 @@
         <v>33</v>
       </c>
       <c r="J78" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.45">
@@ -21339,7 +21379,7 @@
         <v>8</v>
       </c>
       <c r="E79" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="G79" s="7">
         <v>30470.752357000001</v>
@@ -21351,7 +21391,7 @@
         <v>33</v>
       </c>
       <c r="J79" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.45">
@@ -21380,7 +21420,7 @@
         <v>33</v>
       </c>
       <c r="J80" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="K80" t="s">
         <v>375</v>
@@ -21409,7 +21449,7 @@
         <v>33</v>
       </c>
       <c r="J81" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.45">
@@ -21420,7 +21460,7 @@
         <v>314</v>
       </c>
       <c r="C82" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="D82">
         <v>1</v>
@@ -21438,7 +21478,7 @@
         <v>33</v>
       </c>
       <c r="J82" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="K82" t="s">
         <v>317</v>
@@ -21452,13 +21492,13 @@
         <v>314</v>
       </c>
       <c r="C83" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="D83">
         <v>2</v>
       </c>
       <c r="E83" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="G83" s="7">
         <v>-239.22803300000001</v>
@@ -21470,7 +21510,7 @@
         <v>33</v>
       </c>
       <c r="J83" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.45">
@@ -21481,7 +21521,7 @@
         <v>314</v>
       </c>
       <c r="C84" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="D84">
         <v>3</v>
@@ -21499,7 +21539,7 @@
         <v>33</v>
       </c>
       <c r="J84" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="K84" t="s">
         <v>380</v>
@@ -21528,7 +21568,7 @@
         <v>33</v>
       </c>
       <c r="J85" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="K85" t="s">
         <v>379</v>
@@ -21542,13 +21582,13 @@
         <v>190</v>
       </c>
       <c r="C86" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D86">
         <v>1</v>
       </c>
       <c r="E86" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="G86" s="7">
         <v>-7923.0859179999998</v>
@@ -21560,10 +21600,10 @@
         <v>33</v>
       </c>
       <c r="J86" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="K86" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.45">
@@ -21574,9 +21614,11 @@
         <v>190</v>
       </c>
       <c r="C87" t="s">
-        <v>398</v>
-      </c>
-      <c r="E87" s="8"/>
+        <v>396</v>
+      </c>
+      <c r="E87" t="s">
+        <v>682</v>
+      </c>
       <c r="G87" s="7">
         <v>344012</v>
       </c>
@@ -21587,10 +21629,10 @@
         <v>32</v>
       </c>
       <c r="J87" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="K87" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.45">
@@ -21601,13 +21643,13 @@
         <v>190</v>
       </c>
       <c r="C88" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="D88">
         <v>2</v>
       </c>
       <c r="E88" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="G88" s="7">
         <v>-7928.9469600000002</v>
@@ -21619,7 +21661,7 @@
         <v>33</v>
       </c>
       <c r="J88" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.45">
@@ -21630,13 +21672,13 @@
         <v>190</v>
       </c>
       <c r="C89" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D89">
         <v>3</v>
       </c>
       <c r="E89" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="G89" s="7">
         <v>-5753.0666590000001</v>
@@ -21648,7 +21690,7 @@
         <v>33</v>
       </c>
       <c r="J89" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.45">
@@ -21659,13 +21701,13 @@
         <v>190</v>
       </c>
       <c r="C90" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="D90">
         <v>4</v>
       </c>
       <c r="E90" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="G90" s="7">
         <v>-6353.2602809999998</v>
@@ -21677,7 +21719,7 @@
         <v>33</v>
       </c>
       <c r="J90" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.45">
@@ -21688,13 +21730,13 @@
         <v>190</v>
       </c>
       <c r="C91" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D91">
         <v>5</v>
       </c>
       <c r="E91" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="G91" s="7">
         <v>-7669.1387459999996</v>
@@ -21706,7 +21748,7 @@
         <v>33</v>
       </c>
       <c r="J91" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.45">
@@ -21732,7 +21774,7 @@
         <v>33</v>
       </c>
       <c r="J92" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="K92" t="s">
         <v>363</v>
@@ -21761,7 +21803,7 @@
         <v>33</v>
       </c>
       <c r="J93" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="K93" t="s">
         <v>363</v>
@@ -21793,7 +21835,7 @@
         <v>33</v>
       </c>
       <c r="J94" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="K94" t="s">
         <v>364</v>
@@ -21822,7 +21864,7 @@
         <v>33</v>
       </c>
       <c r="J95" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="K95" t="s">
         <v>363</v>
@@ -21851,7 +21893,7 @@
         <v>33</v>
       </c>
       <c r="J96" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="K96" t="s">
         <v>363</v>
@@ -21883,7 +21925,7 @@
         <v>33</v>
       </c>
       <c r="J97" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="K97" t="s">
         <v>365</v>
@@ -21903,7 +21945,7 @@
         <v>1</v>
       </c>
       <c r="E98" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="G98" s="7">
         <v>-24148.784555999999</v>
@@ -21915,7 +21957,7 @@
         <v>33</v>
       </c>
       <c r="J98" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.45">
@@ -21932,7 +21974,7 @@
         <v>4</v>
       </c>
       <c r="E99" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="G99" s="7">
         <v>-16555.674385999999</v>
@@ -21944,7 +21986,7 @@
         <v>33</v>
       </c>
       <c r="J99" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.45">
@@ -21961,7 +22003,7 @@
         <v>6</v>
       </c>
       <c r="E100" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="G100" s="7">
         <v>865.74685199999999</v>
@@ -21973,7 +22015,7 @@
         <v>33</v>
       </c>
       <c r="J100" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.45">
@@ -21990,7 +22032,7 @@
         <v>7</v>
       </c>
       <c r="E101" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="G101" s="7">
         <v>1688.192515</v>
@@ -22002,7 +22044,7 @@
         <v>33</v>
       </c>
       <c r="J101" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.45">
@@ -22019,7 +22061,7 @@
         <v>8</v>
       </c>
       <c r="E102" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="G102" s="7">
         <v>-7748.0731370000003</v>
@@ -22031,7 +22073,7 @@
         <v>33</v>
       </c>
       <c r="J102" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.45">
@@ -22048,7 +22090,7 @@
         <v>9</v>
       </c>
       <c r="E103" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="G103" s="7">
         <v>-11817.160059</v>
@@ -22060,7 +22102,7 @@
         <v>33</v>
       </c>
       <c r="J103" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.45">
@@ -22077,7 +22119,7 @@
         <v>12</v>
       </c>
       <c r="E104" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="G104" s="7">
         <v>-15325.023718</v>
@@ -22089,7 +22131,7 @@
         <v>33</v>
       </c>
       <c r="J104" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.45">
@@ -22106,7 +22148,7 @@
         <v>14</v>
       </c>
       <c r="E105" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="G105" s="7">
         <v>-9237.6714699999993</v>
@@ -22118,7 +22160,7 @@
         <v>33</v>
       </c>
       <c r="J105" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="K105" t="s">
         <v>147</v>
@@ -22138,7 +22180,7 @@
         <v>15</v>
       </c>
       <c r="E106" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="G106" s="7">
         <v>-9693.6067800000001</v>
@@ -22150,7 +22192,7 @@
         <v>33</v>
       </c>
       <c r="J106" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="K106" t="s">
         <v>145</v>
@@ -22164,13 +22206,13 @@
         <v>175</v>
       </c>
       <c r="C107" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D107">
         <v>4</v>
       </c>
       <c r="E107" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="G107" s="7">
         <v>-32671.270689000001</v>
@@ -22182,10 +22224,10 @@
         <v>33</v>
       </c>
       <c r="J107" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="K107" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.45">
@@ -22202,7 +22244,7 @@
         <v>48</v>
       </c>
       <c r="E108" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="G108" s="7">
         <v>-21333.146041</v>
@@ -22214,10 +22256,10 @@
         <v>33</v>
       </c>
       <c r="J108" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="K108" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.45">
@@ -22234,7 +22276,7 @@
         <v>50</v>
       </c>
       <c r="E109" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="G109" s="7">
         <v>-23756.366348</v>
@@ -22246,7 +22288,7 @@
         <v>33</v>
       </c>
       <c r="J109" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.45">
@@ -22263,7 +22305,7 @@
         <v>51</v>
       </c>
       <c r="E110" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="G110" s="7">
         <v>-23746.894015999998</v>
@@ -22275,7 +22317,7 @@
         <v>33</v>
       </c>
       <c r="J110" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.45">
@@ -22292,7 +22334,7 @@
         <v>52</v>
       </c>
       <c r="E111" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="G111" s="7">
         <v>-32698.885877000001</v>
@@ -22304,10 +22346,10 @@
         <v>33</v>
       </c>
       <c r="J111" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="K111" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.45">
@@ -22318,7 +22360,7 @@
         <v>175</v>
       </c>
       <c r="C112" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="D112">
         <v>53</v>
@@ -22339,10 +22381,10 @@
         <v>33</v>
       </c>
       <c r="J112" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="K112" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.45">
@@ -22359,7 +22401,7 @@
         <v>1</v>
       </c>
       <c r="E113" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G113" s="7">
         <v>-967.01564800000006</v>
@@ -22371,7 +22413,7 @@
         <v>33</v>
       </c>
       <c r="J113" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="K113" t="s">
         <v>166</v>
@@ -22385,16 +22427,16 @@
         <v>159</v>
       </c>
       <c r="C114" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="D114">
         <v>2</v>
       </c>
       <c r="E114" t="s">
+        <v>500</v>
+      </c>
+      <c r="F114" t="s">
         <v>503</v>
-      </c>
-      <c r="F114" t="s">
-        <v>506</v>
       </c>
       <c r="G114" s="7">
         <v>2426.211605</v>
@@ -22406,7 +22448,7 @@
         <v>33</v>
       </c>
       <c r="J114" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="K114" t="s">
         <v>160</v>
@@ -22441,7 +22483,7 @@
         <v>33</v>
       </c>
       <c r="J115" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="K115" t="s">
         <v>162</v>
@@ -22455,16 +22497,16 @@
         <v>159</v>
       </c>
       <c r="C116" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="D116">
         <v>4</v>
       </c>
       <c r="E116" t="s">
+        <v>501</v>
+      </c>
+      <c r="F116" t="s">
         <v>504</v>
-      </c>
-      <c r="F116" t="s">
-        <v>507</v>
       </c>
       <c r="G116" s="7">
         <v>2589.447658</v>
@@ -22476,7 +22518,7 @@
         <v>33</v>
       </c>
       <c r="J116" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="K116" t="s">
         <v>356</v>
@@ -22490,16 +22532,16 @@
         <v>159</v>
       </c>
       <c r="C117" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="D117">
         <v>5</v>
       </c>
       <c r="E117" t="s">
+        <v>502</v>
+      </c>
+      <c r="F117" t="s">
         <v>505</v>
-      </c>
-      <c r="F117" t="s">
-        <v>508</v>
       </c>
       <c r="G117" s="7">
         <v>3231.5613589999998</v>
@@ -22511,7 +22553,7 @@
         <v>33</v>
       </c>
       <c r="J117" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="K117" t="s">
         <v>357</v>
@@ -22528,10 +22570,10 @@
         <v>158</v>
       </c>
       <c r="D118" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="E118" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="G118" s="7">
         <v>-435.61006500000002</v>
@@ -22543,7 +22585,7 @@
         <v>33</v>
       </c>
       <c r="J118" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.45">
@@ -22560,7 +22602,7 @@
         <v>1</v>
       </c>
       <c r="E119" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="G119" s="7">
         <v>-445.99656299999998</v>
@@ -22572,7 +22614,7 @@
         <v>33</v>
       </c>
       <c r="J119" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="K119" t="s">
         <v>157</v>
@@ -22592,7 +22634,7 @@
         <v>3</v>
       </c>
       <c r="E120" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="G120" s="7">
         <v>-4131.4289749999998</v>
@@ -22604,7 +22646,7 @@
         <v>33</v>
       </c>
       <c r="J120" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.45">
@@ -22621,7 +22663,7 @@
         <v>5</v>
       </c>
       <c r="E121" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="G121" s="7">
         <v>-9405.6402849999995</v>
@@ -22633,7 +22675,7 @@
         <v>33</v>
       </c>
       <c r="J121" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.45">
@@ -22650,7 +22692,7 @@
         <v>6</v>
       </c>
       <c r="E122" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="G122" s="7">
         <v>847.46973000000003</v>
@@ -22662,7 +22704,7 @@
         <v>33</v>
       </c>
       <c r="J122" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.45">
@@ -22673,13 +22715,13 @@
         <v>172</v>
       </c>
       <c r="C123" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="D123">
         <v>1</v>
       </c>
       <c r="E123" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="G123" s="7">
         <v>24767.383523</v>
@@ -22691,7 +22733,7 @@
         <v>33</v>
       </c>
       <c r="J123" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.45">
@@ -22702,13 +22744,13 @@
         <v>172</v>
       </c>
       <c r="C124" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D124">
         <v>3</v>
       </c>
       <c r="E124" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="G124" s="7">
         <v>22269.240881000002</v>
@@ -22720,7 +22762,7 @@
         <v>33</v>
       </c>
       <c r="J124" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.45">
@@ -22731,13 +22773,13 @@
         <v>172</v>
       </c>
       <c r="C125" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="D125">
         <v>4</v>
       </c>
       <c r="E125" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="G125" s="7">
         <v>22042.742042999998</v>
@@ -22749,7 +22791,7 @@
         <v>33</v>
       </c>
       <c r="J125" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="K125" t="s">
         <v>174</v>
@@ -22769,7 +22811,7 @@
         <v>7</v>
       </c>
       <c r="E126" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="G126" s="7">
         <v>23098.613496999998</v>
@@ -22781,7 +22823,7 @@
         <v>33</v>
       </c>
       <c r="J126" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.45">
@@ -22795,7 +22837,7 @@
         <v>168</v>
       </c>
       <c r="D127" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="E127" t="s">
         <v>169</v>
@@ -22813,10 +22855,10 @@
         <v>33</v>
       </c>
       <c r="J127" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="K127" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.45">
@@ -22833,7 +22875,7 @@
         <v>4</v>
       </c>
       <c r="E128" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="G128" s="7">
         <v>-13128.407453</v>
@@ -22845,7 +22887,7 @@
         <v>33</v>
       </c>
       <c r="J128" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.45">
@@ -22856,7 +22898,7 @@
         <v>206</v>
       </c>
       <c r="C129" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="D129">
         <v>11</v>
@@ -22874,7 +22916,7 @@
         <v>33</v>
       </c>
       <c r="J129" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.45">
@@ -22885,7 +22927,7 @@
         <v>206</v>
       </c>
       <c r="C130" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="D130">
         <v>12</v>
@@ -22903,7 +22945,7 @@
         <v>33</v>
       </c>
       <c r="J130" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="K130" t="s">
         <v>366</v>
@@ -22935,7 +22977,7 @@
         <v>33</v>
       </c>
       <c r="J131" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.45">
@@ -22946,7 +22988,7 @@
         <v>206</v>
       </c>
       <c r="C132" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="D132">
         <v>14</v>
@@ -22964,7 +23006,7 @@
         <v>33</v>
       </c>
       <c r="J132" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.45">
@@ -22993,7 +23035,7 @@
         <v>33</v>
       </c>
       <c r="J133" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.45">
@@ -23022,7 +23064,7 @@
         <v>33</v>
       </c>
       <c r="J134" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="K134" t="s">
         <v>367</v>
@@ -23039,7 +23081,7 @@
         <v>224</v>
       </c>
       <c r="D135" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="E135" t="s">
         <v>225</v>
@@ -23054,7 +23096,7 @@
         <v>33</v>
       </c>
       <c r="J135" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.45">
@@ -23068,7 +23110,7 @@
         <v>222</v>
       </c>
       <c r="D136" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="E136" t="s">
         <v>223</v>
@@ -23083,7 +23125,7 @@
         <v>33</v>
       </c>
       <c r="J136" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.45">
@@ -23097,7 +23139,7 @@
         <v>218</v>
       </c>
       <c r="D137" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="E137" t="s">
         <v>219</v>
@@ -23112,7 +23154,7 @@
         <v>33</v>
       </c>
       <c r="J137" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.45">
@@ -23126,7 +23168,7 @@
         <v>216</v>
       </c>
       <c r="D138" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="E138" t="s">
         <v>217</v>
@@ -23141,7 +23183,7 @@
         <v>33</v>
       </c>
       <c r="J138" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.45">
@@ -23155,7 +23197,7 @@
         <v>207</v>
       </c>
       <c r="D139" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="E139" t="s">
         <v>208</v>
@@ -23170,7 +23212,7 @@
         <v>33</v>
       </c>
       <c r="J139" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.45">
@@ -23181,10 +23223,10 @@
         <v>206</v>
       </c>
       <c r="C140" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="D140" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="E140" t="s">
         <v>226</v>
@@ -23199,7 +23241,7 @@
         <v>33</v>
       </c>
       <c r="J140" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="K140" t="s">
         <v>368</v>
@@ -23213,10 +23255,10 @@
         <v>206</v>
       </c>
       <c r="C141" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="D141" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="E141" t="s">
         <v>227</v>
@@ -23231,7 +23273,7 @@
         <v>33</v>
       </c>
       <c r="J141" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="K141" t="s">
         <v>369</v>
@@ -23245,10 +23287,10 @@
         <v>206</v>
       </c>
       <c r="C142" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="D142" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="E142" t="s">
         <v>228</v>
@@ -23263,7 +23305,7 @@
         <v>33</v>
       </c>
       <c r="J142" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="K142" t="s">
         <v>247</v>
@@ -23280,10 +23322,10 @@
         <v>236</v>
       </c>
       <c r="D143" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="E143" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="G143" s="7">
         <v>-13388.353966000001</v>
@@ -23295,7 +23337,7 @@
         <v>33</v>
       </c>
       <c r="J143" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.45">
@@ -23309,7 +23351,7 @@
         <v>233</v>
       </c>
       <c r="D144" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="E144" t="s">
         <v>234</v>
@@ -23327,10 +23369,10 @@
         <v>32</v>
       </c>
       <c r="J144" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="K144" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.45">
@@ -23344,10 +23386,10 @@
         <v>232</v>
       </c>
       <c r="D145" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="E145" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="G145" s="7">
         <v>-10380.171338</v>
@@ -23359,7 +23401,7 @@
         <v>33</v>
       </c>
       <c r="J145" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.45">
@@ -23373,10 +23415,10 @@
         <v>231</v>
       </c>
       <c r="D146" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="E146" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="G146" s="7">
         <v>-9248.3661780000002</v>
@@ -23388,7 +23430,7 @@
         <v>33</v>
       </c>
       <c r="J146" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.45">
@@ -23402,10 +23444,10 @@
         <v>230</v>
       </c>
       <c r="D147" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="E147" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="G147" s="7">
         <v>-9339.310442</v>
@@ -23417,7 +23459,7 @@
         <v>33</v>
       </c>
       <c r="J147" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.45">
@@ -23428,10 +23470,10 @@
         <v>229</v>
       </c>
       <c r="C148" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="D148" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="E148" t="s">
         <v>237</v>
@@ -23446,7 +23488,7 @@
         <v>33</v>
       </c>
       <c r="J148" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="K148" t="s">
         <v>370</v>
@@ -23463,7 +23505,7 @@
         <v>360</v>
       </c>
       <c r="D149" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="E149" t="s">
         <v>186</v>
@@ -23481,7 +23523,7 @@
         <v>33</v>
       </c>
       <c r="J149" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="K149" t="s">
         <v>361</v>
@@ -23498,7 +23540,7 @@
         <v>188</v>
       </c>
       <c r="D150" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="E150" t="s">
         <v>189</v>
@@ -23513,7 +23555,7 @@
         <v>33</v>
       </c>
       <c r="J150" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="K150" t="s">
         <v>362</v>
@@ -23530,7 +23572,7 @@
         <v>359</v>
       </c>
       <c r="D151" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="E151" t="s">
         <v>185</v>
@@ -23545,7 +23587,7 @@
         <v>33</v>
       </c>
       <c r="J151" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="K151" t="s">
         <v>358</v>
@@ -23562,13 +23604,13 @@
         <v>183</v>
       </c>
       <c r="D152" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="E152" t="s">
         <v>184</v>
       </c>
       <c r="F152" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="G152" s="7">
         <v>-15236</v>
@@ -23580,10 +23622,10 @@
         <v>33</v>
       </c>
       <c r="J152" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="K152" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.45">
@@ -23594,16 +23636,16 @@
         <v>93</v>
       </c>
       <c r="C153" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="D153" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="E153" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="F153" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="G153" s="7">
         <v>-9606.8189999999995</v>
@@ -23615,7 +23657,7 @@
         <v>33</v>
       </c>
       <c r="J153" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.45">
@@ -23626,16 +23668,16 @@
         <v>93</v>
       </c>
       <c r="C154" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="D154" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E154" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="F154" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="G154" s="7">
         <v>-7081.4575999999997</v>
@@ -23647,7 +23689,7 @@
         <v>33</v>
       </c>
       <c r="J154" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.45">
@@ -23658,16 +23700,16 @@
         <v>93</v>
       </c>
       <c r="C155" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="D155" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="E155" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="F155" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="G155" s="7">
         <v>-7682.8486999999996</v>
@@ -23679,10 +23721,10 @@
         <v>33</v>
       </c>
       <c r="J155" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="K155" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.45">
@@ -23693,16 +23735,16 @@
         <v>93</v>
       </c>
       <c r="C156" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="D156" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="E156" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="F156" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="G156" s="7">
         <v>-7941.6787000000004</v>
@@ -23714,10 +23756,10 @@
         <v>33</v>
       </c>
       <c r="J156" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="K156" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.45">
@@ -23731,7 +23773,7 @@
         <v>89</v>
       </c>
       <c r="E157" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="G157" s="7">
         <v>-1511.7375999999999</v>
@@ -23743,7 +23785,7 @@
         <v>33</v>
       </c>
       <c r="J157" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.45">
@@ -23757,7 +23799,7 @@
         <v>88</v>
       </c>
       <c r="E158" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="G158" s="7">
         <v>205.46729999999999</v>
@@ -23769,7 +23811,7 @@
         <v>33</v>
       </c>
       <c r="J158" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.45">
@@ -23783,10 +23825,10 @@
         <v>90</v>
       </c>
       <c r="D159" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="E159" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="G159" s="7">
         <v>-5621.3424999999997</v>
@@ -23798,7 +23840,7 @@
         <v>33</v>
       </c>
       <c r="J159" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.45">
@@ -23812,10 +23854,10 @@
         <v>91</v>
       </c>
       <c r="D160" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="E160" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="G160" s="7">
         <v>-5808.415</v>
@@ -23827,7 +23869,7 @@
         <v>33</v>
       </c>
       <c r="J160" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="K160" t="s">
         <v>344</v>
@@ -23844,10 +23886,10 @@
         <v>92</v>
       </c>
       <c r="D161" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="E161" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="G161" s="7">
         <v>-7743.46</v>
@@ -23859,7 +23901,7 @@
         <v>33</v>
       </c>
       <c r="J161" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.45">
@@ -23873,10 +23915,10 @@
         <v>60</v>
       </c>
       <c r="D162" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="E162" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="G162" s="7">
         <v>-1325.5878</v>
@@ -23888,7 +23930,7 @@
         <v>33</v>
       </c>
       <c r="J162" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.45">
@@ -23902,10 +23944,10 @@
         <v>61</v>
       </c>
       <c r="D163" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="E163" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="G163" s="7">
         <v>-2308.2676999999999</v>
@@ -23917,7 +23959,7 @@
         <v>33</v>
       </c>
       <c r="J163" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.45">
@@ -23931,10 +23973,10 @@
         <v>97</v>
       </c>
       <c r="D164" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="E164" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="G164" s="7">
         <v>37414.972500000003</v>
@@ -23946,7 +23988,7 @@
         <v>33</v>
       </c>
       <c r="J164" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.45">
@@ -23960,10 +24002,10 @@
         <v>98</v>
       </c>
       <c r="D165" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="E165" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="G165" s="7">
         <v>32589.801899999999</v>
@@ -23975,7 +24017,7 @@
         <v>33</v>
       </c>
       <c r="J165" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.45">
@@ -23989,10 +24031,10 @@
         <v>96</v>
       </c>
       <c r="D166" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="E166" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="G166" s="7">
         <v>17092.468199999999</v>
@@ -24004,7 +24046,7 @@
         <v>33</v>
       </c>
       <c r="J166" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.45">
@@ -24018,10 +24060,10 @@
         <v>99</v>
       </c>
       <c r="D167" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="E167" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="G167" s="7">
         <v>14021.164199999999</v>
@@ -24033,7 +24075,7 @@
         <v>33</v>
       </c>
       <c r="J167" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.45">
@@ -24047,10 +24089,10 @@
         <v>95</v>
       </c>
       <c r="D168" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="E168" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="G168" s="7">
         <v>6492.1962000000003</v>
@@ -24062,7 +24104,7 @@
         <v>33</v>
       </c>
       <c r="J168" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.45">
@@ -24076,10 +24118,10 @@
         <v>100</v>
       </c>
       <c r="D169" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="E169" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="G169" s="7">
         <v>14581.5694</v>
@@ -24091,7 +24133,7 @@
         <v>33</v>
       </c>
       <c r="J169" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.45">
@@ -24102,16 +24144,16 @@
         <v>94</v>
       </c>
       <c r="C170" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="D170">
         <v>10</v>
       </c>
       <c r="E170" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="F170" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="G170" s="7">
         <v>14174.4043</v>
@@ -24123,7 +24165,7 @@
         <v>33</v>
       </c>
       <c r="J170" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.45">
@@ -24137,7 +24179,7 @@
         <v>69</v>
       </c>
       <c r="D171" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="E171" t="s">
         <v>70</v>
@@ -24155,7 +24197,7 @@
         <v>33</v>
       </c>
       <c r="J171" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.45">
@@ -24169,7 +24211,7 @@
         <v>81</v>
       </c>
       <c r="D172" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="E172" t="s">
         <v>83</v>
@@ -24187,7 +24229,7 @@
         <v>33</v>
       </c>
       <c r="J172" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="K172" t="s">
         <v>82</v>
@@ -24204,7 +24246,7 @@
         <v>75</v>
       </c>
       <c r="D173" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="E173" t="s">
         <v>76</v>
@@ -24222,7 +24264,7 @@
         <v>33</v>
       </c>
       <c r="J173" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.45">
@@ -24236,7 +24278,7 @@
         <v>63</v>
       </c>
       <c r="D174" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="E174" t="s">
         <v>64</v>
@@ -24254,7 +24296,7 @@
         <v>33</v>
       </c>
       <c r="J174" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.45">
@@ -24268,7 +24310,7 @@
         <v>66</v>
       </c>
       <c r="D175" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="E175" t="s">
         <v>67</v>
@@ -24286,7 +24328,7 @@
         <v>33</v>
       </c>
       <c r="J175" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.45">
@@ -24300,7 +24342,7 @@
         <v>78</v>
       </c>
       <c r="D176" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="E176" t="s">
         <v>79</v>
@@ -24318,7 +24360,7 @@
         <v>33</v>
       </c>
       <c r="J176" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.45">
@@ -24332,7 +24374,7 @@
         <v>85</v>
       </c>
       <c r="D177" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="E177" t="s">
         <v>86</v>
@@ -24350,7 +24392,7 @@
         <v>33</v>
       </c>
       <c r="J177" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.45">
@@ -24364,7 +24406,7 @@
         <v>72</v>
       </c>
       <c r="D178" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="E178" t="s">
         <v>73</v>
@@ -24382,7 +24424,7 @@
         <v>33</v>
       </c>
       <c r="J178" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.45">
@@ -24393,10 +24435,10 @@
         <v>128</v>
       </c>
       <c r="C179" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="D179" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="E179" t="s">
         <v>129</v>
@@ -24414,7 +24456,7 @@
         <v>33</v>
       </c>
       <c r="J179" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="K179" t="s">
         <v>352</v>
@@ -24428,10 +24470,10 @@
         <v>128</v>
       </c>
       <c r="C180" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="D180" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="E180" t="s">
         <v>132</v>
@@ -24446,7 +24488,7 @@
         <v>33</v>
       </c>
       <c r="J180" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="K180" t="s">
         <v>131</v>
@@ -24460,10 +24502,10 @@
         <v>128</v>
       </c>
       <c r="C181" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="D181" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="E181" t="s">
         <v>134</v>
@@ -24481,7 +24523,7 @@
         <v>33</v>
       </c>
       <c r="J181" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="K181" t="s">
         <v>354</v>
@@ -24495,10 +24537,10 @@
         <v>128</v>
       </c>
       <c r="C182" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="D182" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="E182" t="s">
         <v>133</v>
@@ -24513,7 +24555,7 @@
         <v>33</v>
       </c>
       <c r="J182" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="K182" t="s">
         <v>353</v>
@@ -24527,10 +24569,10 @@
         <v>128</v>
       </c>
       <c r="C183" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="D183" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="E183" t="s">
         <v>136</v>
@@ -24545,7 +24587,7 @@
         <v>33</v>
       </c>
       <c r="J183" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="K183" t="s">
         <v>131</v>
@@ -24559,10 +24601,10 @@
         <v>128</v>
       </c>
       <c r="C184" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="D184" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="E184" t="s">
         <v>137</v>
@@ -24580,7 +24622,7 @@
         <v>33</v>
       </c>
       <c r="J184" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="K184" t="s">
         <v>355</v>
@@ -24612,7 +24654,7 @@
         <v>33</v>
       </c>
       <c r="J185" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="K185" t="s">
         <v>82</v>
@@ -24641,7 +24683,7 @@
         <v>33</v>
       </c>
       <c r="J186" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="K186" t="s">
         <v>82</v>
@@ -24673,7 +24715,7 @@
         <v>33</v>
       </c>
       <c r="J187" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="K187" t="s">
         <v>82</v>
@@ -24690,7 +24732,7 @@
         <v>106</v>
       </c>
       <c r="D188" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="E188" t="s">
         <v>107</v>
@@ -24705,7 +24747,7 @@
         <v>33</v>
       </c>
       <c r="J188" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="K188" t="s">
         <v>347</v>
@@ -24722,7 +24764,7 @@
         <v>108</v>
       </c>
       <c r="D189" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="E189" t="s">
         <v>109</v>
@@ -24737,7 +24779,7 @@
         <v>33</v>
       </c>
       <c r="J189" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="K189" t="s">
         <v>347</v>
@@ -24754,7 +24796,7 @@
         <v>110</v>
       </c>
       <c r="D190" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="E190" t="s">
         <v>111</v>
@@ -24769,7 +24811,7 @@
         <v>33</v>
       </c>
       <c r="J190" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="K190" t="s">
         <v>347</v>
@@ -24786,7 +24828,7 @@
         <v>112</v>
       </c>
       <c r="D191" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="E191" t="s">
         <v>113</v>
@@ -24801,7 +24843,7 @@
         <v>33</v>
       </c>
       <c r="J191" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="K191" t="s">
         <v>347</v>
@@ -24818,7 +24860,7 @@
         <v>115</v>
       </c>
       <c r="D192" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="E192" t="s">
         <v>116</v>
@@ -24833,7 +24875,7 @@
         <v>33</v>
       </c>
       <c r="J192" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="K192" t="s">
         <v>347</v>
@@ -24850,7 +24892,7 @@
         <v>117</v>
       </c>
       <c r="D193" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="E193" t="s">
         <v>118</v>
@@ -24865,7 +24907,7 @@
         <v>33</v>
       </c>
       <c r="J193" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="K193" t="s">
         <v>347</v>
@@ -24882,7 +24924,7 @@
         <v>119</v>
       </c>
       <c r="D194" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="E194" t="s">
         <v>120</v>
@@ -24897,7 +24939,7 @@
         <v>33</v>
       </c>
       <c r="J194" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="K194" t="s">
         <v>347</v>
@@ -24914,10 +24956,10 @@
         <v>103</v>
       </c>
       <c r="D195" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="E195" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="G195" s="7">
         <v>-22737.912199999999</v>
@@ -24929,7 +24971,7 @@
         <v>33</v>
       </c>
       <c r="J195" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="K195" t="s">
         <v>350</v>
@@ -24946,10 +24988,10 @@
         <v>102</v>
       </c>
       <c r="D196" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="E196" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="G196" s="7">
         <v>-27117.159599999999</v>
@@ -24961,7 +25003,7 @@
         <v>33</v>
       </c>
       <c r="J196" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.45">
@@ -24975,10 +25017,10 @@
         <v>101</v>
       </c>
       <c r="D197" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="E197" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="G197" s="7">
         <v>-27524.878000000001</v>
@@ -24990,7 +25032,7 @@
         <v>33</v>
       </c>
       <c r="J197" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.45">
@@ -25001,13 +25043,13 @@
         <v>390</v>
       </c>
       <c r="C198" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D198" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="E198" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="G198" s="7">
         <v>-30216.382900000001</v>
@@ -25019,7 +25061,7 @@
         <v>33</v>
       </c>
       <c r="J198" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="K198" t="s">
         <v>349</v>
@@ -25033,13 +25075,13 @@
         <v>390</v>
       </c>
       <c r="C199" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="D199" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="E199" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="G199" s="7">
         <v>-30401.414799999999</v>
@@ -25051,10 +25093,10 @@
         <v>33</v>
       </c>
       <c r="J199" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="K199" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.45">
@@ -25068,7 +25110,7 @@
         <v>346</v>
       </c>
       <c r="D200" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="E200" t="s">
         <v>104</v>
@@ -25083,7 +25125,7 @@
         <v>33</v>
       </c>
       <c r="J200" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="K200" t="s">
         <v>345</v>
@@ -25097,13 +25139,13 @@
         <v>390</v>
       </c>
       <c r="C201" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="D201" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="E201" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="G201" s="7">
         <v>-24672.011399999999</v>
@@ -25115,10 +25157,10 @@
         <v>33</v>
       </c>
       <c r="J201" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="K201" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.45">
@@ -25132,10 +25174,10 @@
         <v>259</v>
       </c>
       <c r="E202" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="F202" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="G202" s="7">
         <v>26158.044693</v>
@@ -25147,7 +25189,7 @@
         <v>33</v>
       </c>
       <c r="J202" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="K202" t="s">
         <v>260</v>
@@ -25164,10 +25206,10 @@
         <v>261</v>
       </c>
       <c r="E203" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="F203" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="G203" s="7">
         <v>26065.148562999999</v>
@@ -25179,7 +25221,7 @@
         <v>33</v>
       </c>
       <c r="J203" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="K203" t="s">
         <v>262</v>
@@ -25196,10 +25238,10 @@
         <v>263</v>
       </c>
       <c r="E204" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="F204" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="G204" s="7">
         <v>26116.073284999999</v>
@@ -25211,7 +25253,7 @@
         <v>33</v>
       </c>
       <c r="J204" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="K204" t="s">
         <v>372</v>
@@ -25228,10 +25270,10 @@
         <v>264</v>
       </c>
       <c r="E205" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="F205" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="G205" s="7">
         <v>21795.243349</v>
@@ -25243,7 +25285,7 @@
         <v>33</v>
       </c>
       <c r="J205" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="K205" t="s">
         <v>265</v>
@@ -25260,10 +25302,10 @@
         <v>266</v>
       </c>
       <c r="E206" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="F206" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="G206" s="7">
         <v>24700.341451</v>
@@ -25275,7 +25317,7 @@
         <v>33</v>
       </c>
       <c r="J206" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.45">
@@ -25304,7 +25346,7 @@
         <v>33</v>
       </c>
       <c r="J207" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="K207" t="s">
         <v>268</v>
@@ -25321,10 +25363,10 @@
         <v>248</v>
       </c>
       <c r="D208" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="E208" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="G208" s="7">
         <v>-5382.4546069999997</v>
@@ -25336,7 +25378,7 @@
         <v>33</v>
       </c>
       <c r="J208" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.45">
@@ -25350,10 +25392,10 @@
         <v>251</v>
       </c>
       <c r="D209" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="E209" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="G209" s="7">
         <v>-5863.5875050000004</v>
@@ -25365,7 +25407,7 @@
         <v>33</v>
       </c>
       <c r="J209" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="K209" t="s">
         <v>252</v>
@@ -25379,16 +25421,16 @@
         <v>238</v>
       </c>
       <c r="C210" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D210" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="E210" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="F210" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="G210" s="7">
         <v>-6692</v>
@@ -25400,10 +25442,10 @@
         <v>33</v>
       </c>
       <c r="J210" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="K210" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.45">
@@ -25417,10 +25459,10 @@
         <v>246</v>
       </c>
       <c r="D211" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="E211" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="G211" s="7">
         <v>-16184.035458</v>
@@ -25432,7 +25474,7 @@
         <v>33</v>
       </c>
       <c r="J211" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="K211" t="s">
         <v>247</v>
@@ -25449,10 +25491,10 @@
         <v>244</v>
       </c>
       <c r="D212" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="E212" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="G212" s="7">
         <v>-14821.784298</v>
@@ -25464,7 +25506,7 @@
         <v>33</v>
       </c>
       <c r="J212" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="K212" t="s">
         <v>245</v>
@@ -25481,10 +25523,10 @@
         <v>241</v>
       </c>
       <c r="D213" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="E213" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="G213" s="7">
         <v>-17974.03659</v>
@@ -25496,7 +25538,7 @@
         <v>33</v>
       </c>
       <c r="J213" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="K213" t="s">
         <v>242</v>
@@ -25513,10 +25555,10 @@
         <v>239</v>
       </c>
       <c r="D214" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="E214" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="G214" s="7">
         <v>-16699.671394000001</v>
@@ -25528,7 +25570,7 @@
         <v>33</v>
       </c>
       <c r="J214" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="K214" t="s">
         <v>240</v>
@@ -25545,10 +25587,10 @@
         <v>249</v>
       </c>
       <c r="D215" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="E215" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="G215" s="7">
         <v>-15587.081733000001</v>
@@ -25560,7 +25602,7 @@
         <v>33</v>
       </c>
       <c r="J215" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="K215" t="s">
         <v>250</v>
@@ -25577,10 +25619,10 @@
         <v>243</v>
       </c>
       <c r="D216" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="E216" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="G216" s="7">
         <v>-14532.244757</v>
@@ -25592,7 +25634,7 @@
         <v>33</v>
       </c>
       <c r="J216" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.45">
@@ -25606,7 +25648,7 @@
         <v>255</v>
       </c>
       <c r="D217" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="E217" t="s">
         <v>256</v>
@@ -25621,7 +25663,7 @@
         <v>33</v>
       </c>
       <c r="J217" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="K217" t="s">
         <v>371</v>
@@ -25638,7 +25680,7 @@
         <v>253</v>
       </c>
       <c r="D218" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="E218" t="s">
         <v>254</v>
@@ -25653,7 +25695,7 @@
         <v>33</v>
       </c>
       <c r="J218" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="K218" t="s">
         <v>371</v>
@@ -25670,7 +25712,7 @@
         <v>257</v>
       </c>
       <c r="D219" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="E219" t="s">
         <v>258</v>
@@ -25685,7 +25727,7 @@
         <v>33</v>
       </c>
       <c r="J219" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="K219" t="s">
         <v>371</v>
@@ -25699,11 +25741,52 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="f3010fb3-0ead-40f9-8418-3186255a05f9" ContentTypeId="0x010100D14BD004BF1C4459B890F3727F092580" PreviousValue="false"/>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <gdc15e87e6184dc285cecc59dfe3e409 xmlns="99b93dda-0db1-4804-bcd9-79ac3408f7b3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </gdc15e87e6184dc285cecc59dfe3e409>
+    <TaxCatchAll xmlns="99b93dda-0db1-4804-bcd9-79ac3408f7b3">
+      <Value>620</Value>
+      <Value>619</Value>
+      <Value>219</Value>
+      <Value>536</Value>
+    </TaxCatchAll>
+    <a707137999d24c5390df78a72943486a xmlns="99b93dda-0db1-4804-bcd9-79ac3408f7b3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Stasjonsnett og prøvetakere</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">dd0207a7-2d0a-4417-838c-fdce6848318b</TermId>
+        </TermInfo>
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Kalking</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">6d74b546-8f21-4782-aa30-c3b6c259d9bc</TermId>
+        </TermInfo>
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Vannkjemikontrollen</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">8379c43c-5bcc-430c-8c15-d982cef44326</TermId>
+        </TermInfo>
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Avtale 2016</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">426aae43-8bc2-4ddf-b2c6-6c511db79aef</TermId>
+        </TermInfo>
+      </Terms>
+    </a707137999d24c5390df78a72943486a>
+    <AvtaltDato xmlns="99b93dda-0db1-4804-bcd9-79ac3408f7b3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Miljødirektoratet Dokument" ma:contentTypeID="0x010100D14BD004BF1C4459B890F3727F0925800030788E1E5F06E4499248722442C9E1E2" ma:contentTypeVersion="4" ma:contentTypeDescription="Opprett et nytt dokument. " ma:contentTypeScope="" ma:versionID="31d2f06e1319184035b49374dedadd14">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="99b93dda-0db1-4804-bcd9-79ac3408f7b3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4b39a69652e56cca026e8bfba402999b" ns2:_="">
     <xsd:import namespace="99b93dda-0db1-4804-bcd9-79ac3408f7b3"/>
@@ -25869,61 +25952,36 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <gdc15e87e6184dc285cecc59dfe3e409 xmlns="99b93dda-0db1-4804-bcd9-79ac3408f7b3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </gdc15e87e6184dc285cecc59dfe3e409>
-    <TaxCatchAll xmlns="99b93dda-0db1-4804-bcd9-79ac3408f7b3">
-      <Value>620</Value>
-      <Value>619</Value>
-      <Value>219</Value>
-      <Value>536</Value>
-    </TaxCatchAll>
-    <a707137999d24c5390df78a72943486a xmlns="99b93dda-0db1-4804-bcd9-79ac3408f7b3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Stasjonsnett og prøvetakere</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">dd0207a7-2d0a-4417-838c-fdce6848318b</TermId>
-        </TermInfo>
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Kalking</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">6d74b546-8f21-4782-aa30-c3b6c259d9bc</TermId>
-        </TermInfo>
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Vannkjemikontrollen</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">8379c43c-5bcc-430c-8c15-d982cef44326</TermId>
-        </TermInfo>
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Avtale 2016</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">426aae43-8bc2-4ddf-b2c6-6c511db79aef</TermId>
-        </TermInfo>
-      </Terms>
-    </a707137999d24c5390df78a72943486a>
-    <AvtaltDato xmlns="99b93dda-0db1-4804-bcd9-79ac3408f7b3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="f3010fb3-0ead-40f9-8418-3186255a05f9" ContentTypeId="0x010100D14BD004BF1C4459B890F3727F092580" PreviousValue="false"/>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{045B6229-1055-4164-AB1C-6A3398378E43}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5E2C70A-39DB-4E9F-AC55-CF83C6FAF41A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="99b93dda-0db1-4804-bcd9-79ac3408f7b3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3C45CF2-DB67-4850-A387-8CB1B8396D69}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{465F94C6-DADA-41F7-9419-4CB4FA36834F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -25941,26 +25999,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3C45CF2-DB67-4850-A387-8CB1B8396D69}">
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{045B6229-1055-4164-AB1C-6A3398378E43}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5E2C70A-39DB-4E9F-AC55-CF83C6FAF41A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="99b93dda-0db1-4804-bcd9-79ac3408f7b3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/active_stations_2020.xlsx
+++ b/data/active_stations_2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\James_Work\Staff\Oeyvind_G\Tiltaksovervakingen\tiltaksovervakingen\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{430D2288-6319-4329-9BC3-A652DA83F69F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB1C2D69-BF03-4329-82D4-FD46A2500E7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1480,9 +1480,6 @@
     <t>027-58833</t>
   </si>
   <si>
-    <t>027-47427</t>
-  </si>
-  <si>
     <t>027-58831</t>
   </si>
   <si>
@@ -1561,9 +1558,6 @@
     <t>030-58835</t>
   </si>
   <si>
-    <t>030-58776</t>
-  </si>
-  <si>
     <t>030-47471</t>
   </si>
   <si>
@@ -2093,6 +2087,12 @@
   </si>
   <si>
     <t xml:space="preserve">Ny stasjon juli 2020. Prøvetas nedstrøms Kattefossen, ved Røyknesvegen. </t>
+  </si>
+  <si>
+    <t>027-59614</t>
+  </si>
+  <si>
+    <t>030-30839</t>
   </si>
 </sst>
 </file>
@@ -2199,8 +2199,8 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>804863</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>100013</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2216,7 +2216,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="166688" y="152400"/>
-          <a:ext cx="7191375" cy="1214438"/>
+          <a:ext cx="7191375" cy="5105400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2262,6 +2262,19 @@
           <a:r>
             <a:rPr lang="en-GB" sz="1100"/>
             <a:t>K:\Prosjekter\langtransporterte forurensninger\Kalk Tiltaksovervåking\12 KS vannkjemi\Vannlokaliteter koordinater_kun aktive stasj 2020.xlsx</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1"/>
+            <a:t>Update 16.08.2021: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>Corrected station codes for "Utløp Ørsdalsvatn" and "Espedalselva ved Helle" (see e-mail from Kjetil received 27.05.2021 at 17:15 for details).</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -19008,9 +19021,9 @@
   <dimension ref="A1:K219"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A186" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
+      <selection pane="bottomLeft" activeCell="C198" sqref="C198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -19030,37 +19043,37 @@
   <sheetData>
     <row r="1" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
+        <v>663</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>664</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>665</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>666</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="E1" s="6" t="s">
+        <v>669</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>670</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>671</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>672</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>673</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>667</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>668</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>671</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>672</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>673</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>674</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>675</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>669</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
@@ -19074,7 +19087,7 @@
         <v>454</v>
       </c>
       <c r="E2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="G2" s="7">
         <v>292044.86731100001</v>
@@ -19086,7 +19099,7 @@
         <v>33</v>
       </c>
       <c r="J2" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.45">
@@ -19118,7 +19131,7 @@
         <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="K3" t="s">
         <v>44</v>
@@ -19150,7 +19163,7 @@
         <v>33</v>
       </c>
       <c r="J4" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="K4" t="s">
         <v>400</v>
@@ -19182,7 +19195,7 @@
         <v>33</v>
       </c>
       <c r="J5" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.45">
@@ -19211,7 +19224,7 @@
         <v>33</v>
       </c>
       <c r="J6" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="K6" t="s">
         <v>457</v>
@@ -19246,7 +19259,7 @@
         <v>33</v>
       </c>
       <c r="J7" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.45">
@@ -19275,7 +19288,7 @@
         <v>33</v>
       </c>
       <c r="J8" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.45">
@@ -19304,7 +19317,7 @@
         <v>33</v>
       </c>
       <c r="J9" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.45">
@@ -19333,7 +19346,7 @@
         <v>33</v>
       </c>
       <c r="J10" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="K10" t="s">
         <v>7</v>
@@ -19365,7 +19378,7 @@
         <v>33</v>
       </c>
       <c r="J11" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="K11" t="s">
         <v>3</v>
@@ -19397,7 +19410,7 @@
         <v>33</v>
       </c>
       <c r="J12" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="K12" t="s">
         <v>5</v>
@@ -19429,7 +19442,7 @@
         <v>33</v>
       </c>
       <c r="J13" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.45">
@@ -19458,7 +19471,7 @@
         <v>33</v>
       </c>
       <c r="J14" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.45">
@@ -19472,7 +19485,7 @@
         <v>391</v>
       </c>
       <c r="E15" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="G15" s="7">
         <v>131566</v>
@@ -19484,7 +19497,7 @@
         <v>33</v>
       </c>
       <c r="J15" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="K15" t="s">
         <v>419</v>
@@ -19516,7 +19529,7 @@
         <v>33</v>
       </c>
       <c r="J16" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="K16" t="s">
         <v>341</v>
@@ -19533,7 +19546,7 @@
         <v>455</v>
       </c>
       <c r="E17" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G17" s="7">
         <v>109017.94520099999</v>
@@ -19545,7 +19558,7 @@
         <v>33</v>
       </c>
       <c r="J17" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="K17" t="s">
         <v>398</v>
@@ -19562,7 +19575,7 @@
         <v>456</v>
       </c>
       <c r="E18" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="G18" s="7">
         <v>108864.263483</v>
@@ -19574,7 +19587,7 @@
         <v>33</v>
       </c>
       <c r="J18" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="K18" t="s">
         <v>398</v>
@@ -19606,7 +19619,7 @@
         <v>33</v>
       </c>
       <c r="J19" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.45">
@@ -19635,7 +19648,7 @@
         <v>33</v>
       </c>
       <c r="J20" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.45">
@@ -19664,7 +19677,7 @@
         <v>33</v>
       </c>
       <c r="J21" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.45">
@@ -19693,7 +19706,7 @@
         <v>33</v>
       </c>
       <c r="J22" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.45">
@@ -19725,7 +19738,7 @@
         <v>33</v>
       </c>
       <c r="J23" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="K23" t="s">
         <v>30</v>
@@ -19757,7 +19770,7 @@
         <v>33</v>
       </c>
       <c r="J24" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.45">
@@ -19789,7 +19802,7 @@
         <v>33</v>
       </c>
       <c r="J25" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.45">
@@ -19815,7 +19828,7 @@
         <v>33</v>
       </c>
       <c r="J26" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="K26" t="s">
         <v>342</v>
@@ -19832,7 +19845,7 @@
         <v>25</v>
       </c>
       <c r="D27" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="E27" t="s">
         <v>415</v>
@@ -19847,7 +19860,7 @@
         <v>33</v>
       </c>
       <c r="J27" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="K27" t="s">
         <v>26</v>
@@ -19879,7 +19892,7 @@
         <v>33</v>
       </c>
       <c r="J28" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="K28" t="s">
         <v>383</v>
@@ -19911,7 +19924,7 @@
         <v>33</v>
       </c>
       <c r="J29" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="K29" t="s">
         <v>381</v>
@@ -19925,10 +19938,10 @@
         <v>330</v>
       </c>
       <c r="C30" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="E30" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="G30" s="7">
         <v>83862</v>
@@ -19940,10 +19953,10 @@
         <v>33</v>
       </c>
       <c r="J30" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="K30" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.45">
@@ -19969,7 +19982,7 @@
         <v>33</v>
       </c>
       <c r="J31" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="K31" t="s">
         <v>382</v>
@@ -19998,7 +20011,7 @@
         <v>33</v>
       </c>
       <c r="J32" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="K32" t="s">
         <v>420</v>
@@ -20027,7 +20040,7 @@
         <v>33</v>
       </c>
       <c r="J33" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="K33" t="s">
         <v>420</v>
@@ -20056,7 +20069,7 @@
         <v>33</v>
       </c>
       <c r="J34" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="K34" t="s">
         <v>385</v>
@@ -20088,7 +20101,7 @@
         <v>33</v>
       </c>
       <c r="J35" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="K35" t="s">
         <v>384</v>
@@ -20120,7 +20133,7 @@
         <v>33</v>
       </c>
       <c r="J36" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="K36" t="s">
         <v>384</v>
@@ -20134,10 +20147,10 @@
         <v>330</v>
       </c>
       <c r="C37" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="E37" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="G37" s="8">
         <v>85526</v>
@@ -20149,10 +20162,10 @@
         <v>33</v>
       </c>
       <c r="J37" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="K37" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.45">
@@ -20163,10 +20176,10 @@
         <v>330</v>
       </c>
       <c r="C38" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="E38" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="G38" s="8">
         <v>83953</v>
@@ -20178,10 +20191,10 @@
         <v>33</v>
       </c>
       <c r="J38" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="K38" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.45">
@@ -20207,7 +20220,7 @@
         <v>33</v>
       </c>
       <c r="J39" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="K39" t="s">
         <v>420</v>
@@ -20236,7 +20249,7 @@
         <v>33</v>
       </c>
       <c r="J40" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="K40" t="s">
         <v>50</v>
@@ -20253,7 +20266,7 @@
         <v>52</v>
       </c>
       <c r="E41" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="G41" s="7">
         <v>71614</v>
@@ -20265,7 +20278,7 @@
         <v>33</v>
       </c>
       <c r="J41" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="K41" t="s">
         <v>343</v>
@@ -20294,7 +20307,7 @@
         <v>33</v>
       </c>
       <c r="J42" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="K42" t="s">
         <v>343</v>
@@ -20323,7 +20336,7 @@
         <v>33</v>
       </c>
       <c r="J43" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="K43" t="s">
         <v>343</v>
@@ -20340,7 +20353,7 @@
         <v>321</v>
       </c>
       <c r="E44" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="G44" s="7">
         <v>78337.500564999995</v>
@@ -20352,7 +20365,7 @@
         <v>33</v>
       </c>
       <c r="J44" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.45">
@@ -20381,7 +20394,7 @@
         <v>33</v>
       </c>
       <c r="J45" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="K45" t="s">
         <v>323</v>
@@ -20413,7 +20426,7 @@
         <v>33</v>
       </c>
       <c r="J46" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="K46" t="s">
         <v>323</v>
@@ -20445,7 +20458,7 @@
         <v>33</v>
       </c>
       <c r="J47" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="K47" t="s">
         <v>323</v>
@@ -20477,7 +20490,7 @@
         <v>33</v>
       </c>
       <c r="J48" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.45">
@@ -20506,7 +20519,7 @@
         <v>33</v>
       </c>
       <c r="J49" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.45">
@@ -20535,7 +20548,7 @@
         <v>33</v>
       </c>
       <c r="J50" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.45">
@@ -20561,7 +20574,7 @@
         <v>33</v>
       </c>
       <c r="J51" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="K51" t="s">
         <v>376</v>
@@ -20593,7 +20606,7 @@
         <v>33</v>
       </c>
       <c r="J52" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.45">
@@ -20622,7 +20635,7 @@
         <v>33</v>
       </c>
       <c r="J53" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.45">
@@ -20651,7 +20664,7 @@
         <v>33</v>
       </c>
       <c r="J54" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.45">
@@ -20677,7 +20690,7 @@
         <v>33</v>
       </c>
       <c r="J55" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="K55" t="s">
         <v>377</v>
@@ -20706,7 +20719,7 @@
         <v>33</v>
       </c>
       <c r="J56" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="K56" t="s">
         <v>378</v>
@@ -20741,7 +20754,7 @@
         <v>33</v>
       </c>
       <c r="J57" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.45">
@@ -20773,7 +20786,7 @@
         <v>33</v>
       </c>
       <c r="J58" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.45">
@@ -20802,7 +20815,7 @@
         <v>33</v>
       </c>
       <c r="J59" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.45">
@@ -20831,7 +20844,7 @@
         <v>33</v>
       </c>
       <c r="J60" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.45">
@@ -20845,7 +20858,7 @@
         <v>281</v>
       </c>
       <c r="D61" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="E61" t="s">
         <v>431</v>
@@ -20860,7 +20873,7 @@
         <v>33</v>
       </c>
       <c r="J61" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.45">
@@ -20889,7 +20902,7 @@
         <v>33</v>
       </c>
       <c r="J62" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.45">
@@ -20903,7 +20916,7 @@
         <v>278</v>
       </c>
       <c r="D63" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="E63" t="s">
         <v>433</v>
@@ -20918,7 +20931,7 @@
         <v>33</v>
       </c>
       <c r="J63" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="K63" t="s">
         <v>373</v>
@@ -20935,7 +20948,7 @@
         <v>279</v>
       </c>
       <c r="D64" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="E64" t="s">
         <v>434</v>
@@ -20950,7 +20963,7 @@
         <v>33</v>
       </c>
       <c r="J64" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="K64" t="s">
         <v>374</v>
@@ -20982,7 +20995,7 @@
         <v>33</v>
       </c>
       <c r="J65" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.45">
@@ -21011,7 +21024,7 @@
         <v>33</v>
       </c>
       <c r="J66" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="K66" t="s">
         <v>283</v>
@@ -21043,7 +21056,7 @@
         <v>33</v>
       </c>
       <c r="J67" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.45">
@@ -21072,7 +21085,7 @@
         <v>33</v>
       </c>
       <c r="J68" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.45">
@@ -21101,7 +21114,7 @@
         <v>33</v>
       </c>
       <c r="J69" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.45">
@@ -21130,7 +21143,7 @@
         <v>33</v>
       </c>
       <c r="J70" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.45">
@@ -21156,7 +21169,7 @@
         <v>33</v>
       </c>
       <c r="J71" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="K71" t="s">
         <v>386</v>
@@ -21173,7 +21186,7 @@
         <v>395</v>
       </c>
       <c r="E72" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="G72" s="7">
         <v>33005</v>
@@ -21185,7 +21198,7 @@
         <v>33</v>
       </c>
       <c r="J72" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="K72" t="s">
         <v>436</v>
@@ -21217,7 +21230,7 @@
         <v>33</v>
       </c>
       <c r="J73" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.45">
@@ -21246,7 +21259,7 @@
         <v>33</v>
       </c>
       <c r="J74" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.45">
@@ -21275,7 +21288,7 @@
         <v>33</v>
       </c>
       <c r="J75" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.45">
@@ -21304,7 +21317,7 @@
         <v>33</v>
       </c>
       <c r="J76" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.45">
@@ -21318,7 +21331,7 @@
         <v>291</v>
       </c>
       <c r="D77" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="E77" t="s">
         <v>447</v>
@@ -21333,7 +21346,7 @@
         <v>33</v>
       </c>
       <c r="J77" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.45">
@@ -21362,7 +21375,7 @@
         <v>33</v>
       </c>
       <c r="J78" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.45">
@@ -21391,7 +21404,7 @@
         <v>33</v>
       </c>
       <c r="J79" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.45">
@@ -21420,7 +21433,7 @@
         <v>33</v>
       </c>
       <c r="J80" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="K80" t="s">
         <v>375</v>
@@ -21449,7 +21462,7 @@
         <v>33</v>
       </c>
       <c r="J81" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.45">
@@ -21478,7 +21491,7 @@
         <v>33</v>
       </c>
       <c r="J82" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="K82" t="s">
         <v>317</v>
@@ -21510,7 +21523,7 @@
         <v>33</v>
       </c>
       <c r="J83" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.45">
@@ -21539,7 +21552,7 @@
         <v>33</v>
       </c>
       <c r="J84" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="K84" t="s">
         <v>380</v>
@@ -21568,7 +21581,7 @@
         <v>33</v>
       </c>
       <c r="J85" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="K85" t="s">
         <v>379</v>
@@ -21600,7 +21613,7 @@
         <v>33</v>
       </c>
       <c r="J86" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="K86" t="s">
         <v>467</v>
@@ -21616,8 +21629,11 @@
       <c r="C87" t="s">
         <v>396</v>
       </c>
+      <c r="D87">
+        <v>6</v>
+      </c>
       <c r="E87" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="G87" s="7">
         <v>344012</v>
@@ -21629,7 +21645,7 @@
         <v>32</v>
       </c>
       <c r="J87" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="K87" t="s">
         <v>437</v>
@@ -21661,7 +21677,7 @@
         <v>33</v>
       </c>
       <c r="J88" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.45">
@@ -21690,7 +21706,7 @@
         <v>33</v>
       </c>
       <c r="J89" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.45">
@@ -21719,7 +21735,7 @@
         <v>33</v>
       </c>
       <c r="J90" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.45">
@@ -21748,7 +21764,7 @@
         <v>33</v>
       </c>
       <c r="J91" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.45">
@@ -21774,7 +21790,7 @@
         <v>33</v>
       </c>
       <c r="J92" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="K92" t="s">
         <v>363</v>
@@ -21803,7 +21819,7 @@
         <v>33</v>
       </c>
       <c r="J93" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="K93" t="s">
         <v>363</v>
@@ -21835,7 +21851,7 @@
         <v>33</v>
       </c>
       <c r="J94" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="K94" t="s">
         <v>364</v>
@@ -21864,7 +21880,7 @@
         <v>33</v>
       </c>
       <c r="J95" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="K95" t="s">
         <v>363</v>
@@ -21893,7 +21909,7 @@
         <v>33</v>
       </c>
       <c r="J96" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="K96" t="s">
         <v>363</v>
@@ -21925,7 +21941,7 @@
         <v>33</v>
       </c>
       <c r="J97" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="K97" t="s">
         <v>365</v>
@@ -21957,7 +21973,7 @@
         <v>33</v>
       </c>
       <c r="J98" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.45">
@@ -21986,7 +22002,7 @@
         <v>33</v>
       </c>
       <c r="J99" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.45">
@@ -22015,7 +22031,7 @@
         <v>33</v>
       </c>
       <c r="J100" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.45">
@@ -22044,7 +22060,7 @@
         <v>33</v>
       </c>
       <c r="J101" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.45">
@@ -22073,7 +22089,7 @@
         <v>33</v>
       </c>
       <c r="J102" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.45">
@@ -22102,7 +22118,7 @@
         <v>33</v>
       </c>
       <c r="J103" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.45">
@@ -22119,7 +22135,7 @@
         <v>12</v>
       </c>
       <c r="E104" t="s">
-        <v>482</v>
+        <v>685</v>
       </c>
       <c r="G104" s="7">
         <v>-15325.023718</v>
@@ -22131,7 +22147,7 @@
         <v>33</v>
       </c>
       <c r="J104" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.45">
@@ -22148,7 +22164,7 @@
         <v>14</v>
       </c>
       <c r="E105" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G105" s="7">
         <v>-9237.6714699999993</v>
@@ -22160,7 +22176,7 @@
         <v>33</v>
       </c>
       <c r="J105" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="K105" t="s">
         <v>147</v>
@@ -22180,7 +22196,7 @@
         <v>15</v>
       </c>
       <c r="E106" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G106" s="7">
         <v>-9693.6067800000001</v>
@@ -22192,7 +22208,7 @@
         <v>33</v>
       </c>
       <c r="J106" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="K106" t="s">
         <v>145</v>
@@ -22206,13 +22222,13 @@
         <v>175</v>
       </c>
       <c r="C107" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D107">
         <v>4</v>
       </c>
       <c r="E107" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G107" s="7">
         <v>-32671.270689000001</v>
@@ -22224,10 +22240,10 @@
         <v>33</v>
       </c>
       <c r="J107" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="K107" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.45">
@@ -22244,7 +22260,7 @@
         <v>48</v>
       </c>
       <c r="E108" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="G108" s="7">
         <v>-21333.146041</v>
@@ -22256,10 +22272,10 @@
         <v>33</v>
       </c>
       <c r="J108" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="K108" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.45">
@@ -22276,7 +22292,7 @@
         <v>50</v>
       </c>
       <c r="E109" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G109" s="7">
         <v>-23756.366348</v>
@@ -22288,7 +22304,7 @@
         <v>33</v>
       </c>
       <c r="J109" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.45">
@@ -22305,7 +22321,7 @@
         <v>51</v>
       </c>
       <c r="E110" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="G110" s="7">
         <v>-23746.894015999998</v>
@@ -22317,7 +22333,7 @@
         <v>33</v>
       </c>
       <c r="J110" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.45">
@@ -22334,7 +22350,7 @@
         <v>52</v>
       </c>
       <c r="E111" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G111" s="7">
         <v>-32698.885877000001</v>
@@ -22346,10 +22362,10 @@
         <v>33</v>
       </c>
       <c r="J111" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="K111" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.45">
@@ -22360,7 +22376,7 @@
         <v>175</v>
       </c>
       <c r="C112" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D112">
         <v>53</v>
@@ -22381,10 +22397,10 @@
         <v>33</v>
       </c>
       <c r="J112" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="K112" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.45">
@@ -22401,7 +22417,7 @@
         <v>1</v>
       </c>
       <c r="E113" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G113" s="7">
         <v>-967.01564800000006</v>
@@ -22413,7 +22429,7 @@
         <v>33</v>
       </c>
       <c r="J113" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="K113" t="s">
         <v>166</v>
@@ -22427,16 +22443,16 @@
         <v>159</v>
       </c>
       <c r="C114" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D114">
         <v>2</v>
       </c>
       <c r="E114" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F114" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G114" s="7">
         <v>2426.211605</v>
@@ -22448,7 +22464,7 @@
         <v>33</v>
       </c>
       <c r="J114" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="K114" t="s">
         <v>160</v>
@@ -22483,7 +22499,7 @@
         <v>33</v>
       </c>
       <c r="J115" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="K115" t="s">
         <v>162</v>
@@ -22497,16 +22513,16 @@
         <v>159</v>
       </c>
       <c r="C116" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D116">
         <v>4</v>
       </c>
       <c r="E116" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F116" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G116" s="7">
         <v>2589.447658</v>
@@ -22518,7 +22534,7 @@
         <v>33</v>
       </c>
       <c r="J116" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="K116" t="s">
         <v>356</v>
@@ -22532,16 +22548,16 @@
         <v>159</v>
       </c>
       <c r="C117" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D117">
         <v>5</v>
       </c>
       <c r="E117" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F117" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G117" s="7">
         <v>3231.5613589999998</v>
@@ -22553,7 +22569,7 @@
         <v>33</v>
       </c>
       <c r="J117" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="K117" t="s">
         <v>357</v>
@@ -22570,10 +22586,10 @@
         <v>158</v>
       </c>
       <c r="D118" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="E118" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G118" s="7">
         <v>-435.61006500000002</v>
@@ -22585,7 +22601,7 @@
         <v>33</v>
       </c>
       <c r="J118" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.45">
@@ -22602,7 +22618,7 @@
         <v>1</v>
       </c>
       <c r="E119" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G119" s="7">
         <v>-445.99656299999998</v>
@@ -22614,7 +22630,7 @@
         <v>33</v>
       </c>
       <c r="J119" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="K119" t="s">
         <v>157</v>
@@ -22634,7 +22650,7 @@
         <v>3</v>
       </c>
       <c r="E120" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="G120" s="7">
         <v>-4131.4289749999998</v>
@@ -22646,7 +22662,7 @@
         <v>33</v>
       </c>
       <c r="J120" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.45">
@@ -22663,7 +22679,7 @@
         <v>5</v>
       </c>
       <c r="E121" t="s">
-        <v>509</v>
+        <v>686</v>
       </c>
       <c r="G121" s="7">
         <v>-9405.6402849999995</v>
@@ -22675,7 +22691,7 @@
         <v>33</v>
       </c>
       <c r="J121" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.45">
@@ -22692,7 +22708,7 @@
         <v>6</v>
       </c>
       <c r="E122" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="G122" s="7">
         <v>847.46973000000003</v>
@@ -22704,7 +22720,7 @@
         <v>33</v>
       </c>
       <c r="J122" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.45">
@@ -22715,13 +22731,13 @@
         <v>172</v>
       </c>
       <c r="C123" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D123">
         <v>1</v>
       </c>
       <c r="E123" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G123" s="7">
         <v>24767.383523</v>
@@ -22733,7 +22749,7 @@
         <v>33</v>
       </c>
       <c r="J123" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.45">
@@ -22744,13 +22760,13 @@
         <v>172</v>
       </c>
       <c r="C124" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D124">
         <v>3</v>
       </c>
       <c r="E124" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="G124" s="7">
         <v>22269.240881000002</v>
@@ -22762,7 +22778,7 @@
         <v>33</v>
       </c>
       <c r="J124" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.45">
@@ -22773,13 +22789,13 @@
         <v>172</v>
       </c>
       <c r="C125" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D125">
         <v>4</v>
       </c>
       <c r="E125" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="G125" s="7">
         <v>22042.742042999998</v>
@@ -22791,7 +22807,7 @@
         <v>33</v>
       </c>
       <c r="J125" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="K125" t="s">
         <v>174</v>
@@ -22811,7 +22827,7 @@
         <v>7</v>
       </c>
       <c r="E126" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="G126" s="7">
         <v>23098.613496999998</v>
@@ -22823,7 +22839,7 @@
         <v>33</v>
       </c>
       <c r="J126" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.45">
@@ -22837,7 +22853,7 @@
         <v>168</v>
       </c>
       <c r="D127" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="E127" t="s">
         <v>169</v>
@@ -22855,10 +22871,10 @@
         <v>33</v>
       </c>
       <c r="J127" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="K127" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.45">
@@ -22875,7 +22891,7 @@
         <v>4</v>
       </c>
       <c r="E128" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="G128" s="7">
         <v>-13128.407453</v>
@@ -22887,7 +22903,7 @@
         <v>33</v>
       </c>
       <c r="J128" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.45">
@@ -22898,7 +22914,7 @@
         <v>206</v>
       </c>
       <c r="C129" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D129">
         <v>11</v>
@@ -22916,7 +22932,7 @@
         <v>33</v>
       </c>
       <c r="J129" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.45">
@@ -22927,7 +22943,7 @@
         <v>206</v>
       </c>
       <c r="C130" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D130">
         <v>12</v>
@@ -22945,7 +22961,7 @@
         <v>33</v>
       </c>
       <c r="J130" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="K130" t="s">
         <v>366</v>
@@ -22977,7 +22993,7 @@
         <v>33</v>
       </c>
       <c r="J131" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.45">
@@ -22988,7 +23004,7 @@
         <v>206</v>
       </c>
       <c r="C132" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D132">
         <v>14</v>
@@ -23006,7 +23022,7 @@
         <v>33</v>
       </c>
       <c r="J132" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.45">
@@ -23035,7 +23051,7 @@
         <v>33</v>
       </c>
       <c r="J133" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.45">
@@ -23064,7 +23080,7 @@
         <v>33</v>
       </c>
       <c r="J134" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="K134" t="s">
         <v>367</v>
@@ -23081,7 +23097,7 @@
         <v>224</v>
       </c>
       <c r="D135" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="E135" t="s">
         <v>225</v>
@@ -23096,7 +23112,7 @@
         <v>33</v>
       </c>
       <c r="J135" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.45">
@@ -23110,7 +23126,7 @@
         <v>222</v>
       </c>
       <c r="D136" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E136" t="s">
         <v>223</v>
@@ -23125,7 +23141,7 @@
         <v>33</v>
       </c>
       <c r="J136" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.45">
@@ -23139,7 +23155,7 @@
         <v>218</v>
       </c>
       <c r="D137" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="E137" t="s">
         <v>219</v>
@@ -23154,7 +23170,7 @@
         <v>33</v>
       </c>
       <c r="J137" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.45">
@@ -23168,7 +23184,7 @@
         <v>216</v>
       </c>
       <c r="D138" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="E138" t="s">
         <v>217</v>
@@ -23183,7 +23199,7 @@
         <v>33</v>
       </c>
       <c r="J138" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.45">
@@ -23197,7 +23213,7 @@
         <v>207</v>
       </c>
       <c r="D139" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E139" t="s">
         <v>208</v>
@@ -23212,7 +23228,7 @@
         <v>33</v>
       </c>
       <c r="J139" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.45">
@@ -23223,10 +23239,10 @@
         <v>206</v>
       </c>
       <c r="C140" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D140" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="E140" t="s">
         <v>226</v>
@@ -23241,7 +23257,7 @@
         <v>33</v>
       </c>
       <c r="J140" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="K140" t="s">
         <v>368</v>
@@ -23255,10 +23271,10 @@
         <v>206</v>
       </c>
       <c r="C141" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D141" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E141" t="s">
         <v>227</v>
@@ -23273,7 +23289,7 @@
         <v>33</v>
       </c>
       <c r="J141" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="K141" t="s">
         <v>369</v>
@@ -23287,10 +23303,10 @@
         <v>206</v>
       </c>
       <c r="C142" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D142" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="E142" t="s">
         <v>228</v>
@@ -23305,7 +23321,7 @@
         <v>33</v>
       </c>
       <c r="J142" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="K142" t="s">
         <v>247</v>
@@ -23322,10 +23338,10 @@
         <v>236</v>
       </c>
       <c r="D143" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="E143" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G143" s="7">
         <v>-13388.353966000001</v>
@@ -23337,7 +23353,7 @@
         <v>33</v>
       </c>
       <c r="J143" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.45">
@@ -23351,7 +23367,7 @@
         <v>233</v>
       </c>
       <c r="D144" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="E144" t="s">
         <v>234</v>
@@ -23369,10 +23385,10 @@
         <v>32</v>
       </c>
       <c r="J144" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="K144" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.45">
@@ -23386,10 +23402,10 @@
         <v>232</v>
       </c>
       <c r="D145" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="E145" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="G145" s="7">
         <v>-10380.171338</v>
@@ -23401,7 +23417,7 @@
         <v>33</v>
       </c>
       <c r="J145" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.45">
@@ -23415,10 +23431,10 @@
         <v>231</v>
       </c>
       <c r="D146" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="E146" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="G146" s="7">
         <v>-9248.3661780000002</v>
@@ -23430,7 +23446,7 @@
         <v>33</v>
       </c>
       <c r="J146" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.45">
@@ -23444,10 +23460,10 @@
         <v>230</v>
       </c>
       <c r="D147" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="E147" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G147" s="7">
         <v>-9339.310442</v>
@@ -23459,7 +23475,7 @@
         <v>33</v>
       </c>
       <c r="J147" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.45">
@@ -23470,10 +23486,10 @@
         <v>229</v>
       </c>
       <c r="C148" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D148" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="E148" t="s">
         <v>237</v>
@@ -23488,7 +23504,7 @@
         <v>33</v>
       </c>
       <c r="J148" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="K148" t="s">
         <v>370</v>
@@ -23505,7 +23521,7 @@
         <v>360</v>
       </c>
       <c r="D149" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="E149" t="s">
         <v>186</v>
@@ -23523,7 +23539,7 @@
         <v>33</v>
       </c>
       <c r="J149" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="K149" t="s">
         <v>361</v>
@@ -23540,7 +23556,7 @@
         <v>188</v>
       </c>
       <c r="D150" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="E150" t="s">
         <v>189</v>
@@ -23555,7 +23571,7 @@
         <v>33</v>
       </c>
       <c r="J150" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="K150" t="s">
         <v>362</v>
@@ -23572,7 +23588,7 @@
         <v>359</v>
       </c>
       <c r="D151" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="E151" t="s">
         <v>185</v>
@@ -23587,7 +23603,7 @@
         <v>33</v>
       </c>
       <c r="J151" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="K151" t="s">
         <v>358</v>
@@ -23604,13 +23620,13 @@
         <v>183</v>
       </c>
       <c r="D152" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E152" t="s">
         <v>184</v>
       </c>
       <c r="F152" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="G152" s="7">
         <v>-15236</v>
@@ -23622,10 +23638,10 @@
         <v>33</v>
       </c>
       <c r="J152" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="K152" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.45">
@@ -23636,16 +23652,16 @@
         <v>93</v>
       </c>
       <c r="C153" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="D153" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="E153" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F153" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="G153" s="7">
         <v>-9606.8189999999995</v>
@@ -23657,7 +23673,7 @@
         <v>33</v>
       </c>
       <c r="J153" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.45">
@@ -23668,16 +23684,16 @@
         <v>93</v>
       </c>
       <c r="C154" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D154" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="E154" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="F154" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="G154" s="7">
         <v>-7081.4575999999997</v>
@@ -23689,7 +23705,7 @@
         <v>33</v>
       </c>
       <c r="J154" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.45">
@@ -23700,16 +23716,16 @@
         <v>93</v>
       </c>
       <c r="C155" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D155" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E155" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F155" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="G155" s="7">
         <v>-7682.8486999999996</v>
@@ -23721,10 +23737,10 @@
         <v>33</v>
       </c>
       <c r="J155" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="K155" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.45">
@@ -23735,16 +23751,16 @@
         <v>93</v>
       </c>
       <c r="C156" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D156" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="E156" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="F156" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="G156" s="7">
         <v>-7941.6787000000004</v>
@@ -23756,10 +23772,10 @@
         <v>33</v>
       </c>
       <c r="J156" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="K156" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.45">
@@ -23773,7 +23789,7 @@
         <v>89</v>
       </c>
       <c r="E157" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="G157" s="7">
         <v>-1511.7375999999999</v>
@@ -23785,7 +23801,7 @@
         <v>33</v>
       </c>
       <c r="J157" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.45">
@@ -23799,7 +23815,7 @@
         <v>88</v>
       </c>
       <c r="E158" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G158" s="7">
         <v>205.46729999999999</v>
@@ -23811,7 +23827,7 @@
         <v>33</v>
       </c>
       <c r="J158" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.45">
@@ -23825,10 +23841,10 @@
         <v>90</v>
       </c>
       <c r="D159" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="E159" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="G159" s="7">
         <v>-5621.3424999999997</v>
@@ -23840,7 +23856,7 @@
         <v>33</v>
       </c>
       <c r="J159" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.45">
@@ -23854,10 +23870,10 @@
         <v>91</v>
       </c>
       <c r="D160" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E160" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="G160" s="7">
         <v>-5808.415</v>
@@ -23869,7 +23885,7 @@
         <v>33</v>
       </c>
       <c r="J160" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="K160" t="s">
         <v>344</v>
@@ -23886,10 +23902,10 @@
         <v>92</v>
       </c>
       <c r="D161" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="E161" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="G161" s="7">
         <v>-7743.46</v>
@@ -23901,7 +23917,7 @@
         <v>33</v>
       </c>
       <c r="J161" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.45">
@@ -23915,10 +23931,10 @@
         <v>60</v>
       </c>
       <c r="D162" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="E162" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="G162" s="7">
         <v>-1325.5878</v>
@@ -23930,7 +23946,7 @@
         <v>33</v>
       </c>
       <c r="J162" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.45">
@@ -23944,10 +23960,10 @@
         <v>61</v>
       </c>
       <c r="D163" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E163" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="G163" s="7">
         <v>-2308.2676999999999</v>
@@ -23959,7 +23975,7 @@
         <v>33</v>
       </c>
       <c r="J163" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.45">
@@ -23973,10 +23989,10 @@
         <v>97</v>
       </c>
       <c r="D164" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="E164" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="G164" s="7">
         <v>37414.972500000003</v>
@@ -23988,7 +24004,7 @@
         <v>33</v>
       </c>
       <c r="J164" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.45">
@@ -24002,10 +24018,10 @@
         <v>98</v>
       </c>
       <c r="D165" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E165" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="G165" s="7">
         <v>32589.801899999999</v>
@@ -24017,7 +24033,7 @@
         <v>33</v>
       </c>
       <c r="J165" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.45">
@@ -24031,10 +24047,10 @@
         <v>96</v>
       </c>
       <c r="D166" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="E166" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="G166" s="7">
         <v>17092.468199999999</v>
@@ -24046,7 +24062,7 @@
         <v>33</v>
       </c>
       <c r="J166" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.45">
@@ -24060,10 +24076,10 @@
         <v>99</v>
       </c>
       <c r="D167" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="E167" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="G167" s="7">
         <v>14021.164199999999</v>
@@ -24075,7 +24091,7 @@
         <v>33</v>
       </c>
       <c r="J167" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.45">
@@ -24089,10 +24105,10 @@
         <v>95</v>
       </c>
       <c r="D168" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="E168" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="G168" s="7">
         <v>6492.1962000000003</v>
@@ -24104,7 +24120,7 @@
         <v>33</v>
       </c>
       <c r="J168" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.45">
@@ -24118,10 +24134,10 @@
         <v>100</v>
       </c>
       <c r="D169" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="E169" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="G169" s="7">
         <v>14581.5694</v>
@@ -24133,7 +24149,7 @@
         <v>33</v>
       </c>
       <c r="J169" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.45">
@@ -24144,16 +24160,16 @@
         <v>94</v>
       </c>
       <c r="C170" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="D170">
         <v>10</v>
       </c>
       <c r="E170" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="F170" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="G170" s="7">
         <v>14174.4043</v>
@@ -24165,7 +24181,7 @@
         <v>33</v>
       </c>
       <c r="J170" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.45">
@@ -24179,7 +24195,7 @@
         <v>69</v>
       </c>
       <c r="D171" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="E171" t="s">
         <v>70</v>
@@ -24197,7 +24213,7 @@
         <v>33</v>
       </c>
       <c r="J171" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.45">
@@ -24211,7 +24227,7 @@
         <v>81</v>
       </c>
       <c r="D172" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="E172" t="s">
         <v>83</v>
@@ -24229,7 +24245,7 @@
         <v>33</v>
       </c>
       <c r="J172" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="K172" t="s">
         <v>82</v>
@@ -24246,7 +24262,7 @@
         <v>75</v>
       </c>
       <c r="D173" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E173" t="s">
         <v>76</v>
@@ -24264,7 +24280,7 @@
         <v>33</v>
       </c>
       <c r="J173" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.45">
@@ -24278,7 +24294,7 @@
         <v>63</v>
       </c>
       <c r="D174" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="E174" t="s">
         <v>64</v>
@@ -24296,7 +24312,7 @@
         <v>33</v>
       </c>
       <c r="J174" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.45">
@@ -24310,7 +24326,7 @@
         <v>66</v>
       </c>
       <c r="D175" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="E175" t="s">
         <v>67</v>
@@ -24328,7 +24344,7 @@
         <v>33</v>
       </c>
       <c r="J175" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.45">
@@ -24342,7 +24358,7 @@
         <v>78</v>
       </c>
       <c r="D176" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="E176" t="s">
         <v>79</v>
@@ -24360,7 +24376,7 @@
         <v>33</v>
       </c>
       <c r="J176" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.45">
@@ -24374,7 +24390,7 @@
         <v>85</v>
       </c>
       <c r="D177" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="E177" t="s">
         <v>86</v>
@@ -24392,7 +24408,7 @@
         <v>33</v>
       </c>
       <c r="J177" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.45">
@@ -24406,7 +24422,7 @@
         <v>72</v>
       </c>
       <c r="D178" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="E178" t="s">
         <v>73</v>
@@ -24424,7 +24440,7 @@
         <v>33</v>
       </c>
       <c r="J178" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.45">
@@ -24435,10 +24451,10 @@
         <v>128</v>
       </c>
       <c r="C179" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="D179" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="E179" t="s">
         <v>129</v>
@@ -24456,7 +24472,7 @@
         <v>33</v>
       </c>
       <c r="J179" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="K179" t="s">
         <v>352</v>
@@ -24470,10 +24486,10 @@
         <v>128</v>
       </c>
       <c r="C180" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D180" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E180" t="s">
         <v>132</v>
@@ -24488,7 +24504,7 @@
         <v>33</v>
       </c>
       <c r="J180" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="K180" t="s">
         <v>131</v>
@@ -24502,10 +24518,10 @@
         <v>128</v>
       </c>
       <c r="C181" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D181" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="E181" t="s">
         <v>134</v>
@@ -24523,7 +24539,7 @@
         <v>33</v>
       </c>
       <c r="J181" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="K181" t="s">
         <v>354</v>
@@ -24537,10 +24553,10 @@
         <v>128</v>
       </c>
       <c r="C182" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D182" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="E182" t="s">
         <v>133</v>
@@ -24555,7 +24571,7 @@
         <v>33</v>
       </c>
       <c r="J182" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="K182" t="s">
         <v>353</v>
@@ -24569,10 +24585,10 @@
         <v>128</v>
       </c>
       <c r="C183" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D183" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="E183" t="s">
         <v>136</v>
@@ -24587,7 +24603,7 @@
         <v>33</v>
       </c>
       <c r="J183" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="K183" t="s">
         <v>131</v>
@@ -24601,10 +24617,10 @@
         <v>128</v>
       </c>
       <c r="C184" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D184" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="E184" t="s">
         <v>137</v>
@@ -24622,7 +24638,7 @@
         <v>33</v>
       </c>
       <c r="J184" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="K184" t="s">
         <v>355</v>
@@ -24654,7 +24670,7 @@
         <v>33</v>
       </c>
       <c r="J185" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="K185" t="s">
         <v>82</v>
@@ -24683,7 +24699,7 @@
         <v>33</v>
       </c>
       <c r="J186" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="K186" t="s">
         <v>82</v>
@@ -24715,7 +24731,7 @@
         <v>33</v>
       </c>
       <c r="J187" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="K187" t="s">
         <v>82</v>
@@ -24732,7 +24748,7 @@
         <v>106</v>
       </c>
       <c r="D188" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="E188" t="s">
         <v>107</v>
@@ -24747,7 +24763,7 @@
         <v>33</v>
       </c>
       <c r="J188" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="K188" t="s">
         <v>347</v>
@@ -24764,7 +24780,7 @@
         <v>108</v>
       </c>
       <c r="D189" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E189" t="s">
         <v>109</v>
@@ -24779,7 +24795,7 @@
         <v>33</v>
       </c>
       <c r="J189" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="K189" t="s">
         <v>347</v>
@@ -24796,7 +24812,7 @@
         <v>110</v>
       </c>
       <c r="D190" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="E190" t="s">
         <v>111</v>
@@ -24811,7 +24827,7 @@
         <v>33</v>
       </c>
       <c r="J190" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="K190" t="s">
         <v>347</v>
@@ -24828,7 +24844,7 @@
         <v>112</v>
       </c>
       <c r="D191" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="E191" t="s">
         <v>113</v>
@@ -24843,7 +24859,7 @@
         <v>33</v>
       </c>
       <c r="J191" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="K191" t="s">
         <v>347</v>
@@ -24860,7 +24876,7 @@
         <v>115</v>
       </c>
       <c r="D192" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="E192" t="s">
         <v>116</v>
@@ -24875,7 +24891,7 @@
         <v>33</v>
       </c>
       <c r="J192" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="K192" t="s">
         <v>347</v>
@@ -24892,7 +24908,7 @@
         <v>117</v>
       </c>
       <c r="D193" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E193" t="s">
         <v>118</v>
@@ -24907,7 +24923,7 @@
         <v>33</v>
       </c>
       <c r="J193" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="K193" t="s">
         <v>347</v>
@@ -24924,7 +24940,7 @@
         <v>119</v>
       </c>
       <c r="D194" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="E194" t="s">
         <v>120</v>
@@ -24939,7 +24955,7 @@
         <v>33</v>
       </c>
       <c r="J194" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="K194" t="s">
         <v>347</v>
@@ -24956,10 +24972,10 @@
         <v>103</v>
       </c>
       <c r="D195" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E195" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="G195" s="7">
         <v>-22737.912199999999</v>
@@ -24971,7 +24987,7 @@
         <v>33</v>
       </c>
       <c r="J195" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="K195" t="s">
         <v>350</v>
@@ -24988,10 +25004,10 @@
         <v>102</v>
       </c>
       <c r="D196" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="E196" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="G196" s="7">
         <v>-27117.159599999999</v>
@@ -25003,7 +25019,7 @@
         <v>33</v>
       </c>
       <c r="J196" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.45">
@@ -25017,10 +25033,10 @@
         <v>101</v>
       </c>
       <c r="D197" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="E197" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="G197" s="7">
         <v>-27524.878000000001</v>
@@ -25032,7 +25048,7 @@
         <v>33</v>
       </c>
       <c r="J197" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.45">
@@ -25043,13 +25059,13 @@
         <v>390</v>
       </c>
       <c r="C198" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D198" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="E198" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="G198" s="7">
         <v>-30216.382900000001</v>
@@ -25061,7 +25077,7 @@
         <v>33</v>
       </c>
       <c r="J198" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="K198" t="s">
         <v>349</v>
@@ -25075,13 +25091,13 @@
         <v>390</v>
       </c>
       <c r="C199" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D199" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="E199" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="G199" s="7">
         <v>-30401.414799999999</v>
@@ -25093,10 +25109,10 @@
         <v>33</v>
       </c>
       <c r="J199" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="K199" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.45">
@@ -25110,7 +25126,7 @@
         <v>346</v>
       </c>
       <c r="D200" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E200" t="s">
         <v>104</v>
@@ -25125,7 +25141,7 @@
         <v>33</v>
       </c>
       <c r="J200" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="K200" t="s">
         <v>345</v>
@@ -25139,13 +25155,13 @@
         <v>390</v>
       </c>
       <c r="C201" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D201" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="E201" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="G201" s="7">
         <v>-24672.011399999999</v>
@@ -25157,10 +25173,10 @@
         <v>33</v>
       </c>
       <c r="J201" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="K201" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.45">
@@ -25174,10 +25190,10 @@
         <v>259</v>
       </c>
       <c r="E202" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="F202" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="G202" s="7">
         <v>26158.044693</v>
@@ -25189,7 +25205,7 @@
         <v>33</v>
       </c>
       <c r="J202" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="K202" t="s">
         <v>260</v>
@@ -25206,10 +25222,10 @@
         <v>261</v>
       </c>
       <c r="E203" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="F203" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="G203" s="7">
         <v>26065.148562999999</v>
@@ -25221,7 +25237,7 @@
         <v>33</v>
       </c>
       <c r="J203" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="K203" t="s">
         <v>262</v>
@@ -25238,10 +25254,10 @@
         <v>263</v>
       </c>
       <c r="E204" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="F204" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="G204" s="7">
         <v>26116.073284999999</v>
@@ -25253,7 +25269,7 @@
         <v>33</v>
       </c>
       <c r="J204" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="K204" t="s">
         <v>372</v>
@@ -25270,10 +25286,10 @@
         <v>264</v>
       </c>
       <c r="E205" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="F205" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="G205" s="7">
         <v>21795.243349</v>
@@ -25285,7 +25301,7 @@
         <v>33</v>
       </c>
       <c r="J205" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="K205" t="s">
         <v>265</v>
@@ -25302,10 +25318,10 @@
         <v>266</v>
       </c>
       <c r="E206" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="F206" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="G206" s="7">
         <v>24700.341451</v>
@@ -25317,7 +25333,7 @@
         <v>33</v>
       </c>
       <c r="J206" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.45">
@@ -25346,7 +25362,7 @@
         <v>33</v>
       </c>
       <c r="J207" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="K207" t="s">
         <v>268</v>
@@ -25363,10 +25379,10 @@
         <v>248</v>
       </c>
       <c r="D208" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E208" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="G208" s="7">
         <v>-5382.4546069999997</v>
@@ -25378,7 +25394,7 @@
         <v>33</v>
       </c>
       <c r="J208" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.45">
@@ -25392,10 +25408,10 @@
         <v>251</v>
       </c>
       <c r="D209" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="E209" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="G209" s="7">
         <v>-5863.5875050000004</v>
@@ -25407,7 +25423,7 @@
         <v>33</v>
       </c>
       <c r="J209" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="K209" t="s">
         <v>252</v>
@@ -25421,16 +25437,16 @@
         <v>238</v>
       </c>
       <c r="C210" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D210" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="E210" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="F210" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="G210" s="7">
         <v>-6692</v>
@@ -25442,10 +25458,10 @@
         <v>33</v>
       </c>
       <c r="J210" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="K210" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.45">
@@ -25459,10 +25475,10 @@
         <v>246</v>
       </c>
       <c r="D211" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="E211" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="G211" s="7">
         <v>-16184.035458</v>
@@ -25474,7 +25490,7 @@
         <v>33</v>
       </c>
       <c r="J211" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="K211" t="s">
         <v>247</v>
@@ -25491,10 +25507,10 @@
         <v>244</v>
       </c>
       <c r="D212" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E212" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="G212" s="7">
         <v>-14821.784298</v>
@@ -25506,7 +25522,7 @@
         <v>33</v>
       </c>
       <c r="J212" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="K212" t="s">
         <v>245</v>
@@ -25523,10 +25539,10 @@
         <v>241</v>
       </c>
       <c r="D213" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="E213" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="G213" s="7">
         <v>-17974.03659</v>
@@ -25538,7 +25554,7 @@
         <v>33</v>
       </c>
       <c r="J213" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="K213" t="s">
         <v>242</v>
@@ -25555,10 +25571,10 @@
         <v>239</v>
       </c>
       <c r="D214" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="E214" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="G214" s="7">
         <v>-16699.671394000001</v>
@@ -25570,7 +25586,7 @@
         <v>33</v>
       </c>
       <c r="J214" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="K214" t="s">
         <v>240</v>
@@ -25587,10 +25603,10 @@
         <v>249</v>
       </c>
       <c r="D215" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="E215" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="G215" s="7">
         <v>-15587.081733000001</v>
@@ -25602,7 +25618,7 @@
         <v>33</v>
       </c>
       <c r="J215" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="K215" t="s">
         <v>250</v>
@@ -25619,10 +25635,10 @@
         <v>243</v>
       </c>
       <c r="D216" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="E216" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="G216" s="7">
         <v>-14532.244757</v>
@@ -25634,7 +25650,7 @@
         <v>33</v>
       </c>
       <c r="J216" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.45">
@@ -25648,7 +25664,7 @@
         <v>255</v>
       </c>
       <c r="D217" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="E217" t="s">
         <v>256</v>
@@ -25663,7 +25679,7 @@
         <v>33</v>
       </c>
       <c r="J217" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="K217" t="s">
         <v>371</v>
@@ -25680,7 +25696,7 @@
         <v>253</v>
       </c>
       <c r="D218" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="E218" t="s">
         <v>254</v>
@@ -25695,7 +25711,7 @@
         <v>33</v>
       </c>
       <c r="J218" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="K218" t="s">
         <v>371</v>
@@ -25712,7 +25728,7 @@
         <v>257</v>
       </c>
       <c r="D219" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="E219" t="s">
         <v>258</v>
@@ -25727,7 +25743,7 @@
         <v>33</v>
       </c>
       <c r="J219" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="K219" t="s">
         <v>371</v>
@@ -25741,6 +25757,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <gdc15e87e6184dc285cecc59dfe3e409 xmlns="99b93dda-0db1-4804-bcd9-79ac3408f7b3">
@@ -25777,16 +25802,12 @@
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="f3010fb3-0ead-40f9-8418-3186255a05f9" ContentTypeId="0x010100D14BD004BF1C4459B890F3727F092580" PreviousValue="false"/>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Miljødirektoratet Dokument" ma:contentTypeID="0x010100D14BD004BF1C4459B890F3727F0925800030788E1E5F06E4499248722442C9E1E2" ma:contentTypeVersion="4" ma:contentTypeDescription="Opprett et nytt dokument. " ma:contentTypeScope="" ma:versionID="31d2f06e1319184035b49374dedadd14">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="99b93dda-0db1-4804-bcd9-79ac3408f7b3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4b39a69652e56cca026e8bfba402999b" ns2:_="">
     <xsd:import namespace="99b93dda-0db1-4804-bcd9-79ac3408f7b3"/>
@@ -25952,12 +25973,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="f3010fb3-0ead-40f9-8418-3186255a05f9" ContentTypeId="0x010100D14BD004BF1C4459B890F3727F092580" PreviousValue="false"/>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3C45CF2-DB67-4850-A387-8CB1B8396D69}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5E2C70A-39DB-4E9F-AC55-CF83C6FAF41A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -25973,15 +25997,15 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3C45CF2-DB67-4850-A387-8CB1B8396D69}">
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{045B6229-1055-4164-AB1C-6A3398378E43}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{465F94C6-DADA-41F7-9419-4CB4FA36834F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -25997,12 +26021,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{045B6229-1055-4164-AB1C-6A3398378E43}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/active_stations_2020.xlsx
+++ b/data/active_stations_2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JES\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8A7540F-6324-4E10-9D44-0D827E7A3C28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55DE5EBA-ED1F-4955-AE94-5D2D943C45E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="data" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">data!$A$1:$K$219</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">data!$A$1:$K$221</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3125" uniqueCount="692">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3289" uniqueCount="696">
   <si>
     <t>Nidelva/Arendal</t>
   </si>
@@ -2108,6 +2108,18 @@
   </si>
   <si>
     <t>Espedalselva</t>
+  </si>
+  <si>
+    <t>Flagstadelva nedstrøms dam Nybusjøen</t>
+  </si>
+  <si>
+    <t>002-105961</t>
+  </si>
+  <si>
+    <t>Nybubekken, oppstrøms doserer</t>
+  </si>
+  <si>
+    <t>002-58799</t>
   </si>
 </sst>
 </file>
@@ -2150,12 +2162,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -2170,7 +2188,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -2185,6 +2203,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2648,12 +2667,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C94A5269-279A-4B18-9AEB-3C186FF2C17D}">
-  <dimension ref="A1:K221"/>
+  <dimension ref="A1:K223"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="C227" sqref="C227"/>
+      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2730,68 +2749,56 @@
         <v>658</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>339</v>
-      </c>
-      <c r="B3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" t="s">
-        <v>458</v>
-      </c>
-      <c r="D3">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>403</v>
-      </c>
-      <c r="G3" s="7">
-        <v>143378.37487199999</v>
-      </c>
-      <c r="H3" s="7">
-        <v>6523759.4014900001</v>
-      </c>
-      <c r="I3" s="7">
-        <v>33</v>
-      </c>
-      <c r="J3" t="s">
-        <v>651</v>
-      </c>
-      <c r="K3" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>339</v>
-      </c>
-      <c r="B4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s">
-        <v>401</v>
+    <row r="3" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>693</v>
+      </c>
+      <c r="G3" s="10">
+        <v>292044.86731100001</v>
+      </c>
+      <c r="H3" s="10">
+        <v>6765233.0469899997</v>
+      </c>
+      <c r="I3" s="10">
+        <v>33</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>694</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>695</v>
       </c>
       <c r="G4" s="7">
-        <v>146117.19357</v>
+        <v>292353.61000000034</v>
       </c>
       <c r="H4" s="7">
-        <v>6539557.8805900002</v>
-      </c>
-      <c r="I4" s="7">
-        <v>33</v>
-      </c>
-      <c r="J4" t="s">
-        <v>652</v>
-      </c>
-      <c r="K4" t="s">
-        <v>400</v>
+        <v>6765415.7346000001</v>
+      </c>
+      <c r="I4" s="9">
+        <v>33</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>658</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -2802,22 +2809,19 @@
         <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>399</v>
+        <v>458</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
       <c r="G5" s="7">
-        <v>136838.92223299999</v>
+        <v>143378.37487199999</v>
       </c>
       <c r="H5" s="7">
-        <v>6532833.7244349997</v>
+        <v>6523759.4014900001</v>
       </c>
       <c r="I5" s="7">
         <v>33</v>
@@ -2826,7 +2830,7 @@
         <v>651</v>
       </c>
       <c r="K5" t="s">
-        <v>44</v>
+        <v>457</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -2837,25 +2841,28 @@
         <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D6">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G6" s="7">
-        <v>143490.19312499999</v>
+        <v>146117.19357</v>
       </c>
       <c r="H6" s="7">
-        <v>6515493.5388630005</v>
+        <v>6539557.8805900002</v>
       </c>
       <c r="I6" s="7">
         <v>33</v>
       </c>
       <c r="J6" t="s">
-        <v>651</v>
+        <v>652</v>
+      </c>
+      <c r="K6" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -2866,28 +2873,31 @@
         <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>399</v>
       </c>
       <c r="D7">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G7" s="7">
-        <v>148291.97989300001</v>
+        <v>136838.92223299999</v>
       </c>
       <c r="H7" s="7">
-        <v>6517075.0967629999</v>
+        <v>6532833.7244349997</v>
       </c>
       <c r="I7" s="7">
         <v>33</v>
       </c>
       <c r="J7" t="s">
-        <v>652</v>
+        <v>651</v>
+      </c>
+      <c r="K7" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -2898,19 +2908,19 @@
         <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D8">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G8" s="7">
-        <v>143345.53039299999</v>
+        <v>143490.19312499999</v>
       </c>
       <c r="H8" s="7">
-        <v>6523659.0749279996</v>
+        <v>6515493.5388630005</v>
       </c>
       <c r="I8" s="7">
         <v>33</v>
@@ -2924,28 +2934,31 @@
         <v>339</v>
       </c>
       <c r="B9" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>391</v>
+        <v>39</v>
+      </c>
+      <c r="D9">
+        <v>20</v>
       </c>
       <c r="E9" t="s">
-        <v>675</v>
+        <v>40</v>
+      </c>
+      <c r="F9" t="s">
+        <v>41</v>
       </c>
       <c r="G9" s="7">
-        <v>131566</v>
+        <v>148291.97989300001</v>
       </c>
       <c r="H9" s="7">
-        <v>6513130</v>
+        <v>6517075.0967629999</v>
       </c>
       <c r="I9" s="7">
         <v>33</v>
       </c>
       <c r="J9" t="s">
         <v>652</v>
-      </c>
-      <c r="K9" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -2953,31 +2966,28 @@
         <v>339</v>
       </c>
       <c r="B10" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>397</v>
+        <v>42</v>
       </c>
       <c r="D10">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>404</v>
       </c>
       <c r="G10" s="7">
-        <v>128023</v>
+        <v>143345.53039299999</v>
       </c>
       <c r="H10" s="7">
-        <v>6500457</v>
+        <v>6523659.0749279996</v>
       </c>
       <c r="I10" s="7">
         <v>33</v>
       </c>
       <c r="J10" t="s">
-        <v>652</v>
-      </c>
-      <c r="K10" t="s">
-        <v>341</v>
+        <v>651</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -2988,28 +2998,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11">
-        <v>3</v>
+        <v>391</v>
       </c>
       <c r="E11" t="s">
-        <v>406</v>
+        <v>675</v>
       </c>
       <c r="G11" s="7">
-        <v>127731.485267</v>
+        <v>131566</v>
       </c>
       <c r="H11" s="7">
-        <v>6576415.9690819997</v>
+        <v>6513130</v>
       </c>
       <c r="I11" s="7">
         <v>33</v>
       </c>
       <c r="J11" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="K11" t="s">
-        <v>7</v>
+        <v>419</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -3020,28 +3027,28 @@
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>4</v>
+        <v>397</v>
       </c>
       <c r="D12">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E12" t="s">
-        <v>408</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7">
-        <v>101429.58238000001</v>
+        <v>128023</v>
       </c>
       <c r="H12" s="7">
-        <v>6563302.9070009999</v>
+        <v>6500457</v>
       </c>
       <c r="I12" s="7">
         <v>33</v>
       </c>
       <c r="J12" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="K12" t="s">
-        <v>5</v>
+        <v>341</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -3052,25 +3059,28 @@
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="G13" s="7">
-        <v>128523.96044900001</v>
+        <v>127731.485267</v>
       </c>
       <c r="H13" s="7">
-        <v>6491651.4443859998</v>
+        <v>6576415.9690819997</v>
       </c>
       <c r="I13" s="7">
         <v>33</v>
       </c>
       <c r="J13" t="s">
         <v>651</v>
+      </c>
+      <c r="K13" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -3081,25 +3091,28 @@
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D14">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E14" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G14" s="7">
-        <v>135135.323378</v>
+        <v>101429.58238000001</v>
       </c>
       <c r="H14" s="7">
-        <v>6512124.2934849998</v>
+        <v>6563302.9070009999</v>
       </c>
       <c r="I14" s="7">
         <v>33</v>
       </c>
       <c r="J14" t="s">
         <v>651</v>
+      </c>
+      <c r="K14" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -3110,28 +3123,25 @@
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="G15" s="7">
-        <v>112203.512682</v>
+        <v>128523.96044900001</v>
       </c>
       <c r="H15" s="7">
-        <v>6565806.8027900001</v>
+        <v>6491651.4443859998</v>
       </c>
       <c r="I15" s="7">
         <v>33</v>
       </c>
       <c r="J15" t="s">
         <v>651</v>
-      </c>
-      <c r="K15" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -3142,19 +3152,19 @@
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>409</v>
       </c>
       <c r="G16" s="7">
-        <v>128892</v>
+        <v>135135.323378</v>
       </c>
       <c r="H16" s="7">
-        <v>6503751</v>
+        <v>6512124.2934849998</v>
       </c>
       <c r="I16" s="7">
         <v>33</v>
@@ -3168,28 +3178,31 @@
         <v>339</v>
       </c>
       <c r="B17" t="s">
-        <v>288</v>
+        <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>291</v>
-      </c>
-      <c r="D17" t="s">
-        <v>610</v>
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
       </c>
       <c r="E17" t="s">
-        <v>447</v>
+        <v>407</v>
       </c>
       <c r="G17" s="7">
-        <v>28114.788872000001</v>
+        <v>112203.512682</v>
       </c>
       <c r="H17" s="7">
-        <v>6489729.8603159999</v>
+        <v>6565806.8027900001</v>
       </c>
       <c r="I17" s="7">
         <v>33</v>
       </c>
       <c r="J17" t="s">
         <v>651</v>
+      </c>
+      <c r="K17" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -3197,31 +3210,28 @@
         <v>339</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>605</v>
+        <v>9</v>
+      </c>
+      <c r="D18">
+        <v>16</v>
       </c>
       <c r="E18" t="s">
-        <v>415</v>
+        <v>10</v>
       </c>
       <c r="G18" s="7">
-        <v>97590.25232</v>
+        <v>128892</v>
       </c>
       <c r="H18" s="7">
-        <v>6497730.9962539999</v>
+        <v>6503751</v>
       </c>
       <c r="I18" s="7">
         <v>33</v>
       </c>
       <c r="J18" t="s">
         <v>651</v>
-      </c>
-      <c r="K18" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -3229,22 +3239,22 @@
         <v>339</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>288</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19">
-        <v>2</v>
+        <v>291</v>
+      </c>
+      <c r="D19" t="s">
+        <v>610</v>
       </c>
       <c r="E19" t="s">
-        <v>411</v>
+        <v>447</v>
       </c>
       <c r="G19" s="7">
-        <v>110363.331603</v>
+        <v>28114.788872000001</v>
       </c>
       <c r="H19" s="7">
-        <v>6497688.7743589999</v>
+        <v>6489729.8603159999</v>
       </c>
       <c r="I19" s="7">
         <v>33</v>
@@ -3261,25 +3271,28 @@
         <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20">
-        <v>4</v>
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>605</v>
       </c>
       <c r="E20" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="G20" s="7">
-        <v>107965.167865</v>
+        <v>97590.25232</v>
       </c>
       <c r="H20" s="7">
-        <v>6536482.0263280002</v>
+        <v>6497730.9962539999</v>
       </c>
       <c r="I20" s="7">
         <v>33</v>
       </c>
       <c r="J20" t="s">
-        <v>652</v>
+        <v>651</v>
+      </c>
+      <c r="K20" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -3290,19 +3303,19 @@
         <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E21" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="G21" s="7">
-        <v>97714.164554000003</v>
+        <v>110363.331603</v>
       </c>
       <c r="H21" s="7">
-        <v>6476631.3214180004</v>
+        <v>6497688.7743589999</v>
       </c>
       <c r="I21" s="7">
         <v>33</v>
@@ -3316,28 +3329,28 @@
         <v>339</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>456</v>
+        <v>28</v>
+      </c>
+      <c r="D22">
+        <v>4</v>
       </c>
       <c r="E22" t="s">
-        <v>567</v>
+        <v>413</v>
       </c>
       <c r="G22" s="7">
-        <v>108864.263483</v>
+        <v>107965.167865</v>
       </c>
       <c r="H22" s="7">
-        <v>6487003.8165100003</v>
+        <v>6536482.0263280002</v>
       </c>
       <c r="I22" s="7">
         <v>33</v>
       </c>
       <c r="J22" t="s">
-        <v>651</v>
-      </c>
-      <c r="K22" t="s">
-        <v>398</v>
+        <v>652</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -3345,28 +3358,28 @@
         <v>339</v>
       </c>
       <c r="B23" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>455</v>
+        <v>22</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>566</v>
+        <v>410</v>
       </c>
       <c r="G23" s="7">
-        <v>109017.94520099999</v>
+        <v>97714.164554000003</v>
       </c>
       <c r="H23" s="7">
-        <v>6487702.8654960003</v>
+        <v>6476631.3214180004</v>
       </c>
       <c r="I23" s="7">
         <v>33</v>
       </c>
       <c r="J23" t="s">
-        <v>652</v>
-      </c>
-      <c r="K23" t="s">
-        <v>398</v>
+        <v>651</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -3374,28 +3387,28 @@
         <v>339</v>
       </c>
       <c r="B24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C24" t="s">
-        <v>23</v>
-      </c>
-      <c r="D24">
-        <v>3</v>
+        <v>456</v>
       </c>
       <c r="E24" t="s">
-        <v>412</v>
+        <v>567</v>
       </c>
       <c r="G24" s="7">
-        <v>113473.019562949</v>
+        <v>108864.263483</v>
       </c>
       <c r="H24" s="7">
-        <v>6507877.5179118104</v>
+        <v>6487003.8165100003</v>
       </c>
       <c r="I24" s="7">
         <v>33</v>
       </c>
       <c r="J24" t="s">
         <v>651</v>
+      </c>
+      <c r="K24" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -3403,28 +3416,28 @@
         <v>339</v>
       </c>
       <c r="B25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25">
-        <v>7</v>
+        <v>455</v>
       </c>
       <c r="E25" t="s">
-        <v>414</v>
+        <v>566</v>
       </c>
       <c r="G25" s="7">
-        <v>102268.121399</v>
+        <v>109017.94520099999</v>
       </c>
       <c r="H25" s="7">
-        <v>6533572.2745510004</v>
+        <v>6487702.8654960003</v>
       </c>
       <c r="I25" s="7">
         <v>33</v>
       </c>
       <c r="J25" t="s">
         <v>652</v>
+      </c>
+      <c r="K25" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -3435,31 +3448,25 @@
         <v>21</v>
       </c>
       <c r="C26" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D26">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E26" t="s">
-        <v>31</v>
-      </c>
-      <c r="F26" t="s">
-        <v>32</v>
+        <v>412</v>
       </c>
       <c r="G26" s="7">
-        <v>112284.65959086901</v>
+        <v>113473.019562949</v>
       </c>
       <c r="H26" s="7">
-        <v>6507580.9468897199</v>
+        <v>6507877.5179118104</v>
       </c>
       <c r="I26" s="7">
         <v>33</v>
       </c>
       <c r="J26" t="s">
         <v>651</v>
-      </c>
-      <c r="K26" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -3470,28 +3477,25 @@
         <v>21</v>
       </c>
       <c r="C27" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D27">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="E27" t="s">
-        <v>34</v>
-      </c>
-      <c r="F27" t="s">
-        <v>35</v>
+        <v>414</v>
       </c>
       <c r="G27" s="7">
-        <v>101325</v>
+        <v>102268.121399</v>
       </c>
       <c r="H27" s="7">
-        <v>6485040</v>
+        <v>6533572.2745510004</v>
       </c>
       <c r="I27" s="7">
         <v>33</v>
       </c>
       <c r="J27" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -3502,25 +3506,31 @@
         <v>21</v>
       </c>
       <c r="C28" t="s">
-        <v>36</v>
+        <v>29</v>
+      </c>
+      <c r="D28">
+        <v>5</v>
       </c>
       <c r="E28" t="s">
-        <v>37</v>
+        <v>31</v>
+      </c>
+      <c r="F28" t="s">
+        <v>32</v>
       </c>
       <c r="G28" s="7">
-        <v>100609</v>
+        <v>112284.65959086901</v>
       </c>
       <c r="H28" s="7">
-        <v>6485038</v>
+        <v>6507580.9468897199</v>
       </c>
       <c r="I28" s="7">
         <v>33</v>
       </c>
       <c r="J28" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="K28" t="s">
-        <v>342</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -3528,28 +3538,31 @@
         <v>339</v>
       </c>
       <c r="B29" t="s">
-        <v>330</v>
+        <v>21</v>
       </c>
       <c r="C29" t="s">
-        <v>599</v>
+        <v>33</v>
+      </c>
+      <c r="D29">
+        <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>676</v>
+        <v>34</v>
+      </c>
+      <c r="F29" t="s">
+        <v>35</v>
       </c>
       <c r="G29" s="7">
-        <v>83862</v>
+        <v>101325</v>
       </c>
       <c r="H29" s="7">
-        <v>6475878</v>
-      </c>
-      <c r="I29" s="9">
+        <v>6485040</v>
+      </c>
+      <c r="I29" s="7">
         <v>33</v>
       </c>
       <c r="J29" t="s">
-        <v>652</v>
-      </c>
-      <c r="K29" t="s">
-        <v>600</v>
+        <v>651</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -3557,28 +3570,28 @@
         <v>339</v>
       </c>
       <c r="B30" t="s">
-        <v>330</v>
+        <v>21</v>
       </c>
       <c r="C30" t="s">
-        <v>682</v>
+        <v>36</v>
       </c>
       <c r="E30" t="s">
-        <v>677</v>
-      </c>
-      <c r="G30" s="8">
-        <v>83953</v>
-      </c>
-      <c r="H30" s="8">
-        <v>6495884</v>
-      </c>
-      <c r="I30" s="9">
+        <v>37</v>
+      </c>
+      <c r="G30" s="7">
+        <v>100609</v>
+      </c>
+      <c r="H30" s="7">
+        <v>6485038</v>
+      </c>
+      <c r="I30" s="7">
         <v>33</v>
       </c>
       <c r="J30" t="s">
         <v>652</v>
       </c>
       <c r="K30" t="s">
-        <v>683</v>
+        <v>342</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -3589,25 +3602,25 @@
         <v>330</v>
       </c>
       <c r="C31" t="s">
-        <v>681</v>
+        <v>599</v>
       </c>
       <c r="E31" t="s">
-        <v>678</v>
-      </c>
-      <c r="G31" s="8">
-        <v>85526</v>
-      </c>
-      <c r="H31" s="8">
-        <v>6493180</v>
+        <v>676</v>
+      </c>
+      <c r="G31" s="7">
+        <v>83862</v>
+      </c>
+      <c r="H31" s="7">
+        <v>6475878</v>
       </c>
       <c r="I31" s="9">
         <v>33</v>
       </c>
       <c r="J31" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="K31" t="s">
-        <v>684</v>
+        <v>600</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -3618,28 +3631,25 @@
         <v>330</v>
       </c>
       <c r="C32" t="s">
-        <v>331</v>
+        <v>682</v>
       </c>
       <c r="E32" t="s">
-        <v>332</v>
-      </c>
-      <c r="F32" t="s">
-        <v>333</v>
-      </c>
-      <c r="G32" s="7">
-        <v>85009</v>
-      </c>
-      <c r="H32" s="7">
-        <v>6474787</v>
-      </c>
-      <c r="I32" s="7">
+        <v>677</v>
+      </c>
+      <c r="G32" s="8">
+        <v>83953</v>
+      </c>
+      <c r="H32" s="8">
+        <v>6495884</v>
+      </c>
+      <c r="I32" s="9">
         <v>33</v>
       </c>
       <c r="J32" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="K32" t="s">
-        <v>381</v>
+        <v>683</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -3650,25 +3660,25 @@
         <v>330</v>
       </c>
       <c r="C33" t="s">
-        <v>334</v>
+        <v>681</v>
       </c>
       <c r="E33" t="s">
-        <v>335</v>
-      </c>
-      <c r="G33" s="7">
-        <v>87009</v>
-      </c>
-      <c r="H33" s="7">
-        <v>6478435</v>
-      </c>
-      <c r="I33" s="7">
+        <v>678</v>
+      </c>
+      <c r="G33" s="8">
+        <v>85526</v>
+      </c>
+      <c r="H33" s="8">
+        <v>6493180</v>
+      </c>
+      <c r="I33" s="9">
         <v>33</v>
       </c>
       <c r="J33" t="s">
         <v>661</v>
       </c>
       <c r="K33" t="s">
-        <v>382</v>
+        <v>684</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -3679,25 +3689,28 @@
         <v>330</v>
       </c>
       <c r="C34" t="s">
-        <v>394</v>
+        <v>331</v>
       </c>
       <c r="E34" t="s">
-        <v>418</v>
+        <v>332</v>
+      </c>
+      <c r="F34" t="s">
+        <v>333</v>
       </c>
       <c r="G34" s="7">
-        <v>89026</v>
+        <v>85009</v>
       </c>
       <c r="H34" s="7">
-        <v>6483216</v>
+        <v>6474787</v>
       </c>
       <c r="I34" s="7">
         <v>33</v>
       </c>
       <c r="J34" t="s">
-        <v>652</v>
+        <v>661</v>
       </c>
       <c r="K34" t="s">
-        <v>420</v>
+        <v>381</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -3708,25 +3721,25 @@
         <v>330</v>
       </c>
       <c r="C35" t="s">
-        <v>392</v>
+        <v>334</v>
       </c>
       <c r="E35" t="s">
-        <v>417</v>
+        <v>335</v>
       </c>
       <c r="G35" s="7">
-        <v>84324</v>
+        <v>87009</v>
       </c>
       <c r="H35" s="7">
-        <v>6488725</v>
+        <v>6478435</v>
       </c>
       <c r="I35" s="7">
         <v>33</v>
       </c>
       <c r="J35" t="s">
-        <v>652</v>
+        <v>661</v>
       </c>
       <c r="K35" t="s">
-        <v>420</v>
+        <v>382</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -3737,25 +3750,25 @@
         <v>330</v>
       </c>
       <c r="C36" t="s">
-        <v>16</v>
+        <v>394</v>
       </c>
       <c r="E36" t="s">
-        <v>15</v>
+        <v>418</v>
       </c>
       <c r="G36" s="7">
-        <v>85248.376988999997</v>
+        <v>89026</v>
       </c>
       <c r="H36" s="7">
-        <v>6494111.9465030003</v>
+        <v>6483216</v>
       </c>
       <c r="I36" s="7">
         <v>33</v>
       </c>
       <c r="J36" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="K36" t="s">
-        <v>385</v>
+        <v>420</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -3766,28 +3779,25 @@
         <v>330</v>
       </c>
       <c r="C37" t="s">
-        <v>336</v>
+        <v>392</v>
       </c>
       <c r="E37" t="s">
-        <v>337</v>
-      </c>
-      <c r="F37" t="s">
-        <v>338</v>
+        <v>417</v>
       </c>
       <c r="G37" s="7">
-        <v>86090</v>
+        <v>84324</v>
       </c>
       <c r="H37" s="7">
-        <v>6471166</v>
+        <v>6488725</v>
       </c>
       <c r="I37" s="7">
         <v>33</v>
       </c>
       <c r="J37" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="K37" t="s">
-        <v>383</v>
+        <v>420</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -3798,25 +3808,25 @@
         <v>330</v>
       </c>
       <c r="C38" t="s">
-        <v>393</v>
+        <v>16</v>
       </c>
       <c r="E38" t="s">
-        <v>416</v>
+        <v>15</v>
       </c>
       <c r="G38" s="7">
-        <v>76504</v>
+        <v>85248.376988999997</v>
       </c>
       <c r="H38" s="7">
-        <v>6495039</v>
+        <v>6494111.9465030003</v>
       </c>
       <c r="I38" s="7">
         <v>33</v>
       </c>
       <c r="J38" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="K38" t="s">
-        <v>420</v>
+        <v>385</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -3827,28 +3837,28 @@
         <v>330</v>
       </c>
       <c r="C39" t="s">
-        <v>12</v>
+        <v>336</v>
       </c>
       <c r="E39" t="s">
-        <v>13</v>
+        <v>337</v>
       </c>
       <c r="F39" t="s">
-        <v>14</v>
+        <v>338</v>
       </c>
       <c r="G39" s="7">
-        <v>87019.138019999999</v>
+        <v>86090</v>
       </c>
       <c r="H39" s="7">
-        <v>6502664.3093760004</v>
+        <v>6471166</v>
       </c>
       <c r="I39" s="7">
         <v>33</v>
       </c>
       <c r="J39" t="s">
-        <v>651</v>
+        <v>661</v>
       </c>
       <c r="K39" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -3859,19 +3869,16 @@
         <v>330</v>
       </c>
       <c r="C40" t="s">
-        <v>17</v>
+        <v>393</v>
       </c>
       <c r="E40" t="s">
-        <v>18</v>
-      </c>
-      <c r="F40" t="s">
-        <v>19</v>
+        <v>416</v>
       </c>
       <c r="G40" s="7">
-        <v>87949.962417000002</v>
+        <v>76504</v>
       </c>
       <c r="H40" s="7">
-        <v>6503900.7115829997</v>
+        <v>6495039</v>
       </c>
       <c r="I40" s="7">
         <v>33</v>
@@ -3880,7 +3887,7 @@
         <v>652</v>
       </c>
       <c r="K40" t="s">
-        <v>384</v>
+        <v>420</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -3888,28 +3895,31 @@
         <v>339</v>
       </c>
       <c r="B41" t="s">
-        <v>48</v>
+        <v>330</v>
       </c>
       <c r="C41" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="E41" t="s">
-        <v>674</v>
+        <v>13</v>
+      </c>
+      <c r="F41" t="s">
+        <v>14</v>
       </c>
       <c r="G41" s="7">
-        <v>71614</v>
+        <v>87019.138019999999</v>
       </c>
       <c r="H41" s="7">
-        <v>6524341</v>
+        <v>6502664.3093760004</v>
       </c>
       <c r="I41" s="7">
         <v>33</v>
       </c>
       <c r="J41" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="K41" t="s">
-        <v>343</v>
+        <v>384</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -3917,19 +3927,22 @@
         <v>339</v>
       </c>
       <c r="B42" t="s">
-        <v>48</v>
+        <v>330</v>
       </c>
       <c r="C42" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="E42" t="s">
-        <v>51</v>
+        <v>18</v>
+      </c>
+      <c r="F42" t="s">
+        <v>19</v>
       </c>
       <c r="G42" s="7">
-        <v>74736</v>
+        <v>87949.962417000002</v>
       </c>
       <c r="H42" s="7">
-        <v>6518720</v>
+        <v>6503900.7115829997</v>
       </c>
       <c r="I42" s="7">
         <v>33</v>
@@ -3938,7 +3951,7 @@
         <v>652</v>
       </c>
       <c r="K42" t="s">
-        <v>50</v>
+        <v>384</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -3949,22 +3962,22 @@
         <v>48</v>
       </c>
       <c r="C43" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E43" t="s">
-        <v>56</v>
+        <v>674</v>
       </c>
       <c r="G43" s="7">
-        <v>77563</v>
+        <v>71614</v>
       </c>
       <c r="H43" s="7">
-        <v>6515739</v>
+        <v>6524341</v>
       </c>
       <c r="I43" s="7">
         <v>33</v>
       </c>
       <c r="J43" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="K43" t="s">
         <v>343</v>
@@ -3978,25 +3991,25 @@
         <v>48</v>
       </c>
       <c r="C44" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E44" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G44" s="7">
-        <v>73726</v>
+        <v>74736</v>
       </c>
       <c r="H44" s="7">
-        <v>6518333</v>
+        <v>6518720</v>
       </c>
       <c r="I44" s="7">
         <v>33</v>
       </c>
       <c r="J44" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="K44" t="s">
-        <v>343</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -4004,28 +4017,28 @@
         <v>339</v>
       </c>
       <c r="B45" t="s">
-        <v>302</v>
+        <v>48</v>
       </c>
       <c r="C45" t="s">
-        <v>421</v>
-      </c>
-      <c r="D45">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="E45" t="s">
-        <v>427</v>
+        <v>56</v>
       </c>
       <c r="G45" s="7">
-        <v>64515.144346000001</v>
+        <v>77563</v>
       </c>
       <c r="H45" s="7">
-        <v>6501199.9575760001</v>
+        <v>6515739</v>
       </c>
       <c r="I45" s="7">
         <v>33</v>
       </c>
       <c r="J45" t="s">
         <v>651</v>
+      </c>
+      <c r="K45" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -4033,28 +4046,28 @@
         <v>339</v>
       </c>
       <c r="B46" t="s">
-        <v>302</v>
+        <v>48</v>
       </c>
       <c r="C46" t="s">
-        <v>422</v>
-      </c>
-      <c r="D46">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="E46" t="s">
-        <v>428</v>
+        <v>54</v>
       </c>
       <c r="G46" s="7">
-        <v>60469.991418999998</v>
+        <v>73726</v>
       </c>
       <c r="H46" s="7">
-        <v>6480362.5181139996</v>
+        <v>6518333</v>
       </c>
       <c r="I46" s="7">
         <v>33</v>
       </c>
       <c r="J46" t="s">
-        <v>653</v>
+        <v>651</v>
+      </c>
+      <c r="K46" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -4065,19 +4078,19 @@
         <v>302</v>
       </c>
       <c r="C47" t="s">
-        <v>303</v>
+        <v>421</v>
       </c>
       <c r="D47">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E47" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="G47" s="7">
-        <v>62838.750856999999</v>
+        <v>64515.144346000001</v>
       </c>
       <c r="H47" s="7">
-        <v>6471227.4828690002</v>
+        <v>6501199.9575760001</v>
       </c>
       <c r="I47" s="7">
         <v>33</v>
@@ -4091,31 +4104,28 @@
         <v>339</v>
       </c>
       <c r="B48" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="C48" t="s">
-        <v>325</v>
+        <v>422</v>
+      </c>
+      <c r="D48">
+        <v>15</v>
       </c>
       <c r="E48" t="s">
-        <v>326</v>
-      </c>
-      <c r="F48" t="s">
-        <v>327</v>
+        <v>428</v>
       </c>
       <c r="G48" s="7">
-        <v>74818</v>
+        <v>60469.991418999998</v>
       </c>
       <c r="H48" s="7">
-        <v>6475694</v>
+        <v>6480362.5181139996</v>
       </c>
       <c r="I48" s="7">
         <v>33</v>
       </c>
       <c r="J48" t="s">
-        <v>655</v>
-      </c>
-      <c r="K48" t="s">
-        <v>323</v>
+        <v>653</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -4123,31 +4133,28 @@
         <v>339</v>
       </c>
       <c r="B49" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="C49" t="s">
-        <v>322</v>
+        <v>303</v>
+      </c>
+      <c r="D49">
+        <v>3</v>
       </c>
       <c r="E49" t="s">
-        <v>324</v>
-      </c>
-      <c r="F49" t="s">
-        <v>463</v>
+        <v>424</v>
       </c>
       <c r="G49" s="7">
-        <v>75109</v>
+        <v>62838.750856999999</v>
       </c>
       <c r="H49" s="7">
-        <v>6475903</v>
+        <v>6471227.4828690002</v>
       </c>
       <c r="I49" s="7">
         <v>33</v>
       </c>
       <c r="J49" t="s">
-        <v>655</v>
-      </c>
-      <c r="K49" t="s">
-        <v>323</v>
+        <v>651</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -4158,19 +4165,19 @@
         <v>320</v>
       </c>
       <c r="C50" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E50" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F50" t="s">
-        <v>464</v>
+        <v>327</v>
       </c>
       <c r="G50" s="7">
-        <v>76554</v>
+        <v>74818</v>
       </c>
       <c r="H50" s="7">
-        <v>6473708</v>
+        <v>6475694</v>
       </c>
       <c r="I50" s="7">
         <v>33</v>
@@ -4187,28 +4194,31 @@
         <v>339</v>
       </c>
       <c r="B51" t="s">
-        <v>302</v>
+        <v>320</v>
       </c>
       <c r="C51" t="s">
-        <v>304</v>
-      </c>
-      <c r="D51">
-        <v>1</v>
+        <v>322</v>
       </c>
       <c r="E51" t="s">
-        <v>423</v>
+        <v>324</v>
+      </c>
+      <c r="F51" t="s">
+        <v>463</v>
       </c>
       <c r="G51" s="7">
-        <v>61346.669367000002</v>
+        <v>75109</v>
       </c>
       <c r="H51" s="7">
-        <v>6476691.3884319998</v>
+        <v>6475903</v>
       </c>
       <c r="I51" s="7">
         <v>33</v>
       </c>
       <c r="J51" t="s">
-        <v>651</v>
+        <v>655</v>
+      </c>
+      <c r="K51" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -4216,31 +4226,31 @@
         <v>339</v>
       </c>
       <c r="B52" t="s">
-        <v>302</v>
+        <v>320</v>
       </c>
       <c r="C52" t="s">
-        <v>311</v>
-      </c>
-      <c r="D52">
-        <v>16</v>
+        <v>328</v>
       </c>
       <c r="E52" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="F52" t="s">
-        <v>313</v>
+        <v>464</v>
       </c>
       <c r="G52" s="7">
-        <v>61384</v>
+        <v>76554</v>
       </c>
       <c r="H52" s="7">
-        <v>6473180</v>
+        <v>6473708</v>
       </c>
       <c r="I52" s="7">
         <v>33</v>
       </c>
       <c r="J52" t="s">
-        <v>660</v>
+        <v>655</v>
+      </c>
+      <c r="K52" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -4251,25 +4261,25 @@
         <v>302</v>
       </c>
       <c r="C53" t="s">
-        <v>305</v>
+        <v>304</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
       </c>
       <c r="E53" t="s">
-        <v>306</v>
+        <v>423</v>
       </c>
       <c r="G53" s="7">
-        <v>60253</v>
+        <v>61346.669367000002</v>
       </c>
       <c r="H53" s="7">
-        <v>6521802</v>
+        <v>6476691.3884319998</v>
       </c>
       <c r="I53" s="7">
         <v>33</v>
       </c>
       <c r="J53" t="s">
-        <v>652</v>
-      </c>
-      <c r="K53" t="s">
-        <v>376</v>
+        <v>651</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -4280,25 +4290,28 @@
         <v>302</v>
       </c>
       <c r="C54" t="s">
-        <v>459</v>
+        <v>311</v>
       </c>
       <c r="D54">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E54" t="s">
-        <v>425</v>
+        <v>312</v>
+      </c>
+      <c r="F54" t="s">
+        <v>313</v>
       </c>
       <c r="G54" s="7">
-        <v>63676.259080999997</v>
+        <v>61384</v>
       </c>
       <c r="H54" s="7">
-        <v>6495729.3917049998</v>
+        <v>6473180</v>
       </c>
       <c r="I54" s="7">
         <v>33</v>
       </c>
       <c r="J54" t="s">
-        <v>651</v>
+        <v>660</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -4309,25 +4322,25 @@
         <v>302</v>
       </c>
       <c r="C55" t="s">
-        <v>460</v>
-      </c>
-      <c r="D55">
-        <v>11</v>
+        <v>305</v>
       </c>
       <c r="E55" t="s">
-        <v>426</v>
+        <v>306</v>
       </c>
       <c r="G55" s="7">
-        <v>60939.076349000003</v>
+        <v>60253</v>
       </c>
       <c r="H55" s="7">
-        <v>6507541.8431529999</v>
+        <v>6521802</v>
       </c>
       <c r="I55" s="7">
         <v>33</v>
       </c>
       <c r="J55" t="s">
-        <v>651</v>
+        <v>652</v>
+      </c>
+      <c r="K55" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -4335,25 +4348,28 @@
         <v>339</v>
       </c>
       <c r="B56" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="C56" t="s">
-        <v>321</v>
+        <v>459</v>
+      </c>
+      <c r="D56">
+        <v>5</v>
       </c>
       <c r="E56" t="s">
-        <v>568</v>
+        <v>425</v>
       </c>
       <c r="G56" s="7">
-        <v>78337.500564999995</v>
+        <v>63676.259080999997</v>
       </c>
       <c r="H56" s="7">
-        <v>6461037.493578</v>
+        <v>6495729.3917049998</v>
       </c>
       <c r="I56" s="7">
         <v>33</v>
       </c>
       <c r="J56" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -4364,25 +4380,25 @@
         <v>302</v>
       </c>
       <c r="C57" t="s">
-        <v>307</v>
+        <v>460</v>
+      </c>
+      <c r="D57">
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>308</v>
+        <v>426</v>
       </c>
       <c r="G57" s="7">
-        <v>60562</v>
+        <v>60939.076349000003</v>
       </c>
       <c r="H57" s="7">
-        <v>6475106</v>
+        <v>6507541.8431529999</v>
       </c>
       <c r="I57" s="7">
         <v>33</v>
       </c>
       <c r="J57" t="s">
-        <v>652</v>
-      </c>
-      <c r="K57" t="s">
-        <v>377</v>
+        <v>651</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -4390,28 +4406,25 @@
         <v>339</v>
       </c>
       <c r="B58" t="s">
-        <v>302</v>
+        <v>320</v>
       </c>
       <c r="C58" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="E58" t="s">
-        <v>310</v>
+        <v>568</v>
       </c>
       <c r="G58" s="7">
-        <v>60546</v>
+        <v>78337.500564999995</v>
       </c>
       <c r="H58" s="7">
-        <v>6476163</v>
+        <v>6461037.493578</v>
       </c>
       <c r="I58" s="7">
         <v>33</v>
       </c>
       <c r="J58" t="s">
-        <v>660</v>
-      </c>
-      <c r="K58" t="s">
-        <v>378</v>
+        <v>655</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -4419,28 +4432,28 @@
         <v>339</v>
       </c>
       <c r="B59" t="s">
-        <v>271</v>
+        <v>302</v>
       </c>
       <c r="C59" t="s">
-        <v>275</v>
-      </c>
-      <c r="D59">
-        <v>3</v>
+        <v>307</v>
       </c>
       <c r="E59" t="s">
-        <v>429</v>
+        <v>308</v>
       </c>
       <c r="G59" s="7">
-        <v>53424.904893999999</v>
+        <v>60562</v>
       </c>
       <c r="H59" s="7">
-        <v>6489922.4009870002</v>
+        <v>6475106</v>
       </c>
       <c r="I59" s="7">
         <v>33</v>
       </c>
       <c r="J59" t="s">
-        <v>651</v>
+        <v>652</v>
+      </c>
+      <c r="K59" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -4448,31 +4461,28 @@
         <v>339</v>
       </c>
       <c r="B60" t="s">
-        <v>271</v>
+        <v>302</v>
       </c>
       <c r="C60" t="s">
-        <v>272</v>
-      </c>
-      <c r="D60">
-        <v>1</v>
+        <v>309</v>
       </c>
       <c r="E60" t="s">
-        <v>273</v>
-      </c>
-      <c r="F60" t="s">
-        <v>274</v>
+        <v>310</v>
       </c>
       <c r="G60" s="7">
-        <v>54869.402886999997</v>
+        <v>60546</v>
       </c>
       <c r="H60" s="7">
-        <v>6496688.0588570004</v>
+        <v>6476163</v>
       </c>
       <c r="I60" s="7">
         <v>33</v>
       </c>
       <c r="J60" t="s">
-        <v>654</v>
+        <v>660</v>
+      </c>
+      <c r="K60" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -4483,25 +4493,25 @@
         <v>271</v>
       </c>
       <c r="C61" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D61">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E61" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="G61" s="7">
-        <v>51069.624163</v>
+        <v>53424.904893999999</v>
       </c>
       <c r="H61" s="7">
-        <v>6468834.7256739996</v>
+        <v>6489922.4009870002</v>
       </c>
       <c r="I61" s="7">
         <v>33</v>
       </c>
       <c r="J61" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -4512,25 +4522,28 @@
         <v>271</v>
       </c>
       <c r="C62" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D62">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E62" t="s">
-        <v>430</v>
+        <v>273</v>
+      </c>
+      <c r="F62" t="s">
+        <v>274</v>
       </c>
       <c r="G62" s="7">
-        <v>49359.760647000003</v>
+        <v>54869.402886999997</v>
       </c>
       <c r="H62" s="7">
-        <v>6468304.9789260002</v>
+        <v>6496688.0588570004</v>
       </c>
       <c r="I62" s="7">
         <v>33</v>
       </c>
       <c r="J62" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -4541,28 +4554,25 @@
         <v>271</v>
       </c>
       <c r="C63" t="s">
-        <v>278</v>
-      </c>
-      <c r="D63" t="s">
-        <v>608</v>
+        <v>276</v>
+      </c>
+      <c r="D63">
+        <v>16</v>
       </c>
       <c r="E63" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="G63" s="7">
-        <v>51266.087678999997</v>
+        <v>51069.624163</v>
       </c>
       <c r="H63" s="7">
-        <v>6471749.028132</v>
+        <v>6468834.7256739996</v>
       </c>
       <c r="I63" s="7">
         <v>33</v>
       </c>
       <c r="J63" t="s">
-        <v>654</v>
-      </c>
-      <c r="K63" t="s">
-        <v>373</v>
+        <v>652</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -4573,28 +4583,25 @@
         <v>271</v>
       </c>
       <c r="C64" t="s">
-        <v>279</v>
-      </c>
-      <c r="D64" t="s">
-        <v>609</v>
+        <v>277</v>
+      </c>
+      <c r="D64">
+        <v>6</v>
       </c>
       <c r="E64" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="G64" s="7">
-        <v>51203</v>
+        <v>49359.760647000003</v>
       </c>
       <c r="H64" s="7">
-        <v>6471707</v>
+        <v>6468304.9789260002</v>
       </c>
       <c r="I64" s="7">
         <v>33</v>
       </c>
       <c r="J64" t="s">
-        <v>653</v>
-      </c>
-      <c r="K64" t="s">
-        <v>374</v>
+        <v>651</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -4605,25 +4612,28 @@
         <v>271</v>
       </c>
       <c r="C65" t="s">
-        <v>280</v>
-      </c>
-      <c r="D65">
-        <v>14</v>
+        <v>278</v>
+      </c>
+      <c r="D65" t="s">
+        <v>608</v>
       </c>
       <c r="E65" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="G65" s="7">
-        <v>50228.873606000001</v>
+        <v>51266.087678999997</v>
       </c>
       <c r="H65" s="7">
-        <v>6478417.6961639998</v>
+        <v>6471749.028132</v>
       </c>
       <c r="I65" s="7">
         <v>33</v>
       </c>
       <c r="J65" t="s">
-        <v>652</v>
+        <v>654</v>
+      </c>
+      <c r="K65" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
@@ -4634,25 +4644,28 @@
         <v>271</v>
       </c>
       <c r="C66" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D66" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="E66" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="G66" s="7">
-        <v>54729.520605999998</v>
+        <v>51203</v>
       </c>
       <c r="H66" s="7">
-        <v>6503383.0854519997</v>
+        <v>6471707</v>
       </c>
       <c r="I66" s="7">
         <v>33</v>
       </c>
       <c r="J66" t="s">
-        <v>654</v>
+        <v>653</v>
+      </c>
+      <c r="K66" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
@@ -4663,28 +4676,25 @@
         <v>271</v>
       </c>
       <c r="C67" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D67">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E67" t="s">
-        <v>284</v>
+        <v>432</v>
       </c>
       <c r="G67" s="7">
-        <v>50512</v>
+        <v>50228.873606000001</v>
       </c>
       <c r="H67" s="7">
-        <v>6479774</v>
+        <v>6478417.6961639998</v>
       </c>
       <c r="I67" s="7">
         <v>33</v>
       </c>
       <c r="J67" t="s">
-        <v>651</v>
-      </c>
-      <c r="K67" t="s">
-        <v>283</v>
+        <v>652</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
@@ -4692,28 +4702,28 @@
         <v>339</v>
       </c>
       <c r="B68" t="s">
-        <v>294</v>
+        <v>271</v>
       </c>
       <c r="C68" t="s">
-        <v>395</v>
+        <v>281</v>
+      </c>
+      <c r="D68" t="s">
+        <v>607</v>
       </c>
       <c r="E68" t="s">
-        <v>679</v>
+        <v>431</v>
       </c>
       <c r="G68" s="7">
-        <v>33005</v>
+        <v>54729.520605999998</v>
       </c>
       <c r="H68" s="7">
-        <v>6477280</v>
-      </c>
-      <c r="I68" s="9">
+        <v>6503383.0854519997</v>
+      </c>
+      <c r="I68" s="7">
         <v>33</v>
       </c>
       <c r="J68" t="s">
-        <v>652</v>
-      </c>
-      <c r="K68" t="s">
-        <v>436</v>
+        <v>654</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
@@ -4721,28 +4731,31 @@
         <v>339</v>
       </c>
       <c r="B69" t="s">
-        <v>294</v>
+        <v>271</v>
       </c>
       <c r="C69" t="s">
-        <v>300</v>
+        <v>282</v>
+      </c>
+      <c r="D69">
+        <v>17</v>
       </c>
       <c r="E69" t="s">
-        <v>301</v>
+        <v>284</v>
       </c>
       <c r="G69" s="7">
-        <v>45304</v>
+        <v>50512</v>
       </c>
       <c r="H69" s="7">
-        <v>6496911</v>
+        <v>6479774</v>
       </c>
       <c r="I69" s="7">
         <v>33</v>
       </c>
       <c r="J69" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="K69" t="s">
-        <v>386</v>
+        <v>283</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
@@ -4753,25 +4766,25 @@
         <v>294</v>
       </c>
       <c r="C70" t="s">
-        <v>299</v>
-      </c>
-      <c r="D70">
-        <v>1</v>
+        <v>395</v>
       </c>
       <c r="E70" t="s">
-        <v>438</v>
+        <v>679</v>
       </c>
       <c r="G70" s="7">
-        <v>38898.998094000002</v>
+        <v>33005</v>
       </c>
       <c r="H70" s="7">
-        <v>6479695.0223239996</v>
-      </c>
-      <c r="I70" s="7">
+        <v>6477280</v>
+      </c>
+      <c r="I70" s="9">
         <v>33</v>
       </c>
       <c r="J70" t="s">
-        <v>651</v>
+        <v>652</v>
+      </c>
+      <c r="K70" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
@@ -4782,25 +4795,25 @@
         <v>294</v>
       </c>
       <c r="C71" t="s">
-        <v>295</v>
-      </c>
-      <c r="D71">
-        <v>3</v>
+        <v>300</v>
       </c>
       <c r="E71" t="s">
-        <v>440</v>
+        <v>301</v>
       </c>
       <c r="G71" s="7">
-        <v>44280.163765999998</v>
+        <v>45304</v>
       </c>
       <c r="H71" s="7">
-        <v>6510714.7835330004</v>
+        <v>6496911</v>
       </c>
       <c r="I71" s="7">
         <v>33</v>
       </c>
       <c r="J71" t="s">
-        <v>651</v>
+        <v>652</v>
+      </c>
+      <c r="K71" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -4811,25 +4824,25 @@
         <v>294</v>
       </c>
       <c r="C72" t="s">
-        <v>462</v>
+        <v>299</v>
       </c>
       <c r="D72">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="E72" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="G72" s="7">
-        <v>35691.362739999997</v>
+        <v>38898.998094000002</v>
       </c>
       <c r="H72" s="7">
-        <v>6472939.9675719999</v>
+        <v>6479695.0223239996</v>
       </c>
       <c r="I72" s="7">
         <v>33</v>
       </c>
       <c r="J72" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
@@ -4840,19 +4853,19 @@
         <v>294</v>
       </c>
       <c r="C73" t="s">
-        <v>461</v>
+        <v>295</v>
       </c>
       <c r="D73">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E73" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="G73" s="7">
-        <v>40380.618582000003</v>
+        <v>44280.163765999998</v>
       </c>
       <c r="H73" s="7">
-        <v>6474565.5169209996</v>
+        <v>6510714.7835330004</v>
       </c>
       <c r="I73" s="7">
         <v>33</v>
@@ -4869,25 +4882,25 @@
         <v>294</v>
       </c>
       <c r="C74" t="s">
-        <v>296</v>
+        <v>462</v>
       </c>
       <c r="D74">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="E74" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="G74" s="7">
-        <v>40591.952972999999</v>
+        <v>35691.362739999997</v>
       </c>
       <c r="H74" s="7">
-        <v>6516703.1427610004</v>
+        <v>6472939.9675719999</v>
       </c>
       <c r="I74" s="7">
         <v>33</v>
       </c>
       <c r="J74" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
@@ -4898,19 +4911,19 @@
         <v>294</v>
       </c>
       <c r="C75" t="s">
-        <v>297</v>
+        <v>461</v>
       </c>
       <c r="D75">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E75" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="G75" s="7">
-        <v>33804.067872</v>
+        <v>40380.618582000003</v>
       </c>
       <c r="H75" s="7">
-        <v>6474125.0293140002</v>
+        <v>6474565.5169209996</v>
       </c>
       <c r="I75" s="7">
         <v>33</v>
@@ -4927,25 +4940,25 @@
         <v>294</v>
       </c>
       <c r="C76" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D76">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E76" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G76" s="7">
-        <v>46399.403963999997</v>
+        <v>40591.952972999999</v>
       </c>
       <c r="H76" s="7">
-        <v>6498551.4291909998</v>
+        <v>6516703.1427610004</v>
       </c>
       <c r="I76" s="7">
         <v>33</v>
       </c>
       <c r="J76" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
@@ -4953,25 +4966,28 @@
         <v>339</v>
       </c>
       <c r="B77" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="C77" t="s">
-        <v>286</v>
+        <v>297</v>
+      </c>
+      <c r="D77">
+        <v>6</v>
       </c>
       <c r="E77" t="s">
-        <v>287</v>
+        <v>442</v>
       </c>
       <c r="G77" s="7">
-        <v>20801.795471000001</v>
+        <v>33804.067872</v>
       </c>
       <c r="H77" s="7">
-        <v>6488201.1059689997</v>
+        <v>6474125.0293140002</v>
       </c>
       <c r="I77" s="7">
         <v>33</v>
       </c>
       <c r="J77" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
@@ -4979,28 +4995,28 @@
         <v>339</v>
       </c>
       <c r="B78" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="C78" t="s">
-        <v>445</v>
+        <v>298</v>
       </c>
       <c r="D78">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E78" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="G78" s="7">
-        <v>35953.846236999998</v>
+        <v>46399.403963999997</v>
       </c>
       <c r="H78" s="7">
-        <v>6513876.3143680003</v>
+        <v>6498551.4291909998</v>
       </c>
       <c r="I78" s="7">
         <v>33</v>
       </c>
       <c r="J78" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
@@ -5008,28 +5024,25 @@
         <v>339</v>
       </c>
       <c r="B79" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C79" t="s">
-        <v>292</v>
-      </c>
-      <c r="D79">
-        <v>8</v>
+        <v>286</v>
       </c>
       <c r="E79" t="s">
-        <v>449</v>
+        <v>287</v>
       </c>
       <c r="G79" s="7">
-        <v>30470.752357000001</v>
+        <v>20801.795471000001</v>
       </c>
       <c r="H79" s="7">
-        <v>6492607.0779870003</v>
+        <v>6488201.1059689997</v>
       </c>
       <c r="I79" s="7">
         <v>33</v>
       </c>
       <c r="J79" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
@@ -5040,25 +5053,25 @@
         <v>288</v>
       </c>
       <c r="C80" t="s">
-        <v>293</v>
+        <v>445</v>
       </c>
       <c r="D80">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E80" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="G80" s="7">
-        <v>30498.686836000001</v>
+        <v>35953.846236999998</v>
       </c>
       <c r="H80" s="7">
-        <v>6496052.6048699999</v>
+        <v>6513876.3143680003</v>
       </c>
       <c r="I80" s="7">
         <v>33</v>
       </c>
       <c r="J80" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
@@ -5069,83 +5082,77 @@
         <v>288</v>
       </c>
       <c r="C81" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="D81">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E81" t="s">
-        <v>290</v>
+        <v>449</v>
       </c>
       <c r="G81" s="7">
-        <v>29771</v>
+        <v>30470.752357000001</v>
       </c>
       <c r="H81" s="7">
-        <v>6514634</v>
+        <v>6492607.0779870003</v>
       </c>
       <c r="I81" s="7">
         <v>33</v>
       </c>
       <c r="J81" t="s">
-        <v>652</v>
-      </c>
-      <c r="K81" t="s">
-        <v>375</v>
+        <v>651</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>139</v>
+        <v>339</v>
       </c>
       <c r="B82" t="s">
-        <v>190</v>
+        <v>288</v>
       </c>
       <c r="C82" t="s">
-        <v>396</v>
+        <v>293</v>
       </c>
       <c r="D82">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E82" t="s">
-        <v>680</v>
+        <v>446</v>
       </c>
       <c r="G82" s="7">
-        <v>344012</v>
+        <v>30498.686836000001</v>
       </c>
       <c r="H82" s="7">
-        <v>6476932</v>
+        <v>6496052.6048699999</v>
       </c>
       <c r="I82" s="7">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J82" t="s">
-        <v>652</v>
-      </c>
-      <c r="K82" t="s">
-        <v>437</v>
+        <v>651</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>139</v>
+        <v>339</v>
       </c>
       <c r="B83" t="s">
-        <v>190</v>
+        <v>288</v>
       </c>
       <c r="C83" t="s">
-        <v>465</v>
+        <v>289</v>
       </c>
       <c r="D83">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E83" t="s">
-        <v>471</v>
+        <v>290</v>
       </c>
       <c r="G83" s="7">
-        <v>-7923.0859179999998</v>
+        <v>29771</v>
       </c>
       <c r="H83" s="7">
-        <v>6501607.7617589999</v>
+        <v>6514634</v>
       </c>
       <c r="I83" s="7">
         <v>33</v>
@@ -5154,7 +5161,7 @@
         <v>652</v>
       </c>
       <c r="K83" t="s">
-        <v>467</v>
+        <v>375</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
@@ -5165,25 +5172,28 @@
         <v>190</v>
       </c>
       <c r="C84" t="s">
-        <v>466</v>
+        <v>396</v>
       </c>
       <c r="D84">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E84" t="s">
-        <v>474</v>
+        <v>680</v>
       </c>
       <c r="G84" s="7">
-        <v>-6353.2602809999998</v>
+        <v>344012</v>
       </c>
       <c r="H84" s="7">
-        <v>6500227.5597430002</v>
+        <v>6476932</v>
       </c>
       <c r="I84" s="7">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J84" t="s">
-        <v>651</v>
+        <v>652</v>
+      </c>
+      <c r="K84" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
@@ -5194,25 +5204,28 @@
         <v>190</v>
       </c>
       <c r="C85" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D85">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E85" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="G85" s="7">
-        <v>-7669.1387459999996</v>
+        <v>-7923.0859179999998</v>
       </c>
       <c r="H85" s="7">
-        <v>6499893.7989090001</v>
+        <v>6501607.7617589999</v>
       </c>
       <c r="I85" s="7">
         <v>33</v>
       </c>
       <c r="J85" t="s">
-        <v>651</v>
+        <v>652</v>
+      </c>
+      <c r="K85" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
@@ -5223,19 +5236,19 @@
         <v>190</v>
       </c>
       <c r="C86" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="D86">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E86" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="G86" s="7">
-        <v>-5753.0666590000001</v>
+        <v>-6353.2602809999998</v>
       </c>
       <c r="H86" s="7">
-        <v>6502598.2818910005</v>
+        <v>6500227.5597430002</v>
       </c>
       <c r="I86" s="7">
         <v>33</v>
@@ -5252,19 +5265,19 @@
         <v>190</v>
       </c>
       <c r="C87" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D87">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E87" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="G87" s="7">
-        <v>-7928.9469600000002</v>
+        <v>-7669.1387459999996</v>
       </c>
       <c r="H87" s="7">
-        <v>6501868.0629139999</v>
+        <v>6499893.7989090001</v>
       </c>
       <c r="I87" s="7">
         <v>33</v>
@@ -5275,25 +5288,25 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>339</v>
+        <v>139</v>
       </c>
       <c r="B88" t="s">
-        <v>314</v>
+        <v>190</v>
       </c>
       <c r="C88" t="s">
-        <v>451</v>
+        <v>469</v>
       </c>
       <c r="D88">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E88" t="s">
-        <v>453</v>
+        <v>473</v>
       </c>
       <c r="G88" s="7">
-        <v>-239.22803300000001</v>
+        <v>-5753.0666590000001</v>
       </c>
       <c r="H88" s="7">
-        <v>6493458.381271</v>
+        <v>6502598.2818910005</v>
       </c>
       <c r="I88" s="7">
         <v>33</v>
@@ -5304,34 +5317,31 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>339</v>
+        <v>139</v>
       </c>
       <c r="B89" t="s">
-        <v>314</v>
+        <v>190</v>
       </c>
       <c r="C89" t="s">
-        <v>450</v>
+        <v>470</v>
       </c>
       <c r="D89">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E89" t="s">
-        <v>319</v>
+        <v>472</v>
       </c>
       <c r="G89" s="7">
-        <v>9714</v>
+        <v>-7928.9469600000002</v>
       </c>
       <c r="H89" s="7">
-        <v>6499904</v>
+        <v>6501868.0629139999</v>
       </c>
       <c r="I89" s="7">
         <v>33</v>
       </c>
       <c r="J89" t="s">
-        <v>652</v>
-      </c>
-      <c r="K89" t="s">
-        <v>380</v>
+        <v>651</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
@@ -5342,28 +5352,25 @@
         <v>314</v>
       </c>
       <c r="C90" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E90" t="s">
-        <v>318</v>
+        <v>453</v>
       </c>
       <c r="G90" s="7">
-        <v>-354</v>
+        <v>-239.22803300000001</v>
       </c>
       <c r="H90" s="7">
-        <v>6493348</v>
+        <v>6493458.381271</v>
       </c>
       <c r="I90" s="7">
         <v>33</v>
       </c>
       <c r="J90" t="s">
-        <v>652</v>
-      </c>
-      <c r="K90" t="s">
-        <v>317</v>
+        <v>651</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
@@ -5374,16 +5381,19 @@
         <v>314</v>
       </c>
       <c r="C91" t="s">
-        <v>315</v>
+        <v>450</v>
+      </c>
+      <c r="D91">
+        <v>3</v>
       </c>
       <c r="E91" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="G91" s="7">
-        <v>-875</v>
+        <v>9714</v>
       </c>
       <c r="H91" s="7">
-        <v>6493342</v>
+        <v>6499904</v>
       </c>
       <c r="I91" s="7">
         <v>33</v>
@@ -5392,185 +5402,188 @@
         <v>652</v>
       </c>
       <c r="K91" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>139</v>
+        <v>339</v>
       </c>
       <c r="B92" t="s">
-        <v>140</v>
+        <v>314</v>
       </c>
       <c r="C92" t="s">
-        <v>141</v>
+        <v>452</v>
       </c>
       <c r="D92">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E92" t="s">
-        <v>477</v>
+        <v>318</v>
       </c>
       <c r="G92" s="7">
-        <v>-16555.674385999999</v>
+        <v>-354</v>
       </c>
       <c r="H92" s="7">
-        <v>6530987.6042719996</v>
+        <v>6493348</v>
       </c>
       <c r="I92" s="7">
         <v>33</v>
       </c>
       <c r="J92" t="s">
-        <v>651</v>
+        <v>652</v>
+      </c>
+      <c r="K92" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
+        <v>339</v>
+      </c>
+      <c r="B93" t="s">
+        <v>314</v>
+      </c>
+      <c r="C93" t="s">
+        <v>315</v>
+      </c>
+      <c r="E93" t="s">
+        <v>316</v>
+      </c>
+      <c r="G93" s="7">
+        <v>-875</v>
+      </c>
+      <c r="H93" s="7">
+        <v>6493342</v>
+      </c>
+      <c r="I93" s="7">
+        <v>33</v>
+      </c>
+      <c r="J93" t="s">
+        <v>652</v>
+      </c>
+      <c r="K93" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
         <v>139</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B94" t="s">
         <v>140</v>
       </c>
-      <c r="C93" t="s">
-        <v>148</v>
-      </c>
-      <c r="D93">
-        <v>1</v>
-      </c>
-      <c r="E93" t="s">
-        <v>476</v>
-      </c>
-      <c r="G93" s="7">
-        <v>-24148.784555999999</v>
-      </c>
-      <c r="H93" s="7">
-        <v>6517334.2666699998</v>
-      </c>
-      <c r="I93" s="7">
-        <v>33</v>
-      </c>
-      <c r="J93" t="s">
+      <c r="C94" t="s">
+        <v>141</v>
+      </c>
+      <c r="D94">
+        <v>4</v>
+      </c>
+      <c r="E94" t="s">
+        <v>477</v>
+      </c>
+      <c r="G94" s="7">
+        <v>-16555.674385999999</v>
+      </c>
+      <c r="H94" s="7">
+        <v>6530987.6042719996</v>
+      </c>
+      <c r="I94" s="7">
+        <v>33</v>
+      </c>
+      <c r="J94" t="s">
         <v>651</v>
       </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="B94" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="C94" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="D94" s="9">
-        <v>12</v>
-      </c>
-      <c r="E94" s="9" t="s">
-        <v>689</v>
-      </c>
-      <c r="F94" s="9" t="s">
-        <v>687</v>
-      </c>
-      <c r="G94" s="9">
-        <v>-16217</v>
-      </c>
-      <c r="H94" s="9">
-        <v>6528793</v>
-      </c>
-      <c r="I94" s="9">
-        <v>33</v>
-      </c>
-      <c r="J94" s="9" t="s">
-        <v>651</v>
-      </c>
-      <c r="K94" s="9"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>139</v>
       </c>
       <c r="B95" t="s">
-        <v>191</v>
+        <v>140</v>
       </c>
       <c r="C95" t="s">
-        <v>192</v>
+        <v>148</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
       </c>
       <c r="E95" t="s">
-        <v>193</v>
+        <v>476</v>
       </c>
       <c r="G95" s="7">
-        <v>-7564</v>
+        <v>-24148.784555999999</v>
       </c>
       <c r="H95" s="7">
-        <v>6525028</v>
+        <v>6517334.2666699998</v>
       </c>
       <c r="I95" s="7">
         <v>33</v>
       </c>
       <c r="J95" t="s">
-        <v>655</v>
-      </c>
-      <c r="K95" t="s">
-        <v>363</v>
+        <v>651</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+      <c r="A96" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="B96" t="s">
-        <v>191</v>
-      </c>
-      <c r="C96" t="s">
-        <v>199</v>
-      </c>
-      <c r="E96" t="s">
-        <v>200</v>
-      </c>
-      <c r="G96" s="7">
-        <v>-21319</v>
-      </c>
-      <c r="H96" s="7">
-        <v>6516450</v>
-      </c>
-      <c r="I96" s="7">
-        <v>33</v>
-      </c>
-      <c r="J96" t="s">
-        <v>655</v>
-      </c>
-      <c r="K96" t="s">
-        <v>363</v>
-      </c>
+      <c r="B96" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="C96" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="D96" s="9">
+        <v>12</v>
+      </c>
+      <c r="E96" s="9" t="s">
+        <v>689</v>
+      </c>
+      <c r="F96" s="9" t="s">
+        <v>687</v>
+      </c>
+      <c r="G96" s="9">
+        <v>-16217</v>
+      </c>
+      <c r="H96" s="9">
+        <v>6528793</v>
+      </c>
+      <c r="I96" s="9">
+        <v>33</v>
+      </c>
+      <c r="J96" s="9" t="s">
+        <v>651</v>
+      </c>
+      <c r="K96" s="9"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>139</v>
       </c>
       <c r="B97" t="s">
-        <v>140</v>
+        <v>191</v>
       </c>
       <c r="C97" t="s">
-        <v>142</v>
-      </c>
-      <c r="D97">
-        <v>6</v>
+        <v>192</v>
       </c>
       <c r="E97" t="s">
-        <v>478</v>
+        <v>193</v>
       </c>
       <c r="G97" s="7">
-        <v>865.74685199999999</v>
+        <v>-7564</v>
       </c>
       <c r="H97" s="7">
-        <v>6535445.1253180001</v>
+        <v>6525028</v>
       </c>
       <c r="I97" s="7">
         <v>33</v>
       </c>
       <c r="J97" t="s">
-        <v>652</v>
+        <v>655</v>
+      </c>
+      <c r="K97" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
@@ -5578,28 +5591,28 @@
         <v>139</v>
       </c>
       <c r="B98" t="s">
-        <v>140</v>
+        <v>191</v>
       </c>
       <c r="C98" t="s">
-        <v>143</v>
-      </c>
-      <c r="D98">
-        <v>7</v>
+        <v>199</v>
       </c>
       <c r="E98" t="s">
-        <v>479</v>
+        <v>200</v>
       </c>
       <c r="G98" s="7">
-        <v>1688.192515</v>
+        <v>-21319</v>
       </c>
       <c r="H98" s="7">
-        <v>6535777.0715840003</v>
+        <v>6516450</v>
       </c>
       <c r="I98" s="7">
         <v>33</v>
       </c>
       <c r="J98" t="s">
-        <v>651</v>
+        <v>655</v>
+      </c>
+      <c r="K98" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
@@ -5610,28 +5623,25 @@
         <v>140</v>
       </c>
       <c r="C99" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D99">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E99" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="G99" s="7">
-        <v>-9693.6067800000001</v>
+        <v>865.74685199999999</v>
       </c>
       <c r="H99" s="7">
-        <v>6539347.2416449999</v>
+        <v>6535445.1253180001</v>
       </c>
       <c r="I99" s="7">
         <v>33</v>
       </c>
       <c r="J99" t="s">
-        <v>651</v>
-      </c>
-      <c r="K99" t="s">
-        <v>145</v>
+        <v>652</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
@@ -5642,28 +5652,25 @@
         <v>140</v>
       </c>
       <c r="C100" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D100">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E100" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="G100" s="7">
-        <v>-9237.6714699999993</v>
+        <v>1688.192515</v>
       </c>
       <c r="H100" s="7">
-        <v>6539882.166824</v>
+        <v>6535777.0715840003</v>
       </c>
       <c r="I100" s="7">
         <v>33</v>
       </c>
       <c r="J100" t="s">
         <v>651</v>
-      </c>
-      <c r="K100" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
@@ -5674,25 +5681,28 @@
         <v>140</v>
       </c>
       <c r="C101" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D101">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E101" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="G101" s="7">
-        <v>-7748.0731370000003</v>
+        <v>-9693.6067800000001</v>
       </c>
       <c r="H101" s="7">
-        <v>6537972.9624100002</v>
+        <v>6539347.2416449999</v>
       </c>
       <c r="I101" s="7">
         <v>33</v>
       </c>
       <c r="J101" t="s">
         <v>651</v>
+      </c>
+      <c r="K101" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
@@ -5703,25 +5713,28 @@
         <v>140</v>
       </c>
       <c r="C102" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D102">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E102" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="G102" s="7">
-        <v>-11817.160059</v>
+        <v>-9237.6714699999993</v>
       </c>
       <c r="H102" s="7">
-        <v>6536247.6809109999</v>
+        <v>6539882.166824</v>
       </c>
       <c r="I102" s="7">
         <v>33</v>
       </c>
       <c r="J102" t="s">
         <v>651</v>
+      </c>
+      <c r="K102" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
@@ -5729,34 +5742,28 @@
         <v>139</v>
       </c>
       <c r="B103" t="s">
-        <v>175</v>
+        <v>140</v>
       </c>
       <c r="C103" t="s">
-        <v>488</v>
+        <v>149</v>
       </c>
       <c r="D103">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="E103" t="s">
-        <v>176</v>
-      </c>
-      <c r="F103" t="s">
-        <v>177</v>
+        <v>480</v>
       </c>
       <c r="G103" s="7">
-        <v>-33643.329124999997</v>
+        <v>-7748.0731370000003</v>
       </c>
       <c r="H103" s="7">
-        <v>6522874.0381100001</v>
+        <v>6537972.9624100002</v>
       </c>
       <c r="I103" s="7">
         <v>33</v>
       </c>
       <c r="J103" t="s">
         <v>651</v>
-      </c>
-      <c r="K103" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
@@ -5764,22 +5771,22 @@
         <v>139</v>
       </c>
       <c r="B104" t="s">
-        <v>175</v>
+        <v>140</v>
       </c>
       <c r="C104" t="s">
-        <v>178</v>
+        <v>150</v>
       </c>
       <c r="D104">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="E104" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="G104" s="7">
-        <v>-23746.894015999998</v>
+        <v>-11817.160059</v>
       </c>
       <c r="H104" s="7">
-        <v>6528308.01284</v>
+        <v>6536247.6809109999</v>
       </c>
       <c r="I104" s="7">
         <v>33</v>
@@ -5796,25 +5803,31 @@
         <v>175</v>
       </c>
       <c r="C105" t="s">
-        <v>179</v>
+        <v>488</v>
       </c>
       <c r="D105">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E105" t="s">
-        <v>491</v>
+        <v>176</v>
+      </c>
+      <c r="F105" t="s">
+        <v>177</v>
       </c>
       <c r="G105" s="7">
-        <v>-23756.366348</v>
+        <v>-33643.329124999997</v>
       </c>
       <c r="H105" s="7">
-        <v>6528426.6868780004</v>
+        <v>6522874.0381100001</v>
       </c>
       <c r="I105" s="7">
         <v>33</v>
       </c>
       <c r="J105" t="s">
-        <v>652</v>
+        <v>651</v>
+      </c>
+      <c r="K105" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
@@ -5825,28 +5838,25 @@
         <v>175</v>
       </c>
       <c r="C106" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D106">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E106" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="G106" s="7">
-        <v>-32698.885877000001</v>
+        <v>-23746.894015999998</v>
       </c>
       <c r="H106" s="7">
-        <v>6523499.1876170002</v>
+        <v>6528308.01284</v>
       </c>
       <c r="I106" s="7">
         <v>33</v>
       </c>
       <c r="J106" t="s">
-        <v>652</v>
-      </c>
-      <c r="K106" t="s">
-        <v>494</v>
+        <v>651</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
@@ -5857,28 +5867,25 @@
         <v>175</v>
       </c>
       <c r="C107" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D107">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E107" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="G107" s="7">
-        <v>-21333.146041</v>
+        <v>-23756.366348</v>
       </c>
       <c r="H107" s="7">
-        <v>6530838.5192050003</v>
+        <v>6528426.6868780004</v>
       </c>
       <c r="I107" s="7">
         <v>33</v>
       </c>
       <c r="J107" t="s">
         <v>652</v>
-      </c>
-      <c r="K107" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
@@ -5889,28 +5896,28 @@
         <v>175</v>
       </c>
       <c r="C108" t="s">
-        <v>486</v>
+        <v>180</v>
       </c>
       <c r="D108">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="E108" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="G108" s="7">
-        <v>-32671.270689000001</v>
+        <v>-32698.885877000001</v>
       </c>
       <c r="H108" s="7">
-        <v>6523451.9314559996</v>
+        <v>6523499.1876170002</v>
       </c>
       <c r="I108" s="7">
         <v>33</v>
       </c>
       <c r="J108" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="K108" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
@@ -5918,28 +5925,31 @@
         <v>139</v>
       </c>
       <c r="B109" t="s">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="C109" t="s">
-        <v>151</v>
+        <v>181</v>
       </c>
       <c r="D109">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="E109" t="s">
-        <v>685</v>
+        <v>490</v>
       </c>
       <c r="G109" s="7">
-        <v>-15325.023718</v>
+        <v>-21333.146041</v>
       </c>
       <c r="H109" s="7">
-        <v>6529169.700797</v>
+        <v>6530838.5192050003</v>
       </c>
       <c r="I109" s="7">
         <v>33</v>
       </c>
       <c r="J109" t="s">
-        <v>651</v>
+        <v>652</v>
+      </c>
+      <c r="K109" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
@@ -5947,28 +5957,31 @@
         <v>139</v>
       </c>
       <c r="B110" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="C110" t="s">
-        <v>201</v>
+        <v>486</v>
+      </c>
+      <c r="D110">
+        <v>4</v>
       </c>
       <c r="E110" t="s">
-        <v>202</v>
+        <v>489</v>
       </c>
       <c r="G110" s="7">
-        <v>-22160</v>
+        <v>-32671.270689000001</v>
       </c>
       <c r="H110" s="7">
-        <v>6516985</v>
+        <v>6523451.9314559996</v>
       </c>
       <c r="I110" s="7">
         <v>33</v>
       </c>
       <c r="J110" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="K110" t="s">
-        <v>363</v>
+        <v>485</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
@@ -5976,31 +5989,28 @@
         <v>139</v>
       </c>
       <c r="B111" t="s">
-        <v>191</v>
+        <v>140</v>
       </c>
       <c r="C111" t="s">
-        <v>196</v>
+        <v>151</v>
+      </c>
+      <c r="D111">
+        <v>12</v>
       </c>
       <c r="E111" t="s">
-        <v>197</v>
-      </c>
-      <c r="F111" t="s">
-        <v>198</v>
+        <v>685</v>
       </c>
       <c r="G111" s="7">
-        <v>-18908</v>
+        <v>-15325.023718</v>
       </c>
       <c r="H111" s="7">
-        <v>6520591</v>
+        <v>6529169.700797</v>
       </c>
       <c r="I111" s="7">
         <v>33</v>
       </c>
       <c r="J111" t="s">
-        <v>655</v>
-      </c>
-      <c r="K111" t="s">
-        <v>364</v>
+        <v>651</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
@@ -6011,16 +6021,16 @@
         <v>191</v>
       </c>
       <c r="C112" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="E112" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="G112" s="7">
-        <v>-11676</v>
+        <v>-22160</v>
       </c>
       <c r="H112" s="7">
-        <v>6523510</v>
+        <v>6516985</v>
       </c>
       <c r="I112" s="7">
         <v>33</v>
@@ -6040,19 +6050,19 @@
         <v>191</v>
       </c>
       <c r="C113" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="E113" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="F113" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="G113" s="7">
-        <v>-23476</v>
+        <v>-18908</v>
       </c>
       <c r="H113" s="7">
-        <v>6515140</v>
+        <v>6520591</v>
       </c>
       <c r="I113" s="7">
         <v>33</v>
@@ -6061,7 +6071,7 @@
         <v>655</v>
       </c>
       <c r="K113" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
@@ -6069,28 +6079,28 @@
         <v>139</v>
       </c>
       <c r="B114" t="s">
-        <v>152</v>
+        <v>191</v>
       </c>
       <c r="C114" t="s">
-        <v>153</v>
-      </c>
-      <c r="D114">
-        <v>5</v>
+        <v>194</v>
       </c>
       <c r="E114" t="s">
-        <v>686</v>
+        <v>195</v>
       </c>
       <c r="G114" s="7">
-        <v>-9405.6402849999995</v>
+        <v>-11676</v>
       </c>
       <c r="H114" s="7">
-        <v>6558675.3923829999</v>
+        <v>6523510</v>
       </c>
       <c r="I114" s="7">
         <v>33</v>
       </c>
       <c r="J114" t="s">
-        <v>651</v>
+        <v>655</v>
+      </c>
+      <c r="K114" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
@@ -6098,28 +6108,31 @@
         <v>139</v>
       </c>
       <c r="B115" t="s">
-        <v>152</v>
+        <v>191</v>
       </c>
       <c r="C115" t="s">
-        <v>155</v>
-      </c>
-      <c r="D115">
-        <v>6</v>
+        <v>203</v>
       </c>
       <c r="E115" t="s">
-        <v>508</v>
+        <v>204</v>
+      </c>
+      <c r="F115" t="s">
+        <v>205</v>
       </c>
       <c r="G115" s="7">
-        <v>847.46973000000003</v>
+        <v>-23476</v>
       </c>
       <c r="H115" s="7">
-        <v>6563771.5463220002</v>
+        <v>6515140</v>
       </c>
       <c r="I115" s="7">
         <v>33</v>
       </c>
       <c r="J115" t="s">
-        <v>658</v>
+        <v>655</v>
+      </c>
+      <c r="K115" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
@@ -6127,34 +6140,28 @@
         <v>139</v>
       </c>
       <c r="B116" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C116" t="s">
-        <v>496</v>
+        <v>153</v>
       </c>
       <c r="D116">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E116" t="s">
-        <v>500</v>
-      </c>
-      <c r="F116" t="s">
-        <v>503</v>
+        <v>686</v>
       </c>
       <c r="G116" s="7">
-        <v>2589.447658</v>
+        <v>-9405.6402849999995</v>
       </c>
       <c r="H116" s="7">
-        <v>6555105.1158600003</v>
+        <v>6558675.3923829999</v>
       </c>
       <c r="I116" s="7">
         <v>33</v>
       </c>
       <c r="J116" t="s">
         <v>651</v>
-      </c>
-      <c r="K116" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
@@ -6162,34 +6169,28 @@
         <v>139</v>
       </c>
       <c r="B117" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C117" t="s">
-        <v>495</v>
+        <v>155</v>
       </c>
       <c r="D117">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E117" t="s">
-        <v>499</v>
-      </c>
-      <c r="F117" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="G117" s="7">
-        <v>2426.211605</v>
+        <v>847.46973000000003</v>
       </c>
       <c r="H117" s="7">
-        <v>6555226.5483889999</v>
+        <v>6563771.5463220002</v>
       </c>
       <c r="I117" s="7">
         <v>33</v>
       </c>
       <c r="J117" t="s">
-        <v>651</v>
-      </c>
-      <c r="K117" t="s">
-        <v>160</v>
+        <v>658</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
@@ -6200,31 +6201,31 @@
         <v>159</v>
       </c>
       <c r="C118" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D118">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E118" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F118" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G118" s="7">
-        <v>3231.5613589999998</v>
+        <v>2589.447658</v>
       </c>
       <c r="H118" s="7">
-        <v>6554767.3590890002</v>
+        <v>6555105.1158600003</v>
       </c>
       <c r="I118" s="7">
         <v>33</v>
       </c>
       <c r="J118" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="K118" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
@@ -6232,22 +6233,25 @@
         <v>139</v>
       </c>
       <c r="B119" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="C119" t="s">
-        <v>156</v>
+        <v>495</v>
       </c>
       <c r="D119">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E119" t="s">
-        <v>506</v>
+        <v>499</v>
+      </c>
+      <c r="F119" t="s">
+        <v>502</v>
       </c>
       <c r="G119" s="7">
-        <v>-445.99656299999998</v>
+        <v>2426.211605</v>
       </c>
       <c r="H119" s="7">
-        <v>6563717.3282030001</v>
+        <v>6555226.5483889999</v>
       </c>
       <c r="I119" s="7">
         <v>33</v>
@@ -6256,41 +6260,43 @@
         <v>651</v>
       </c>
       <c r="K119" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A120" s="9" t="s">
+      <c r="A120" t="s">
         <v>139</v>
       </c>
-      <c r="B120" s="9" t="s">
-        <v>691</v>
-      </c>
-      <c r="C120" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="D120" s="9">
+      <c r="B120" t="s">
+        <v>159</v>
+      </c>
+      <c r="C120" t="s">
+        <v>497</v>
+      </c>
+      <c r="D120">
         <v>5</v>
       </c>
-      <c r="E120" s="9" t="s">
-        <v>690</v>
-      </c>
-      <c r="F120" s="9" t="s">
-        <v>688</v>
-      </c>
-      <c r="G120" s="9">
-        <v>-9344.5495999995619</v>
-      </c>
-      <c r="H120" s="9">
-        <v>6558706.8888000008</v>
-      </c>
-      <c r="I120" s="9">
-        <v>33</v>
-      </c>
-      <c r="J120" s="9" t="s">
-        <v>651</v>
-      </c>
-      <c r="K120" s="9"/>
+      <c r="E120" t="s">
+        <v>501</v>
+      </c>
+      <c r="F120" t="s">
+        <v>504</v>
+      </c>
+      <c r="G120" s="7">
+        <v>3231.5613589999998</v>
+      </c>
+      <c r="H120" s="7">
+        <v>6554767.3590890002</v>
+      </c>
+      <c r="I120" s="7">
+        <v>33</v>
+      </c>
+      <c r="J120" t="s">
+        <v>656</v>
+      </c>
+      <c r="K120" t="s">
+        <v>357</v>
+      </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
@@ -6300,19 +6306,19 @@
         <v>152</v>
       </c>
       <c r="C121" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D121">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E121" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G121" s="7">
-        <v>-4131.4289749999998</v>
+        <v>-445.99656299999998</v>
       </c>
       <c r="H121" s="7">
-        <v>6562161.832409</v>
+        <v>6563717.3282030001</v>
       </c>
       <c r="I121" s="7">
         <v>33</v>
@@ -6320,69 +6326,70 @@
       <c r="J121" t="s">
         <v>651</v>
       </c>
+      <c r="K121" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
+      <c r="A122" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="B122" t="s">
-        <v>152</v>
-      </c>
-      <c r="C122" t="s">
-        <v>158</v>
-      </c>
-      <c r="D122" t="s">
-        <v>611</v>
-      </c>
-      <c r="E122" t="s">
-        <v>505</v>
-      </c>
-      <c r="G122" s="7">
-        <v>-435.61006500000002</v>
-      </c>
-      <c r="H122" s="7">
-        <v>6565205.5141120004</v>
-      </c>
-      <c r="I122" s="7">
-        <v>33</v>
-      </c>
-      <c r="J122" t="s">
-        <v>652</v>
-      </c>
+      <c r="B122" s="9" t="s">
+        <v>691</v>
+      </c>
+      <c r="C122" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="D122" s="9">
+        <v>5</v>
+      </c>
+      <c r="E122" s="9" t="s">
+        <v>690</v>
+      </c>
+      <c r="F122" s="9" t="s">
+        <v>688</v>
+      </c>
+      <c r="G122" s="9">
+        <v>-9344.5495999995619</v>
+      </c>
+      <c r="H122" s="9">
+        <v>6558706.8888000008</v>
+      </c>
+      <c r="I122" s="9">
+        <v>33</v>
+      </c>
+      <c r="J122" s="9" t="s">
+        <v>651</v>
+      </c>
+      <c r="K122" s="9"/>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>139</v>
       </c>
       <c r="B123" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C123" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D123">
         <v>3</v>
       </c>
       <c r="E123" t="s">
-        <v>163</v>
-      </c>
-      <c r="F123" t="s">
-        <v>164</v>
+        <v>507</v>
       </c>
       <c r="G123" s="7">
-        <v>3236.102222</v>
+        <v>-4131.4289749999998</v>
       </c>
       <c r="H123" s="7">
-        <v>6556270.1158659998</v>
+        <v>6562161.832409</v>
       </c>
       <c r="I123" s="7">
         <v>33</v>
       </c>
       <c r="J123" t="s">
-        <v>652</v>
-      </c>
-      <c r="K123" t="s">
-        <v>162</v>
+        <v>651</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
@@ -6390,31 +6397,28 @@
         <v>139</v>
       </c>
       <c r="B124" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C124" t="s">
-        <v>165</v>
-      </c>
-      <c r="D124">
-        <v>1</v>
+        <v>158</v>
+      </c>
+      <c r="D124" t="s">
+        <v>611</v>
       </c>
       <c r="E124" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="G124" s="7">
-        <v>-967.01564800000006</v>
+        <v>-435.61006500000002</v>
       </c>
       <c r="H124" s="7">
-        <v>6555450.2428620001</v>
+        <v>6565205.5141120004</v>
       </c>
       <c r="I124" s="7">
         <v>33</v>
       </c>
       <c r="J124" t="s">
-        <v>651</v>
-      </c>
-      <c r="K124" t="s">
-        <v>166</v>
+        <v>652</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
@@ -6422,31 +6426,34 @@
         <v>139</v>
       </c>
       <c r="B125" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="C125" t="s">
-        <v>511</v>
+        <v>161</v>
       </c>
       <c r="D125">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E125" t="s">
-        <v>514</v>
+        <v>163</v>
+      </c>
+      <c r="F125" t="s">
+        <v>164</v>
       </c>
       <c r="G125" s="7">
-        <v>22042.742042999998</v>
+        <v>3236.102222</v>
       </c>
       <c r="H125" s="7">
-        <v>6576012.0778170004</v>
+        <v>6556270.1158659998</v>
       </c>
       <c r="I125" s="7">
         <v>33</v>
       </c>
       <c r="J125" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="K125" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
@@ -6454,28 +6461,31 @@
         <v>139</v>
       </c>
       <c r="B126" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="C126" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="D126">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E126" t="s">
-        <v>515</v>
+        <v>498</v>
       </c>
       <c r="G126" s="7">
-        <v>23098.613496999998</v>
+        <v>-967.01564800000006</v>
       </c>
       <c r="H126" s="7">
-        <v>6576199.5732070003</v>
+        <v>6555450.2428620001</v>
       </c>
       <c r="I126" s="7">
         <v>33</v>
       </c>
       <c r="J126" t="s">
         <v>651</v>
+      </c>
+      <c r="K126" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
@@ -6486,25 +6496,28 @@
         <v>172</v>
       </c>
       <c r="C127" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="D127">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E127" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="G127" s="7">
-        <v>24767.383523</v>
+        <v>22042.742042999998</v>
       </c>
       <c r="H127" s="7">
-        <v>6576711.1563750003</v>
+        <v>6576012.0778170004</v>
       </c>
       <c r="I127" s="7">
         <v>33</v>
       </c>
       <c r="J127" t="s">
-        <v>652</v>
+        <v>651</v>
+      </c>
+      <c r="K127" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
@@ -6515,25 +6528,25 @@
         <v>172</v>
       </c>
       <c r="C128" t="s">
-        <v>510</v>
+        <v>173</v>
       </c>
       <c r="D128">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E128" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="G128" s="7">
-        <v>22269.240881000002</v>
+        <v>23098.613496999998</v>
       </c>
       <c r="H128" s="7">
-        <v>6576249.2504789997</v>
+        <v>6576199.5732070003</v>
       </c>
       <c r="I128" s="7">
         <v>33</v>
       </c>
       <c r="J128" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
@@ -6541,28 +6554,28 @@
         <v>139</v>
       </c>
       <c r="B129" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="C129" t="s">
-        <v>171</v>
+        <v>509</v>
       </c>
       <c r="D129">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E129" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="G129" s="7">
-        <v>-13128.407453</v>
+        <v>24767.383523</v>
       </c>
       <c r="H129" s="7">
-        <v>6576470.4502410004</v>
+        <v>6576711.1563750003</v>
       </c>
       <c r="I129" s="7">
         <v>33</v>
       </c>
       <c r="J129" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
@@ -6570,34 +6583,28 @@
         <v>139</v>
       </c>
       <c r="B130" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="C130" t="s">
-        <v>168</v>
-      </c>
-      <c r="D130" t="s">
-        <v>612</v>
+        <v>510</v>
+      </c>
+      <c r="D130">
+        <v>3</v>
       </c>
       <c r="E130" t="s">
-        <v>169</v>
-      </c>
-      <c r="F130" t="s">
-        <v>170</v>
+        <v>513</v>
       </c>
       <c r="G130" s="7">
-        <v>-9513</v>
+        <v>22269.240881000002</v>
       </c>
       <c r="H130" s="7">
-        <v>6578557</v>
+        <v>6576249.2504789997</v>
       </c>
       <c r="I130" s="7">
         <v>33</v>
       </c>
       <c r="J130" t="s">
         <v>652</v>
-      </c>
-      <c r="K130" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
@@ -6605,31 +6612,28 @@
         <v>139</v>
       </c>
       <c r="B131" t="s">
-        <v>206</v>
+        <v>167</v>
       </c>
       <c r="C131" t="s">
-        <v>518</v>
-      </c>
-      <c r="D131" t="s">
-        <v>618</v>
+        <v>171</v>
+      </c>
+      <c r="D131">
+        <v>4</v>
       </c>
       <c r="E131" t="s">
-        <v>226</v>
+        <v>516</v>
       </c>
       <c r="G131" s="7">
-        <v>13298</v>
+        <v>-13128.407453</v>
       </c>
       <c r="H131" s="7">
-        <v>6626982</v>
+        <v>6576470.4502410004</v>
       </c>
       <c r="I131" s="7">
         <v>33</v>
       </c>
       <c r="J131" t="s">
-        <v>652</v>
-      </c>
-      <c r="K131" t="s">
-        <v>368</v>
+        <v>653</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
@@ -6637,28 +6641,34 @@
         <v>139</v>
       </c>
       <c r="B132" t="s">
-        <v>206</v>
+        <v>167</v>
       </c>
       <c r="C132" t="s">
-        <v>209</v>
-      </c>
-      <c r="D132">
-        <v>15</v>
+        <v>168</v>
+      </c>
+      <c r="D132" t="s">
+        <v>612</v>
       </c>
       <c r="E132" t="s">
-        <v>210</v>
+        <v>169</v>
+      </c>
+      <c r="F132" t="s">
+        <v>170</v>
       </c>
       <c r="G132" s="7">
-        <v>5702.470679</v>
+        <v>-9513</v>
       </c>
       <c r="H132" s="7">
-        <v>6626303.5696069999</v>
+        <v>6578557</v>
       </c>
       <c r="I132" s="7">
         <v>33</v>
       </c>
       <c r="J132" t="s">
-        <v>651</v>
+        <v>652</v>
+      </c>
+      <c r="K132" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
@@ -6669,19 +6679,19 @@
         <v>206</v>
       </c>
       <c r="C133" t="s">
-        <v>220</v>
-      </c>
-      <c r="D133">
-        <v>21</v>
+        <v>518</v>
+      </c>
+      <c r="D133" t="s">
+        <v>618</v>
       </c>
       <c r="E133" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="G133" s="7">
-        <v>20417.577007</v>
+        <v>13298</v>
       </c>
       <c r="H133" s="7">
-        <v>6625020.1278299997</v>
+        <v>6626982</v>
       </c>
       <c r="I133" s="7">
         <v>33</v>
@@ -6690,7 +6700,7 @@
         <v>652</v>
       </c>
       <c r="K133" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
@@ -6701,25 +6711,25 @@
         <v>206</v>
       </c>
       <c r="C134" t="s">
-        <v>224</v>
-      </c>
-      <c r="D134" t="s">
-        <v>613</v>
+        <v>209</v>
+      </c>
+      <c r="D134">
+        <v>15</v>
       </c>
       <c r="E134" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="G134" s="7">
-        <v>17333.483864000002</v>
+        <v>5702.470679</v>
       </c>
       <c r="H134" s="7">
-        <v>6624103.879927</v>
+        <v>6626303.5696069999</v>
       </c>
       <c r="I134" s="7">
         <v>33</v>
       </c>
       <c r="J134" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
@@ -6730,25 +6740,28 @@
         <v>206</v>
       </c>
       <c r="C135" t="s">
-        <v>222</v>
-      </c>
-      <c r="D135" t="s">
-        <v>614</v>
+        <v>220</v>
+      </c>
+      <c r="D135">
+        <v>21</v>
       </c>
       <c r="E135" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G135" s="7">
-        <v>17149.084729999999</v>
+        <v>20417.577007</v>
       </c>
       <c r="H135" s="7">
-        <v>6624301.8135940004</v>
+        <v>6625020.1278299997</v>
       </c>
       <c r="I135" s="7">
         <v>33</v>
       </c>
       <c r="J135" t="s">
-        <v>651</v>
+        <v>652</v>
+      </c>
+      <c r="K135" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
@@ -6759,19 +6772,19 @@
         <v>206</v>
       </c>
       <c r="C136" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="D136" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="E136" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="G136" s="7">
-        <v>14501.926658</v>
+        <v>17333.483864000002</v>
       </c>
       <c r="H136" s="7">
-        <v>6621643.4918020004</v>
+        <v>6624103.879927</v>
       </c>
       <c r="I136" s="7">
         <v>33</v>
@@ -6788,19 +6801,19 @@
         <v>206</v>
       </c>
       <c r="C137" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="D137" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E137" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="G137" s="7">
-        <v>14703.103931</v>
+        <v>17149.084729999999</v>
       </c>
       <c r="H137" s="7">
-        <v>6622778.0036890004</v>
+        <v>6624301.8135940004</v>
       </c>
       <c r="I137" s="7">
         <v>33</v>
@@ -6817,19 +6830,19 @@
         <v>206</v>
       </c>
       <c r="C138" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="D138" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="E138" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="G138" s="7">
-        <v>10979.370109</v>
+        <v>14501.926658</v>
       </c>
       <c r="H138" s="7">
-        <v>6622716.2208179999</v>
+        <v>6621643.4918020004</v>
       </c>
       <c r="I138" s="7">
         <v>33</v>
@@ -6846,28 +6859,25 @@
         <v>206</v>
       </c>
       <c r="C139" t="s">
-        <v>522</v>
-      </c>
-      <c r="D139">
-        <v>12</v>
+        <v>216</v>
+      </c>
+      <c r="D139" t="s">
+        <v>616</v>
       </c>
       <c r="E139" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="G139" s="7">
-        <v>20352.476427000001</v>
+        <v>14703.103931</v>
       </c>
       <c r="H139" s="7">
-        <v>6625112.6082100002</v>
+        <v>6622778.0036890004</v>
       </c>
       <c r="I139" s="7">
         <v>33</v>
       </c>
       <c r="J139" t="s">
         <v>651</v>
-      </c>
-      <c r="K139" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
@@ -6878,25 +6888,25 @@
         <v>206</v>
       </c>
       <c r="C140" t="s">
-        <v>519</v>
-      </c>
-      <c r="D140">
-        <v>14</v>
+        <v>207</v>
+      </c>
+      <c r="D140" t="s">
+        <v>617</v>
       </c>
       <c r="E140" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G140" s="7">
-        <v>9643.9102719999992</v>
+        <v>10979.370109</v>
       </c>
       <c r="H140" s="7">
-        <v>6623171.3281460004</v>
+        <v>6622716.2208179999</v>
       </c>
       <c r="I140" s="7">
         <v>33</v>
       </c>
       <c r="J140" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
@@ -6907,25 +6917,28 @@
         <v>206</v>
       </c>
       <c r="C141" t="s">
-        <v>213</v>
+        <v>522</v>
       </c>
       <c r="D141">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E141" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G141" s="7">
-        <v>14754.687196999999</v>
+        <v>20352.476427000001</v>
       </c>
       <c r="H141" s="7">
-        <v>6622961.3699650001</v>
+        <v>6625112.6082100002</v>
       </c>
       <c r="I141" s="7">
         <v>33</v>
       </c>
       <c r="J141" t="s">
         <v>651</v>
+      </c>
+      <c r="K141" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
@@ -6936,25 +6949,25 @@
         <v>206</v>
       </c>
       <c r="C142" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="D142">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E142" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G142" s="7">
-        <v>20470.059179</v>
+        <v>9643.9102719999992</v>
       </c>
       <c r="H142" s="7">
-        <v>6625376.7705539996</v>
+        <v>6623171.3281460004</v>
       </c>
       <c r="I142" s="7">
         <v>33</v>
       </c>
       <c r="J142" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
@@ -6965,28 +6978,25 @@
         <v>206</v>
       </c>
       <c r="C143" t="s">
-        <v>520</v>
-      </c>
-      <c r="D143" t="s">
-        <v>620</v>
+        <v>213</v>
+      </c>
+      <c r="D143">
+        <v>13</v>
       </c>
       <c r="E143" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="G143" s="7">
-        <v>14137</v>
+        <v>14754.687196999999</v>
       </c>
       <c r="H143" s="7">
-        <v>6623252</v>
+        <v>6622961.3699650001</v>
       </c>
       <c r="I143" s="7">
         <v>33</v>
       </c>
       <c r="J143" t="s">
-        <v>652</v>
-      </c>
-      <c r="K143" t="s">
-        <v>247</v>
+        <v>651</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
@@ -6997,28 +7007,25 @@
         <v>206</v>
       </c>
       <c r="C144" t="s">
-        <v>521</v>
-      </c>
-      <c r="D144" t="s">
-        <v>619</v>
+        <v>517</v>
+      </c>
+      <c r="D144">
+        <v>11</v>
       </c>
       <c r="E144" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="G144" s="7">
-        <v>16298</v>
+        <v>20470.059179</v>
       </c>
       <c r="H144" s="7">
-        <v>6625500</v>
+        <v>6625376.7705539996</v>
       </c>
       <c r="I144" s="7">
         <v>33</v>
       </c>
       <c r="J144" t="s">
-        <v>651</v>
-      </c>
-      <c r="K144" t="s">
-        <v>369</v>
+        <v>652</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
@@ -7026,34 +7033,31 @@
         <v>139</v>
       </c>
       <c r="B145" t="s">
-        <v>229</v>
+        <v>206</v>
       </c>
       <c r="C145" t="s">
-        <v>233</v>
+        <v>520</v>
       </c>
       <c r="D145" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="E145" t="s">
-        <v>234</v>
-      </c>
-      <c r="F145" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="G145" s="7">
-        <v>329633</v>
+        <v>14137</v>
       </c>
       <c r="H145" s="7">
-        <v>6603904</v>
+        <v>6623252</v>
       </c>
       <c r="I145" s="7">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J145" t="s">
         <v>652</v>
       </c>
       <c r="K145" t="s">
-        <v>570</v>
+        <v>247</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
@@ -7061,31 +7065,31 @@
         <v>139</v>
       </c>
       <c r="B146" t="s">
-        <v>229</v>
+        <v>206</v>
       </c>
       <c r="C146" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D146" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="E146" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="G146" s="7">
-        <v>-8740</v>
+        <v>16298</v>
       </c>
       <c r="H146" s="7">
-        <v>6638372</v>
+        <v>6625500</v>
       </c>
       <c r="I146" s="7">
         <v>33</v>
       </c>
       <c r="J146" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="K146" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
@@ -7096,25 +7100,31 @@
         <v>229</v>
       </c>
       <c r="C147" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D147" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="E147" t="s">
-        <v>525</v>
+        <v>234</v>
+      </c>
+      <c r="F147" t="s">
+        <v>235</v>
       </c>
       <c r="G147" s="7">
-        <v>-9248.3661780000002</v>
+        <v>329633</v>
       </c>
       <c r="H147" s="7">
-        <v>6634936.9922660002</v>
+        <v>6603904</v>
       </c>
       <c r="I147" s="7">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J147" t="s">
         <v>652</v>
+      </c>
+      <c r="K147" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
@@ -7122,34 +7132,31 @@
         <v>139</v>
       </c>
       <c r="B148" t="s">
-        <v>182</v>
+        <v>229</v>
       </c>
       <c r="C148" t="s">
-        <v>183</v>
+        <v>523</v>
       </c>
       <c r="D148" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="E148" t="s">
-        <v>184</v>
-      </c>
-      <c r="F148" t="s">
-        <v>572</v>
+        <v>237</v>
       </c>
       <c r="G148" s="7">
-        <v>-15236</v>
+        <v>-8740</v>
       </c>
       <c r="H148" s="7">
-        <v>6637488</v>
+        <v>6638372</v>
       </c>
       <c r="I148" s="7">
         <v>33</v>
       </c>
       <c r="J148" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="K148" t="s">
-        <v>662</v>
+        <v>370</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
@@ -7157,31 +7164,28 @@
         <v>139</v>
       </c>
       <c r="B149" t="s">
-        <v>182</v>
+        <v>229</v>
       </c>
       <c r="C149" t="s">
-        <v>359</v>
+        <v>231</v>
       </c>
       <c r="D149" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="E149" t="s">
-        <v>185</v>
+        <v>525</v>
       </c>
       <c r="G149" s="7">
-        <v>-14809</v>
+        <v>-9248.3661780000002</v>
       </c>
       <c r="H149" s="7">
-        <v>6638230</v>
+        <v>6634936.9922660002</v>
       </c>
       <c r="I149" s="7">
         <v>33</v>
       </c>
       <c r="J149" t="s">
         <v>652</v>
-      </c>
-      <c r="K149" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
@@ -7192,22 +7196,22 @@
         <v>182</v>
       </c>
       <c r="C150" t="s">
-        <v>360</v>
+        <v>183</v>
       </c>
       <c r="D150" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="E150" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F150" t="s">
-        <v>187</v>
+        <v>572</v>
       </c>
       <c r="G150" s="7">
-        <v>-15162.424723</v>
+        <v>-15236</v>
       </c>
       <c r="H150" s="7">
-        <v>6636379.4490090003</v>
+        <v>6637488</v>
       </c>
       <c r="I150" s="7">
         <v>33</v>
@@ -7216,7 +7220,7 @@
         <v>651</v>
       </c>
       <c r="K150" t="s">
-        <v>361</v>
+        <v>662</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
@@ -7224,28 +7228,31 @@
         <v>139</v>
       </c>
       <c r="B151" t="s">
-        <v>229</v>
+        <v>182</v>
       </c>
       <c r="C151" t="s">
-        <v>230</v>
+        <v>359</v>
       </c>
       <c r="D151" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="E151" t="s">
-        <v>526</v>
+        <v>185</v>
       </c>
       <c r="G151" s="7">
-        <v>-9339.310442</v>
+        <v>-14809</v>
       </c>
       <c r="H151" s="7">
-        <v>6634824.599742</v>
+        <v>6638230</v>
       </c>
       <c r="I151" s="7">
         <v>33</v>
       </c>
       <c r="J151" t="s">
-        <v>651</v>
+        <v>652</v>
+      </c>
+      <c r="K151" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
@@ -7253,28 +7260,34 @@
         <v>139</v>
       </c>
       <c r="B152" t="s">
-        <v>229</v>
+        <v>182</v>
       </c>
       <c r="C152" t="s">
-        <v>232</v>
+        <v>360</v>
       </c>
       <c r="D152" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="E152" t="s">
-        <v>571</v>
+        <v>186</v>
+      </c>
+      <c r="F152" t="s">
+        <v>187</v>
       </c>
       <c r="G152" s="7">
-        <v>-10380.171338</v>
+        <v>-15162.424723</v>
       </c>
       <c r="H152" s="7">
-        <v>6632809.5311470004</v>
+        <v>6636379.4490090003</v>
       </c>
       <c r="I152" s="7">
         <v>33</v>
       </c>
       <c r="J152" t="s">
         <v>651</v>
+      </c>
+      <c r="K152" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
@@ -7285,19 +7298,19 @@
         <v>229</v>
       </c>
       <c r="C153" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="D153" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="E153" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="G153" s="7">
-        <v>-13388.353966000001</v>
+        <v>-9339.310442</v>
       </c>
       <c r="H153" s="7">
-        <v>6630848.3374709999</v>
+        <v>6634824.599742</v>
       </c>
       <c r="I153" s="7">
         <v>33</v>
@@ -7311,83 +7324,89 @@
         <v>139</v>
       </c>
       <c r="B154" t="s">
-        <v>182</v>
+        <v>229</v>
       </c>
       <c r="C154" t="s">
-        <v>188</v>
+        <v>232</v>
       </c>
       <c r="D154" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="E154" t="s">
-        <v>189</v>
+        <v>571</v>
       </c>
       <c r="G154" s="7">
-        <v>-13389</v>
+        <v>-10380.171338</v>
       </c>
       <c r="H154" s="7">
-        <v>6640921</v>
+        <v>6632809.5311470004</v>
       </c>
       <c r="I154" s="7">
         <v>33</v>
       </c>
       <c r="J154" t="s">
-        <v>652</v>
-      </c>
-      <c r="K154" t="s">
-        <v>362</v>
+        <v>651</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>340</v>
+        <v>139</v>
       </c>
       <c r="B155" t="s">
-        <v>387</v>
+        <v>229</v>
       </c>
       <c r="C155" t="s">
-        <v>88</v>
+        <v>236</v>
+      </c>
+      <c r="D155" t="s">
+        <v>621</v>
       </c>
       <c r="E155" t="s">
-        <v>574</v>
+        <v>524</v>
       </c>
       <c r="G155" s="7">
-        <v>205.46729999999999</v>
+        <v>-13388.353966000001</v>
       </c>
       <c r="H155" s="7">
-        <v>6680983.8295999998</v>
+        <v>6630848.3374709999</v>
       </c>
       <c r="I155" s="7">
         <v>33</v>
       </c>
       <c r="J155" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>340</v>
+        <v>139</v>
       </c>
       <c r="B156" t="s">
-        <v>387</v>
+        <v>182</v>
       </c>
       <c r="C156" t="s">
-        <v>89</v>
+        <v>188</v>
+      </c>
+      <c r="D156" t="s">
+        <v>629</v>
       </c>
       <c r="E156" t="s">
-        <v>573</v>
+        <v>189</v>
       </c>
       <c r="G156" s="7">
-        <v>-1511.7375999999999</v>
+        <v>-13389</v>
       </c>
       <c r="H156" s="7">
-        <v>6681684.3876999998</v>
+        <v>6640921</v>
       </c>
       <c r="I156" s="7">
         <v>33</v>
       </c>
       <c r="J156" t="s">
-        <v>655</v>
+        <v>652</v>
+      </c>
+      <c r="K156" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
@@ -7395,34 +7414,25 @@
         <v>340</v>
       </c>
       <c r="B157" t="s">
-        <v>93</v>
+        <v>387</v>
       </c>
       <c r="C157" t="s">
-        <v>529</v>
-      </c>
-      <c r="D157" t="s">
-        <v>634</v>
+        <v>88</v>
       </c>
       <c r="E157" t="s">
-        <v>535</v>
-      </c>
-      <c r="F157" t="s">
-        <v>601</v>
+        <v>574</v>
       </c>
       <c r="G157" s="7">
-        <v>-7682.8486999999996</v>
+        <v>205.46729999999999</v>
       </c>
       <c r="H157" s="7">
-        <v>6676948.9461000003</v>
+        <v>6680983.8295999998</v>
       </c>
       <c r="I157" s="7">
         <v>33</v>
       </c>
       <c r="J157" t="s">
-        <v>651</v>
-      </c>
-      <c r="K157" t="s">
-        <v>531</v>
+        <v>655</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
@@ -7430,34 +7440,25 @@
         <v>340</v>
       </c>
       <c r="B158" t="s">
-        <v>93</v>
+        <v>387</v>
       </c>
       <c r="C158" t="s">
-        <v>530</v>
-      </c>
-      <c r="D158" t="s">
-        <v>635</v>
+        <v>89</v>
       </c>
       <c r="E158" t="s">
-        <v>536</v>
-      </c>
-      <c r="F158" t="s">
-        <v>602</v>
+        <v>573</v>
       </c>
       <c r="G158" s="7">
-        <v>-7941.6787000000004</v>
+        <v>-1511.7375999999999</v>
       </c>
       <c r="H158" s="7">
-        <v>6676344.6983000003</v>
+        <v>6681684.3876999998</v>
       </c>
       <c r="I158" s="7">
         <v>33</v>
       </c>
       <c r="J158" t="s">
-        <v>652</v>
-      </c>
-      <c r="K158" t="s">
-        <v>532</v>
+        <v>655</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
@@ -7468,28 +7469,31 @@
         <v>93</v>
       </c>
       <c r="C159" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="D159" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="E159" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F159" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="G159" s="7">
-        <v>-9606.8189999999995</v>
+        <v>-7682.8486999999996</v>
       </c>
       <c r="H159" s="7">
-        <v>6678502.9052999998</v>
+        <v>6676948.9461000003</v>
       </c>
       <c r="I159" s="7">
         <v>33</v>
       </c>
       <c r="J159" t="s">
         <v>651</v>
+      </c>
+      <c r="K159" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
@@ -7500,28 +7504,31 @@
         <v>93</v>
       </c>
       <c r="C160" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="D160" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="E160" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="F160" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="G160" s="7">
-        <v>-7081.4575999999997</v>
+        <v>-7941.6787000000004</v>
       </c>
       <c r="H160" s="7">
-        <v>6676526.0603</v>
+        <v>6676344.6983000003</v>
       </c>
       <c r="I160" s="7">
         <v>33</v>
       </c>
       <c r="J160" t="s">
         <v>652</v>
+      </c>
+      <c r="K160" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
@@ -7529,28 +7536,31 @@
         <v>340</v>
       </c>
       <c r="B161" t="s">
-        <v>389</v>
+        <v>93</v>
       </c>
       <c r="C161" t="s">
-        <v>90</v>
+        <v>527</v>
       </c>
       <c r="D161" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="E161" t="s">
-        <v>575</v>
+        <v>533</v>
+      </c>
+      <c r="F161" t="s">
+        <v>604</v>
       </c>
       <c r="G161" s="7">
-        <v>-5621.3424999999997</v>
+        <v>-9606.8189999999995</v>
       </c>
       <c r="H161" s="7">
-        <v>6728794.8584000003</v>
+        <v>6678502.9052999998</v>
       </c>
       <c r="I161" s="7">
         <v>33</v>
       </c>
       <c r="J161" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
@@ -7558,31 +7568,31 @@
         <v>340</v>
       </c>
       <c r="B162" t="s">
-        <v>389</v>
+        <v>93</v>
       </c>
       <c r="C162" t="s">
-        <v>91</v>
+        <v>528</v>
       </c>
       <c r="D162" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="E162" t="s">
-        <v>576</v>
+        <v>534</v>
+      </c>
+      <c r="F162" t="s">
+        <v>603</v>
       </c>
       <c r="G162" s="7">
-        <v>-5808.415</v>
+        <v>-7081.4575999999997</v>
       </c>
       <c r="H162" s="7">
-        <v>6729599.9976000004</v>
+        <v>6676526.0603</v>
       </c>
       <c r="I162" s="7">
         <v>33</v>
       </c>
       <c r="J162" t="s">
-        <v>655</v>
-      </c>
-      <c r="K162" t="s">
-        <v>344</v>
+        <v>652</v>
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
@@ -7593,19 +7603,19 @@
         <v>389</v>
       </c>
       <c r="C163" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D163" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
       <c r="E163" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="G163" s="7">
-        <v>-7743.46</v>
+        <v>-5621.3424999999997</v>
       </c>
       <c r="H163" s="7">
-        <v>6728723.9128999999</v>
+        <v>6728794.8584000003</v>
       </c>
       <c r="I163" s="7">
         <v>33</v>
@@ -7619,28 +7629,31 @@
         <v>340</v>
       </c>
       <c r="B164" t="s">
-        <v>59</v>
+        <v>389</v>
       </c>
       <c r="C164" t="s">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="D164" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="E164" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="G164" s="7">
-        <v>-1325.5878</v>
+        <v>-5808.415</v>
       </c>
       <c r="H164" s="7">
-        <v>6751949.1117000002</v>
+        <v>6729599.9976000004</v>
       </c>
       <c r="I164" s="7">
         <v>33</v>
       </c>
       <c r="J164" t="s">
         <v>655</v>
+      </c>
+      <c r="K164" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
@@ -7648,22 +7661,22 @@
         <v>340</v>
       </c>
       <c r="B165" t="s">
-        <v>59</v>
+        <v>389</v>
       </c>
       <c r="C165" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="D165" t="s">
-        <v>637</v>
+        <v>627</v>
       </c>
       <c r="E165" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="G165" s="7">
-        <v>-2308.2676999999999</v>
+        <v>-7743.46</v>
       </c>
       <c r="H165" s="7">
-        <v>6751378.7505999999</v>
+        <v>6728723.9128999999</v>
       </c>
       <c r="I165" s="7">
         <v>33</v>
@@ -7677,22 +7690,22 @@
         <v>340</v>
       </c>
       <c r="B166" t="s">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="C166" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="D166" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="E166" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="G166" s="7">
-        <v>17092.468199999999</v>
+        <v>-1325.5878</v>
       </c>
       <c r="H166" s="7">
-        <v>6755760.2708000001</v>
+        <v>6751949.1117000002</v>
       </c>
       <c r="I166" s="7">
         <v>33</v>
@@ -7706,22 +7719,22 @@
         <v>340</v>
       </c>
       <c r="B167" t="s">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="C167" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="D167" t="s">
-        <v>622</v>
+        <v>637</v>
       </c>
       <c r="E167" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="G167" s="7">
-        <v>6492.1962000000003</v>
+        <v>-2308.2676999999999</v>
       </c>
       <c r="H167" s="7">
-        <v>6756547.3717</v>
+        <v>6751378.7505999999</v>
       </c>
       <c r="I167" s="7">
         <v>33</v>
@@ -7738,22 +7751,19 @@
         <v>94</v>
       </c>
       <c r="C168" t="s">
-        <v>659</v>
-      </c>
-      <c r="D168">
-        <v>10</v>
+        <v>96</v>
+      </c>
+      <c r="D168" t="s">
+        <v>638</v>
       </c>
       <c r="E168" t="s">
-        <v>586</v>
-      </c>
-      <c r="F168" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="G168" s="7">
-        <v>14174.4043</v>
+        <v>17092.468199999999</v>
       </c>
       <c r="H168" s="7">
-        <v>6757293.2191000003</v>
+        <v>6755760.2708000001</v>
       </c>
       <c r="I168" s="7">
         <v>33</v>
@@ -7770,19 +7780,19 @@
         <v>94</v>
       </c>
       <c r="C169" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D169" t="s">
-        <v>636</v>
+        <v>622</v>
       </c>
       <c r="E169" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="G169" s="7">
-        <v>37414.972500000003</v>
+        <v>6492.1962000000003</v>
       </c>
       <c r="H169" s="7">
-        <v>6752880.5915000001</v>
+        <v>6756547.3717</v>
       </c>
       <c r="I169" s="7">
         <v>33</v>
@@ -7799,19 +7809,22 @@
         <v>94</v>
       </c>
       <c r="C170" t="s">
-        <v>98</v>
-      </c>
-      <c r="D170" t="s">
-        <v>637</v>
+        <v>659</v>
+      </c>
+      <c r="D170">
+        <v>10</v>
       </c>
       <c r="E170" t="s">
-        <v>581</v>
+        <v>586</v>
+      </c>
+      <c r="F170" t="s">
+        <v>587</v>
       </c>
       <c r="G170" s="7">
-        <v>32589.801899999999</v>
+        <v>14174.4043</v>
       </c>
       <c r="H170" s="7">
-        <v>6752836.3529000003</v>
+        <v>6757293.2191000003</v>
       </c>
       <c r="I170" s="7">
         <v>33</v>
@@ -7828,19 +7841,19 @@
         <v>94</v>
       </c>
       <c r="C171" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D171" t="s">
-        <v>621</v>
+        <v>636</v>
       </c>
       <c r="E171" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="G171" s="7">
-        <v>14021.164199999999</v>
+        <v>37414.972500000003</v>
       </c>
       <c r="H171" s="7">
-        <v>6757626.216</v>
+        <v>6752880.5915000001</v>
       </c>
       <c r="I171" s="7">
         <v>33</v>
@@ -7857,19 +7870,19 @@
         <v>94</v>
       </c>
       <c r="C172" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D172" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E172" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="G172" s="7">
-        <v>14581.5694</v>
+        <v>32589.801899999999</v>
       </c>
       <c r="H172" s="7">
-        <v>6756408.0439999998</v>
+        <v>6752836.3529000003</v>
       </c>
       <c r="I172" s="7">
         <v>33</v>
@@ -7883,31 +7896,28 @@
         <v>340</v>
       </c>
       <c r="B173" t="s">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="C173" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="D173" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="E173" t="s">
-        <v>64</v>
-      </c>
-      <c r="F173" t="s">
-        <v>65</v>
+        <v>583</v>
       </c>
       <c r="G173" s="7">
-        <v>-148.28309999999999</v>
+        <v>14021.164199999999</v>
       </c>
       <c r="H173" s="7">
-        <v>6768998.8524000002</v>
+        <v>6757626.216</v>
       </c>
       <c r="I173" s="7">
         <v>33</v>
       </c>
       <c r="J173" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
@@ -7915,31 +7925,28 @@
         <v>340</v>
       </c>
       <c r="B174" t="s">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="C174" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="D174" t="s">
-        <v>628</v>
+        <v>639</v>
       </c>
       <c r="E174" t="s">
-        <v>67</v>
-      </c>
-      <c r="F174" t="s">
-        <v>68</v>
+        <v>585</v>
       </c>
       <c r="G174" s="7">
-        <v>1378.9512</v>
+        <v>14581.5694</v>
       </c>
       <c r="H174" s="7">
-        <v>6771656.5915999999</v>
+        <v>6756408.0439999998</v>
       </c>
       <c r="I174" s="7">
         <v>33</v>
       </c>
       <c r="J174" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
@@ -7950,22 +7957,22 @@
         <v>62</v>
       </c>
       <c r="C175" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D175" t="s">
-        <v>636</v>
+        <v>627</v>
       </c>
       <c r="E175" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F175" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="G175" s="7">
-        <v>-379.5564</v>
+        <v>-148.28309999999999</v>
       </c>
       <c r="H175" s="7">
-        <v>6768477.4762000004</v>
+        <v>6768998.8524000002</v>
       </c>
       <c r="I175" s="7">
         <v>33</v>
@@ -7982,22 +7989,22 @@
         <v>62</v>
       </c>
       <c r="C176" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D176" t="s">
-        <v>643</v>
+        <v>628</v>
       </c>
       <c r="E176" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F176" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="G176" s="7">
-        <v>2313.4180999999999</v>
+        <v>1378.9512</v>
       </c>
       <c r="H176" s="7">
-        <v>6773613.9216999998</v>
+        <v>6771656.5915999999</v>
       </c>
       <c r="I176" s="7">
         <v>33</v>
@@ -8014,28 +8021,28 @@
         <v>62</v>
       </c>
       <c r="C177" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D177" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E177" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F177" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G177" s="7">
-        <v>6021.8648000000003</v>
+        <v>-379.5564</v>
       </c>
       <c r="H177" s="7">
-        <v>6774046.0778999999</v>
+        <v>6768477.4762000004</v>
       </c>
       <c r="I177" s="7">
         <v>33</v>
       </c>
       <c r="J177" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
@@ -8046,28 +8053,28 @@
         <v>62</v>
       </c>
       <c r="C178" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D178" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="E178" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F178" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G178" s="7">
-        <v>2756.4529000000002</v>
+        <v>2313.4180999999999</v>
       </c>
       <c r="H178" s="7">
-        <v>6773607.1131999996</v>
+        <v>6773613.9216999998</v>
       </c>
       <c r="I178" s="7">
         <v>33</v>
       </c>
       <c r="J178" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
@@ -8078,22 +8085,22 @@
         <v>62</v>
       </c>
       <c r="C179" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="D179" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="E179" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="F179" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G179" s="7">
-        <v>2719.2512000000002</v>
+        <v>6021.8648000000003</v>
       </c>
       <c r="H179" s="7">
-        <v>6773702.9789000005</v>
+        <v>6774046.0778999999</v>
       </c>
       <c r="I179" s="7">
         <v>33</v>
@@ -8110,31 +8117,28 @@
         <v>62</v>
       </c>
       <c r="C180" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D180" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="E180" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F180" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G180" s="7">
-        <v>-180</v>
+        <v>2756.4529000000002</v>
       </c>
       <c r="H180" s="7">
-        <v>6768385</v>
+        <v>6773607.1131999996</v>
       </c>
       <c r="I180" s="7">
         <v>33</v>
       </c>
       <c r="J180" t="s">
         <v>652</v>
-      </c>
-      <c r="K180" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
@@ -8142,34 +8146,31 @@
         <v>340</v>
       </c>
       <c r="B181" t="s">
-        <v>128</v>
+        <v>62</v>
       </c>
       <c r="C181" t="s">
-        <v>537</v>
+        <v>85</v>
       </c>
       <c r="D181" t="s">
-        <v>636</v>
+        <v>642</v>
       </c>
       <c r="E181" t="s">
-        <v>129</v>
+        <v>86</v>
       </c>
       <c r="F181" t="s">
-        <v>130</v>
+        <v>87</v>
       </c>
       <c r="G181" s="7">
-        <v>1057</v>
+        <v>2719.2512000000002</v>
       </c>
       <c r="H181" s="7">
-        <v>6777545</v>
+        <v>6773702.9789000005</v>
       </c>
       <c r="I181" s="7">
         <v>33</v>
       </c>
       <c r="J181" t="s">
-        <v>651</v>
-      </c>
-      <c r="K181" t="s">
-        <v>352</v>
+        <v>652</v>
       </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.25">
@@ -8177,25 +8178,25 @@
         <v>340</v>
       </c>
       <c r="B182" t="s">
-        <v>128</v>
+        <v>62</v>
       </c>
       <c r="C182" t="s">
-        <v>542</v>
+        <v>81</v>
       </c>
       <c r="D182" t="s">
-        <v>621</v>
+        <v>640</v>
       </c>
       <c r="E182" t="s">
-        <v>137</v>
+        <v>83</v>
       </c>
       <c r="F182" t="s">
-        <v>138</v>
+        <v>84</v>
       </c>
       <c r="G182" s="7">
-        <v>11248</v>
+        <v>-180</v>
       </c>
       <c r="H182" s="7">
-        <v>6782210</v>
+        <v>6768385</v>
       </c>
       <c r="I182" s="7">
         <v>33</v>
@@ -8204,7 +8205,7 @@
         <v>652</v>
       </c>
       <c r="K182" t="s">
-        <v>355</v>
+        <v>82</v>
       </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
@@ -8212,31 +8213,34 @@
         <v>340</v>
       </c>
       <c r="B183" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="C183" t="s">
-        <v>348</v>
+        <v>537</v>
+      </c>
+      <c r="D183" t="s">
+        <v>636</v>
       </c>
       <c r="E183" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="F183" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="G183" s="7">
-        <v>-9733</v>
+        <v>1057</v>
       </c>
       <c r="H183" s="7">
-        <v>6772295</v>
+        <v>6777545</v>
       </c>
       <c r="I183" s="7">
         <v>33</v>
       </c>
       <c r="J183" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="K183" t="s">
-        <v>82</v>
+        <v>352</v>
       </c>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
@@ -8244,31 +8248,34 @@
         <v>340</v>
       </c>
       <c r="B184" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="C184" t="s">
-        <v>351</v>
+        <v>542</v>
+      </c>
+      <c r="D184" t="s">
+        <v>621</v>
       </c>
       <c r="E184" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="F184" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="G184" s="7">
-        <v>-9622</v>
+        <v>11248</v>
       </c>
       <c r="H184" s="7">
-        <v>6770200</v>
+        <v>6782210</v>
       </c>
       <c r="I184" s="7">
         <v>33</v>
       </c>
       <c r="J184" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="K184" t="s">
-        <v>82</v>
+        <v>355</v>
       </c>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
@@ -8279,16 +8286,19 @@
         <v>121</v>
       </c>
       <c r="C185" t="s">
-        <v>124</v>
+        <v>348</v>
       </c>
       <c r="E185" t="s">
-        <v>125</v>
+        <v>122</v>
+      </c>
+      <c r="F185" t="s">
+        <v>123</v>
       </c>
       <c r="G185" s="7">
-        <v>-9622</v>
+        <v>-9733</v>
       </c>
       <c r="H185" s="7">
-        <v>6771972</v>
+        <v>6772295</v>
       </c>
       <c r="I185" s="7">
         <v>33</v>
@@ -8305,31 +8315,31 @@
         <v>340</v>
       </c>
       <c r="B186" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C186" t="s">
-        <v>540</v>
-      </c>
-      <c r="D186" t="s">
-        <v>628</v>
+        <v>351</v>
       </c>
       <c r="E186" t="s">
-        <v>133</v>
+        <v>126</v>
+      </c>
+      <c r="F186" t="s">
+        <v>127</v>
       </c>
       <c r="G186" s="7">
-        <v>10296</v>
+        <v>-9622</v>
       </c>
       <c r="H186" s="7">
-        <v>6779464</v>
+        <v>6770200</v>
       </c>
       <c r="I186" s="7">
         <v>33</v>
       </c>
       <c r="J186" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="K186" t="s">
-        <v>353</v>
+        <v>82</v>
       </c>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
@@ -8337,31 +8347,28 @@
         <v>340</v>
       </c>
       <c r="B187" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C187" t="s">
-        <v>538</v>
-      </c>
-      <c r="D187" t="s">
-        <v>637</v>
+        <v>124</v>
       </c>
       <c r="E187" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="G187" s="7">
-        <v>4186</v>
+        <v>-9622</v>
       </c>
       <c r="H187" s="7">
-        <v>6779222</v>
+        <v>6771972</v>
       </c>
       <c r="I187" s="7">
         <v>33</v>
       </c>
       <c r="J187" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="K187" t="s">
-        <v>131</v>
+        <v>82</v>
       </c>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
@@ -8372,19 +8379,19 @@
         <v>128</v>
       </c>
       <c r="C188" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D188" t="s">
-        <v>638</v>
+        <v>628</v>
       </c>
       <c r="E188" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G188" s="7">
-        <v>11176</v>
+        <v>10296</v>
       </c>
       <c r="H188" s="7">
-        <v>6781153</v>
+        <v>6779464</v>
       </c>
       <c r="I188" s="7">
         <v>33</v>
@@ -8393,7 +8400,7 @@
         <v>652</v>
       </c>
       <c r="K188" t="s">
-        <v>131</v>
+        <v>353</v>
       </c>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
@@ -8404,31 +8411,28 @@
         <v>128</v>
       </c>
       <c r="C189" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D189" t="s">
-        <v>627</v>
+        <v>637</v>
       </c>
       <c r="E189" t="s">
-        <v>134</v>
-      </c>
-      <c r="F189" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G189" s="7">
-        <v>8643</v>
+        <v>4186</v>
       </c>
       <c r="H189" s="7">
-        <v>6778977</v>
+        <v>6779222</v>
       </c>
       <c r="I189" s="7">
         <v>33</v>
       </c>
       <c r="J189" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="K189" t="s">
-        <v>354</v>
+        <v>131</v>
       </c>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
@@ -8436,22 +8440,22 @@
         <v>340</v>
       </c>
       <c r="B190" t="s">
-        <v>390</v>
+        <v>128</v>
       </c>
       <c r="C190" t="s">
-        <v>103</v>
+        <v>541</v>
       </c>
       <c r="D190" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="E190" t="s">
-        <v>543</v>
+        <v>136</v>
       </c>
       <c r="G190" s="7">
-        <v>-22737.912199999999</v>
+        <v>11176</v>
       </c>
       <c r="H190" s="7">
-        <v>6792901.6692000004</v>
+        <v>6781153</v>
       </c>
       <c r="I190" s="7">
         <v>33</v>
@@ -8460,7 +8464,7 @@
         <v>652</v>
       </c>
       <c r="K190" t="s">
-        <v>350</v>
+        <v>131</v>
       </c>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.25">
@@ -8468,28 +8472,34 @@
         <v>340</v>
       </c>
       <c r="B191" t="s">
-        <v>390</v>
+        <v>128</v>
       </c>
       <c r="C191" t="s">
-        <v>102</v>
+        <v>539</v>
       </c>
       <c r="D191" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E191" t="s">
-        <v>552</v>
+        <v>134</v>
+      </c>
+      <c r="F191" t="s">
+        <v>135</v>
       </c>
       <c r="G191" s="7">
-        <v>-27117.159599999999</v>
+        <v>8643</v>
       </c>
       <c r="H191" s="7">
-        <v>6786620.1350999996</v>
+        <v>6778977</v>
       </c>
       <c r="I191" s="7">
         <v>33</v>
       </c>
       <c r="J191" t="s">
-        <v>652</v>
+        <v>651</v>
+      </c>
+      <c r="K191" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.25">
@@ -8500,28 +8510,28 @@
         <v>390</v>
       </c>
       <c r="C192" t="s">
-        <v>545</v>
+        <v>103</v>
       </c>
       <c r="D192" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E192" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G192" s="7">
-        <v>-30216.382900000001</v>
+        <v>-22737.912199999999</v>
       </c>
       <c r="H192" s="7">
-        <v>6788508.5964000002</v>
+        <v>6792901.6692000004</v>
       </c>
       <c r="I192" s="7">
         <v>33</v>
       </c>
       <c r="J192" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="K192" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.25">
@@ -8532,28 +8542,25 @@
         <v>390</v>
       </c>
       <c r="C193" t="s">
-        <v>546</v>
+        <v>102</v>
       </c>
       <c r="D193" t="s">
-        <v>646</v>
+        <v>628</v>
       </c>
       <c r="E193" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G193" s="7">
-        <v>-24672.011399999999</v>
+        <v>-27117.159599999999</v>
       </c>
       <c r="H193" s="7">
-        <v>6790958.6272</v>
+        <v>6786620.1350999996</v>
       </c>
       <c r="I193" s="7">
         <v>33</v>
       </c>
       <c r="J193" t="s">
         <v>652</v>
-      </c>
-      <c r="K193" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
@@ -8564,19 +8571,19 @@
         <v>390</v>
       </c>
       <c r="C194" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="D194" t="s">
-        <v>621</v>
+        <v>638</v>
       </c>
       <c r="E194" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="G194" s="7">
-        <v>-30401.414799999999</v>
+        <v>-30216.382900000001</v>
       </c>
       <c r="H194" s="7">
-        <v>6787627.5902000004</v>
+        <v>6788508.5964000002</v>
       </c>
       <c r="I194" s="7">
         <v>33</v>
@@ -8585,7 +8592,7 @@
         <v>651</v>
       </c>
       <c r="K194" t="s">
-        <v>548</v>
+        <v>349</v>
       </c>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.25">
@@ -8596,25 +8603,28 @@
         <v>390</v>
       </c>
       <c r="C195" t="s">
-        <v>101</v>
+        <v>546</v>
       </c>
       <c r="D195" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="E195" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="G195" s="7">
-        <v>-27524.878000000001</v>
+        <v>-24672.011399999999</v>
       </c>
       <c r="H195" s="7">
-        <v>6786655.6157999998</v>
+        <v>6790958.6272</v>
       </c>
       <c r="I195" s="7">
         <v>33</v>
       </c>
       <c r="J195" t="s">
-        <v>651</v>
+        <v>652</v>
+      </c>
+      <c r="K195" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
@@ -8625,28 +8635,28 @@
         <v>390</v>
       </c>
       <c r="C196" t="s">
-        <v>346</v>
+        <v>549</v>
       </c>
       <c r="D196" t="s">
-        <v>645</v>
+        <v>621</v>
       </c>
       <c r="E196" t="s">
-        <v>104</v>
+        <v>550</v>
       </c>
       <c r="G196" s="7">
-        <v>-30965</v>
+        <v>-30401.414799999999</v>
       </c>
       <c r="H196" s="7">
-        <v>6788512</v>
+        <v>6787627.5902000004</v>
       </c>
       <c r="I196" s="7">
         <v>33</v>
       </c>
       <c r="J196" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="K196" t="s">
-        <v>345</v>
+        <v>548</v>
       </c>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
@@ -8654,31 +8664,28 @@
         <v>340</v>
       </c>
       <c r="B197" t="s">
-        <v>105</v>
+        <v>390</v>
       </c>
       <c r="C197" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D197" t="s">
-        <v>636</v>
+        <v>644</v>
       </c>
       <c r="E197" t="s">
-        <v>107</v>
+        <v>551</v>
       </c>
       <c r="G197" s="7">
-        <v>-14279</v>
+        <v>-27524.878000000001</v>
       </c>
       <c r="H197" s="7">
-        <v>6783454</v>
+        <v>6786655.6157999998</v>
       </c>
       <c r="I197" s="7">
         <v>33</v>
       </c>
       <c r="J197" t="s">
-        <v>655</v>
-      </c>
-      <c r="K197" t="s">
-        <v>347</v>
+        <v>651</v>
       </c>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
@@ -8686,31 +8693,31 @@
         <v>340</v>
       </c>
       <c r="B198" t="s">
-        <v>105</v>
+        <v>390</v>
       </c>
       <c r="C198" t="s">
-        <v>108</v>
+        <v>346</v>
       </c>
       <c r="D198" t="s">
-        <v>637</v>
+        <v>645</v>
       </c>
       <c r="E198" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="G198" s="7">
-        <v>-14606</v>
+        <v>-30965</v>
       </c>
       <c r="H198" s="7">
-        <v>6781739</v>
+        <v>6788512</v>
       </c>
       <c r="I198" s="7">
         <v>33</v>
       </c>
       <c r="J198" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="K198" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
@@ -8721,19 +8728,19 @@
         <v>105</v>
       </c>
       <c r="C199" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D199" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
       <c r="E199" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G199" s="7">
-        <v>-13685</v>
+        <v>-14279</v>
       </c>
       <c r="H199" s="7">
-        <v>6781202</v>
+        <v>6783454</v>
       </c>
       <c r="I199" s="7">
         <v>33</v>
@@ -8753,19 +8760,19 @@
         <v>105</v>
       </c>
       <c r="C200" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D200" t="s">
-        <v>628</v>
+        <v>637</v>
       </c>
       <c r="E200" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G200" s="7">
-        <v>-13343</v>
+        <v>-14606</v>
       </c>
       <c r="H200" s="7">
-        <v>6781326</v>
+        <v>6781739</v>
       </c>
       <c r="I200" s="7">
         <v>33</v>
@@ -8782,22 +8789,22 @@
         <v>340</v>
       </c>
       <c r="B201" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C201" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D201" t="s">
-        <v>636</v>
+        <v>627</v>
       </c>
       <c r="E201" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="G201" s="7">
-        <v>-9942</v>
+        <v>-13685</v>
       </c>
       <c r="H201" s="7">
-        <v>6785889</v>
+        <v>6781202</v>
       </c>
       <c r="I201" s="7">
         <v>33</v>
@@ -8814,22 +8821,22 @@
         <v>340</v>
       </c>
       <c r="B202" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C202" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D202" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="E202" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="G202" s="7">
-        <v>-7856</v>
+        <v>-13343</v>
       </c>
       <c r="H202" s="7">
-        <v>6788102</v>
+        <v>6781326</v>
       </c>
       <c r="I202" s="7">
         <v>33</v>
@@ -8849,19 +8856,19 @@
         <v>114</v>
       </c>
       <c r="C203" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D203" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
       <c r="E203" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G203" s="7">
-        <v>-6580</v>
+        <v>-9942</v>
       </c>
       <c r="H203" s="7">
-        <v>6789211</v>
+        <v>6785889</v>
       </c>
       <c r="I203" s="7">
         <v>33</v>
@@ -8878,22 +8885,22 @@
         <v>340</v>
       </c>
       <c r="B204" t="s">
-        <v>388</v>
+        <v>114</v>
       </c>
       <c r="C204" t="s">
-        <v>259</v>
+        <v>117</v>
+      </c>
+      <c r="D204" t="s">
+        <v>637</v>
       </c>
       <c r="E204" t="s">
-        <v>588</v>
-      </c>
-      <c r="F204" t="s">
-        <v>589</v>
+        <v>118</v>
       </c>
       <c r="G204" s="7">
-        <v>26158.044693</v>
+        <v>-7856</v>
       </c>
       <c r="H204" s="7">
-        <v>6822104.2364999996</v>
+        <v>6788102</v>
       </c>
       <c r="I204" s="7">
         <v>33</v>
@@ -8902,7 +8909,7 @@
         <v>655</v>
       </c>
       <c r="K204" t="s">
-        <v>260</v>
+        <v>347</v>
       </c>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.25">
@@ -8910,22 +8917,22 @@
         <v>340</v>
       </c>
       <c r="B205" t="s">
-        <v>388</v>
+        <v>114</v>
       </c>
       <c r="C205" t="s">
-        <v>261</v>
+        <v>119</v>
+      </c>
+      <c r="D205" t="s">
+        <v>627</v>
       </c>
       <c r="E205" t="s">
-        <v>590</v>
-      </c>
-      <c r="F205" t="s">
-        <v>591</v>
+        <v>120</v>
       </c>
       <c r="G205" s="7">
-        <v>26065.148562999999</v>
+        <v>-6580</v>
       </c>
       <c r="H205" s="7">
-        <v>6822068.5154480003</v>
+        <v>6789211</v>
       </c>
       <c r="I205" s="7">
         <v>33</v>
@@ -8934,7 +8941,7 @@
         <v>655</v>
       </c>
       <c r="K205" t="s">
-        <v>262</v>
+        <v>347</v>
       </c>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.25">
@@ -8945,19 +8952,19 @@
         <v>388</v>
       </c>
       <c r="C206" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="E206" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="F206" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="G206" s="7">
-        <v>26116.073284999999</v>
+        <v>26158.044693</v>
       </c>
       <c r="H206" s="7">
-        <v>6822074.8887419999</v>
+        <v>6822104.2364999996</v>
       </c>
       <c r="I206" s="7">
         <v>33</v>
@@ -8966,7 +8973,7 @@
         <v>655</v>
       </c>
       <c r="K206" t="s">
-        <v>372</v>
+        <v>260</v>
       </c>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.25">
@@ -8977,19 +8984,19 @@
         <v>388</v>
       </c>
       <c r="C207" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E207" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="F207" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="G207" s="7">
-        <v>21795.243349</v>
+        <v>26065.148562999999</v>
       </c>
       <c r="H207" s="7">
-        <v>6820178.3245299999</v>
+        <v>6822068.5154480003</v>
       </c>
       <c r="I207" s="7">
         <v>33</v>
@@ -8998,7 +9005,7 @@
         <v>655</v>
       </c>
       <c r="K207" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.25">
@@ -9009,25 +9016,28 @@
         <v>388</v>
       </c>
       <c r="C208" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="E208" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="F208" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="G208" s="7">
-        <v>24700.341451</v>
+        <v>26116.073284999999</v>
       </c>
       <c r="H208" s="7">
-        <v>6821439.4434089996</v>
+        <v>6822074.8887419999</v>
       </c>
       <c r="I208" s="7">
         <v>33</v>
       </c>
       <c r="J208" t="s">
         <v>655</v>
+      </c>
+      <c r="K208" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.25">
@@ -9038,19 +9048,19 @@
         <v>388</v>
       </c>
       <c r="C209" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E209" t="s">
-        <v>269</v>
+        <v>594</v>
       </c>
       <c r="F209" t="s">
-        <v>270</v>
+        <v>595</v>
       </c>
       <c r="G209" s="7">
-        <v>21629.720430000001</v>
+        <v>21795.243349</v>
       </c>
       <c r="H209" s="7">
-        <v>6819933.8563609999</v>
+        <v>6820178.3245299999</v>
       </c>
       <c r="I209" s="7">
         <v>33</v>
@@ -9059,7 +9069,7 @@
         <v>655</v>
       </c>
       <c r="K209" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.25">
@@ -9067,31 +9077,28 @@
         <v>340</v>
       </c>
       <c r="B210" t="s">
-        <v>238</v>
+        <v>388</v>
       </c>
       <c r="C210" t="s">
-        <v>249</v>
-      </c>
-      <c r="D210" t="s">
-        <v>647</v>
+        <v>266</v>
       </c>
       <c r="E210" t="s">
-        <v>561</v>
+        <v>596</v>
+      </c>
+      <c r="F210" t="s">
+        <v>597</v>
       </c>
       <c r="G210" s="7">
-        <v>-15587.081733000001</v>
+        <v>24700.341451</v>
       </c>
       <c r="H210" s="7">
-        <v>6835172.2138769999</v>
+        <v>6821439.4434089996</v>
       </c>
       <c r="I210" s="7">
         <v>33</v>
       </c>
       <c r="J210" t="s">
-        <v>651</v>
-      </c>
-      <c r="K210" t="s">
-        <v>250</v>
+        <v>655</v>
       </c>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.25">
@@ -9099,31 +9106,31 @@
         <v>340</v>
       </c>
       <c r="B211" t="s">
-        <v>238</v>
+        <v>388</v>
       </c>
       <c r="C211" t="s">
-        <v>255</v>
-      </c>
-      <c r="D211" t="s">
-        <v>649</v>
+        <v>267</v>
       </c>
       <c r="E211" t="s">
-        <v>256</v>
+        <v>269</v>
+      </c>
+      <c r="F211" t="s">
+        <v>270</v>
       </c>
       <c r="G211" s="7">
-        <v>-12370</v>
+        <v>21629.720430000001</v>
       </c>
       <c r="H211" s="7">
-        <v>6829167</v>
+        <v>6819933.8563609999</v>
       </c>
       <c r="I211" s="7">
         <v>33</v>
       </c>
       <c r="J211" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="K211" t="s">
-        <v>371</v>
+        <v>268</v>
       </c>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.25">
@@ -9134,19 +9141,19 @@
         <v>238</v>
       </c>
       <c r="C212" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="D212" t="s">
-        <v>622</v>
+        <v>647</v>
       </c>
       <c r="E212" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="G212" s="7">
-        <v>-16699.671394000001</v>
+        <v>-15587.081733000001</v>
       </c>
       <c r="H212" s="7">
-        <v>6831109.7963990001</v>
+        <v>6835172.2138769999</v>
       </c>
       <c r="I212" s="7">
         <v>33</v>
@@ -9155,7 +9162,7 @@
         <v>651</v>
       </c>
       <c r="K212" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.25">
@@ -9166,19 +9173,19 @@
         <v>238</v>
       </c>
       <c r="C213" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="D213" t="s">
-        <v>606</v>
+        <v>649</v>
       </c>
       <c r="E213" t="s">
-        <v>559</v>
+        <v>256</v>
       </c>
       <c r="G213" s="7">
-        <v>-17974.03659</v>
+        <v>-12370</v>
       </c>
       <c r="H213" s="7">
-        <v>6831042.7279549995</v>
+        <v>6829167</v>
       </c>
       <c r="I213" s="7">
         <v>33</v>
@@ -9187,7 +9194,7 @@
         <v>652</v>
       </c>
       <c r="K213" t="s">
-        <v>242</v>
+        <v>371</v>
       </c>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.25">
@@ -9198,25 +9205,28 @@
         <v>238</v>
       </c>
       <c r="C214" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D214" t="s">
-        <v>648</v>
+        <v>622</v>
       </c>
       <c r="E214" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="G214" s="7">
-        <v>-14532.244757</v>
+        <v>-16699.671394000001</v>
       </c>
       <c r="H214" s="7">
-        <v>6830883.3540740004</v>
+        <v>6831109.7963990001</v>
       </c>
       <c r="I214" s="7">
         <v>33</v>
       </c>
       <c r="J214" t="s">
-        <v>652</v>
+        <v>651</v>
+      </c>
+      <c r="K214" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.25">
@@ -9227,28 +9237,28 @@
         <v>238</v>
       </c>
       <c r="C215" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D215" t="s">
-        <v>645</v>
+        <v>606</v>
       </c>
       <c r="E215" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="G215" s="7">
-        <v>-14821.784298</v>
+        <v>-17974.03659</v>
       </c>
       <c r="H215" s="7">
-        <v>6829199.1161550004</v>
+        <v>6831042.7279549995</v>
       </c>
       <c r="I215" s="7">
         <v>33</v>
       </c>
       <c r="J215" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="K215" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.25">
@@ -9259,28 +9269,25 @@
         <v>238</v>
       </c>
       <c r="C216" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D216" t="s">
-        <v>638</v>
+        <v>648</v>
       </c>
       <c r="E216" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="G216" s="7">
-        <v>-16184.035458</v>
+        <v>-14532.244757</v>
       </c>
       <c r="H216" s="7">
-        <v>6829780.1565990001</v>
+        <v>6830883.3540740004</v>
       </c>
       <c r="I216" s="7">
         <v>33</v>
       </c>
       <c r="J216" t="s">
-        <v>657</v>
-      </c>
-      <c r="K216" t="s">
-        <v>247</v>
+        <v>652</v>
       </c>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.25">
@@ -9291,25 +9298,28 @@
         <v>238</v>
       </c>
       <c r="C217" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D217" t="s">
-        <v>637</v>
+        <v>645</v>
       </c>
       <c r="E217" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="G217" s="7">
-        <v>-5382.4546069999997</v>
+        <v>-14821.784298</v>
       </c>
       <c r="H217" s="7">
-        <v>6823611.4733020002</v>
+        <v>6829199.1161550004</v>
       </c>
       <c r="I217" s="7">
         <v>33</v>
       </c>
       <c r="J217" t="s">
-        <v>652</v>
+        <v>651</v>
+      </c>
+      <c r="K217" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.25">
@@ -9320,31 +9330,28 @@
         <v>238</v>
       </c>
       <c r="C218" t="s">
-        <v>563</v>
+        <v>246</v>
       </c>
       <c r="D218" t="s">
-        <v>628</v>
+        <v>638</v>
       </c>
       <c r="E218" t="s">
-        <v>556</v>
-      </c>
-      <c r="F218" t="s">
-        <v>598</v>
+        <v>557</v>
       </c>
       <c r="G218" s="7">
-        <v>-6692</v>
+        <v>-16184.035458</v>
       </c>
       <c r="H218" s="7">
-        <v>6827071</v>
+        <v>6829780.1565990001</v>
       </c>
       <c r="I218" s="7">
         <v>33</v>
       </c>
       <c r="J218" t="s">
-        <v>651</v>
+        <v>657</v>
       </c>
       <c r="K218" t="s">
-        <v>564</v>
+        <v>247</v>
       </c>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.25">
@@ -9355,19 +9362,19 @@
         <v>238</v>
       </c>
       <c r="C219" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D219" t="s">
-        <v>627</v>
+        <v>637</v>
       </c>
       <c r="E219" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G219" s="7">
-        <v>-5863.5875050000004</v>
+        <v>-5382.4546069999997</v>
       </c>
       <c r="H219" s="7">
-        <v>6826110.9239269998</v>
+        <v>6823611.4733020002</v>
       </c>
       <c r="I219" s="7">
         <v>33</v>
@@ -9375,80 +9382,144 @@
       <c r="J219" t="s">
         <v>652</v>
       </c>
-      <c r="K219" t="s">
+    </row>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>340</v>
+      </c>
+      <c r="B220" t="s">
+        <v>238</v>
+      </c>
+      <c r="C220" t="s">
+        <v>563</v>
+      </c>
+      <c r="D220" t="s">
+        <v>628</v>
+      </c>
+      <c r="E220" t="s">
+        <v>556</v>
+      </c>
+      <c r="F220" t="s">
+        <v>598</v>
+      </c>
+      <c r="G220" s="7">
+        <v>-6692</v>
+      </c>
+      <c r="H220" s="7">
+        <v>6827071</v>
+      </c>
+      <c r="I220" s="7">
+        <v>33</v>
+      </c>
+      <c r="J220" t="s">
+        <v>651</v>
+      </c>
+      <c r="K220" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>340</v>
+      </c>
+      <c r="B221" t="s">
+        <v>238</v>
+      </c>
+      <c r="C221" t="s">
+        <v>251</v>
+      </c>
+      <c r="D221" t="s">
+        <v>627</v>
+      </c>
+      <c r="E221" t="s">
+        <v>555</v>
+      </c>
+      <c r="G221" s="7">
+        <v>-5863.5875050000004</v>
+      </c>
+      <c r="H221" s="7">
+        <v>6826110.9239269998</v>
+      </c>
+      <c r="I221" s="7">
+        <v>33</v>
+      </c>
+      <c r="J221" t="s">
+        <v>652</v>
+      </c>
+      <c r="K221" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="220" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="7" t="s">
+    <row r="222" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A222" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="B220" s="7" t="s">
+      <c r="B222" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="C220" s="7" t="s">
+      <c r="C222" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="D220" s="7" t="s">
+      <c r="D222" s="7" t="s">
         <v>650</v>
       </c>
-      <c r="E220" s="7" t="s">
+      <c r="E222" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="F220" s="7"/>
-      <c r="G220" s="7">
+      <c r="F222" s="7"/>
+      <c r="G222" s="7">
         <v>-14111</v>
       </c>
-      <c r="H220" s="7">
+      <c r="H222" s="7">
         <v>6828225</v>
       </c>
-      <c r="I220" s="7">
-        <v>33</v>
-      </c>
-      <c r="J220" s="7" t="s">
+      <c r="I222" s="7">
+        <v>33</v>
+      </c>
+      <c r="J222" s="7" t="s">
         <v>652</v>
       </c>
-      <c r="K220" s="7" t="s">
+      <c r="K222" s="7" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="221" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="7" t="s">
+    <row r="223" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A223" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="B221" s="7" t="s">
+      <c r="B223" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="C221" s="7" t="s">
+      <c r="C223" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="D221" s="7" t="s">
+      <c r="D223" s="7" t="s">
         <v>646</v>
       </c>
-      <c r="E221" s="7" t="s">
+      <c r="E223" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="F221" s="7"/>
-      <c r="G221" s="7">
+      <c r="F223" s="7"/>
+      <c r="G223" s="7">
         <v>-12408</v>
       </c>
-      <c r="H221" s="7">
+      <c r="H223" s="7">
         <v>6826233</v>
       </c>
-      <c r="I221" s="7">
-        <v>33</v>
-      </c>
-      <c r="J221" s="7" t="s">
+      <c r="I223" s="7">
+        <v>33</v>
+      </c>
+      <c r="J223" s="7" t="s">
         <v>652</v>
       </c>
-      <c r="K221" s="7" t="s">
+      <c r="K223" s="7" t="s">
         <v>371</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K219" xr:uid="{8F9C49C6-D2D5-48DC-90F7-163878AA0983}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K221">
-      <sortCondition ref="E1:E219"/>
+  <autoFilter ref="A1:K221" xr:uid="{8F9C49C6-D2D5-48DC-90F7-163878AA0983}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K223">
+      <sortCondition ref="E1:E221"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9458,56 +9529,10 @@
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="f3010fb3-0ead-40f9-8418-3186255a05f9" ContentTypeId="0x010100D14BD004BF1C4459B890F3727F092580" PreviousValue="false"/>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <gdc15e87e6184dc285cecc59dfe3e409 xmlns="99b93dda-0db1-4804-bcd9-79ac3408f7b3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </gdc15e87e6184dc285cecc59dfe3e409>
-    <TaxCatchAll xmlns="99b93dda-0db1-4804-bcd9-79ac3408f7b3">
-      <Value>620</Value>
-      <Value>619</Value>
-      <Value>219</Value>
-      <Value>536</Value>
-    </TaxCatchAll>
-    <a707137999d24c5390df78a72943486a xmlns="99b93dda-0db1-4804-bcd9-79ac3408f7b3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Stasjonsnett og prøvetakere</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">dd0207a7-2d0a-4417-838c-fdce6848318b</TermId>
-        </TermInfo>
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Kalking</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">6d74b546-8f21-4782-aa30-c3b6c259d9bc</TermId>
-        </TermInfo>
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Vannkjemikontrollen</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">8379c43c-5bcc-430c-8c15-d982cef44326</TermId>
-        </TermInfo>
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Avtale 2016</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">426aae43-8bc2-4ddf-b2c6-6c511db79aef</TermId>
-        </TermInfo>
-      </Terms>
-    </a707137999d24c5390df78a72943486a>
-    <AvtaltDato xmlns="99b93dda-0db1-4804-bcd9-79ac3408f7b3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="f3010fb3-0ead-40f9-8418-3186255a05f9" ContentTypeId="0x010100D14BD004BF1C4459B890F3727F092580" PreviousValue="false"/>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Miljødirektoratet Dokument" ma:contentTypeID="0x010100D14BD004BF1C4459B890F3727F0925800030788E1E5F06E4499248722442C9E1E2" ma:contentTypeVersion="4" ma:contentTypeDescription="Opprett et nytt dokument. " ma:contentTypeScope="" ma:versionID="31d2f06e1319184035b49374dedadd14">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="99b93dda-0db1-4804-bcd9-79ac3408f7b3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4b39a69652e56cca026e8bfba402999b" ns2:_="">
     <xsd:import namespace="99b93dda-0db1-4804-bcd9-79ac3408f7b3"/>
@@ -9673,31 +9698,53 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3C45CF2-DB67-4850-A387-8CB1B8396D69}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5E2C70A-39DB-4E9F-AC55-CF83C6FAF41A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="99b93dda-0db1-4804-bcd9-79ac3408f7b3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <gdc15e87e6184dc285cecc59dfe3e409 xmlns="99b93dda-0db1-4804-bcd9-79ac3408f7b3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </gdc15e87e6184dc285cecc59dfe3e409>
+    <TaxCatchAll xmlns="99b93dda-0db1-4804-bcd9-79ac3408f7b3">
+      <Value>620</Value>
+      <Value>619</Value>
+      <Value>219</Value>
+      <Value>536</Value>
+    </TaxCatchAll>
+    <a707137999d24c5390df78a72943486a xmlns="99b93dda-0db1-4804-bcd9-79ac3408f7b3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Stasjonsnett og prøvetakere</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">dd0207a7-2d0a-4417-838c-fdce6848318b</TermId>
+        </TermInfo>
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Kalking</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">6d74b546-8f21-4782-aa30-c3b6c259d9bc</TermId>
+        </TermInfo>
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Vannkjemikontrollen</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">8379c43c-5bcc-430c-8c15-d982cef44326</TermId>
+        </TermInfo>
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Avtale 2016</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">426aae43-8bc2-4ddf-b2c6-6c511db79aef</TermId>
+        </TermInfo>
+      </Terms>
+    </a707137999d24c5390df78a72943486a>
+    <AvtaltDato xmlns="99b93dda-0db1-4804-bcd9-79ac3408f7b3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{045B6229-1055-4164-AB1C-6A3398378E43}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
@@ -9705,7 +9752,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{465F94C6-DADA-41F7-9419-4CB4FA36834F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9721,4 +9768,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3C45CF2-DB67-4850-A387-8CB1B8396D69}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5E2C70A-39DB-4E9F-AC55-CF83C6FAF41A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="99b93dda-0db1-4804-bcd9-79ac3408f7b3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/active_stations_2020.xlsx
+++ b/data/active_stations_2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JES\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55DE5EBA-ED1F-4955-AE94-5D2D943C45E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28332E95-159E-4006-A216-1CA12B62120B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3289" uniqueCount="696">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1373" uniqueCount="698">
   <si>
     <t>Nidelva/Arendal</t>
   </si>
@@ -2120,6 +2120,12 @@
   </si>
   <si>
     <t>002-58799</t>
+  </si>
+  <si>
+    <t>Ny stasjon april 2022 i forbindelse med gjenopptatt kalking, erstatter tidligere "Nybusjøen nedstrøms" mht bedre oppløst kalk</t>
+  </si>
+  <si>
+    <t>Stasjon avsluttet 2015, restartet april 2022 pga. gjenopptatt kalking</t>
   </si>
 </sst>
 </file>
@@ -2162,18 +2168,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -2188,7 +2188,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -2203,7 +2203,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2672,7 +2671,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
+      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2759,20 +2758,29 @@
       <c r="C3" s="7" t="s">
         <v>692</v>
       </c>
+      <c r="D3" s="7">
+        <v>2</v>
+      </c>
       <c r="E3" s="7" t="s">
         <v>693</v>
       </c>
-      <c r="G3" s="10">
-        <v>292044.86731100001</v>
-      </c>
-      <c r="H3" s="10">
-        <v>6765233.0469899997</v>
-      </c>
-      <c r="I3" s="10">
-        <v>33</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>658</v>
+      <c r="F3" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="G3">
+        <v>291371</v>
+      </c>
+      <c r="H3">
+        <v>6764817</v>
+      </c>
+      <c r="I3" s="7">
+        <v>33</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>651</v>
+      </c>
+      <c r="K3" t="s">
+        <v>696</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -2785,20 +2793,29 @@
       <c r="C4" s="7" t="s">
         <v>694</v>
       </c>
+      <c r="D4" s="7">
+        <v>1</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>695</v>
       </c>
-      <c r="G4" s="7">
-        <v>292353.61000000034</v>
-      </c>
-      <c r="H4" s="7">
-        <v>6765415.7346000001</v>
+      <c r="F4" s="7" t="s">
+        <v>694</v>
+      </c>
+      <c r="G4">
+        <v>292354</v>
+      </c>
+      <c r="H4">
+        <v>6765416</v>
       </c>
       <c r="I4" s="9">
         <v>33</v>
       </c>
-      <c r="J4" s="10" t="s">
-        <v>658</v>
+      <c r="J4" s="7" t="s">
+        <v>652</v>
+      </c>
+      <c r="K4" t="s">
+        <v>697</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -9528,11 +9545,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="f3010fb3-0ead-40f9-8418-3186255a05f9" ContentTypeId="0x010100D14BD004BF1C4459B890F3727F092580" PreviousValue="false"/>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Miljødirektoratet Dokument" ma:contentTypeID="0x010100D14BD004BF1C4459B890F3727F0925800030788E1E5F06E4499248722442C9E1E2" ma:contentTypeVersion="4" ma:contentTypeDescription="Opprett et nytt dokument. " ma:contentTypeScope="" ma:versionID="31d2f06e1319184035b49374dedadd14">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="99b93dda-0db1-4804-bcd9-79ac3408f7b3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4b39a69652e56cca026e8bfba402999b" ns2:_="">
     <xsd:import namespace="99b93dda-0db1-4804-bcd9-79ac3408f7b3"/>
@@ -9698,16 +9710,12 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="f3010fb3-0ead-40f9-8418-3186255a05f9" ContentTypeId="0x010100D14BD004BF1C4459B890F3727F092580" PreviousValue="false"/>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <gdc15e87e6184dc285cecc59dfe3e409 xmlns="99b93dda-0db1-4804-bcd9-79ac3408f7b3">
@@ -9744,15 +9752,16 @@
 </p:properties>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{045B6229-1055-4164-AB1C-6A3398378E43}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{465F94C6-DADA-41F7-9419-4CB4FA36834F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9770,15 +9779,15 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3C45CF2-DB67-4850-A387-8CB1B8396D69}">
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{045B6229-1055-4164-AB1C-6A3398378E43}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5E2C70A-39DB-4E9F-AC55-CF83C6FAF41A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -9792,4 +9801,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3C45CF2-DB67-4850-A387-8CB1B8396D69}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/active_stations_2020.xlsx
+++ b/data/active_stations_2020.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JES\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28332E95-159E-4006-A216-1CA12B62120B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8024CD98-46F1-4BE4-AC04-80ABEDB25F1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="2" r:id="rId1"/>
     <sheet name="data" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">data!$A$1:$K$221</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">data!$A$1:$K$223</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1213,9 +1213,6 @@
     <t>Langåna v/Røyknes</t>
   </si>
   <si>
-    <t>Eljansåna oppstrøms Homme sag</t>
-  </si>
-  <si>
     <t>Skjerkedalselva (Grovanebekken)</t>
   </si>
   <si>
@@ -1429,21 +1426,9 @@
     <t xml:space="preserve">Søgneelva, Homsåna v/Stokkeland </t>
   </si>
   <si>
-    <t>Barstadvassdraget v Liland (1)</t>
-  </si>
-  <si>
-    <t>Guddal/Mydlandsvassdraget v Klokkegården (4)</t>
-  </si>
-  <si>
     <t>Ved Liland kraftstasjon</t>
   </si>
   <si>
-    <t>Sokndalselva v Haneberg (5)</t>
-  </si>
-  <si>
-    <t>Myssavassdraget v Titania (3)</t>
-  </si>
-  <si>
     <t>Steinvassdraget v Fitja (2)</t>
   </si>
   <si>
@@ -1831,9 +1816,6 @@
     <t>Guddalselva nedstrøms Tuland (4)</t>
   </si>
   <si>
-    <t>Høiebekken oppstrøms doserer</t>
-  </si>
-  <si>
     <t>Ny stasjon juli 2020, i forbindelse med ny doserer i Høiebekken</t>
   </si>
   <si>
@@ -2126,6 +2108,24 @@
   </si>
   <si>
     <t>Stasjon avsluttet 2015, restartet april 2022 pga. gjenopptatt kalking</t>
+  </si>
+  <si>
+    <t>Barstadvassdaget ved Lindland kraftstasjon (1)</t>
+  </si>
+  <si>
+    <t>Myssavassdraget ved Porshøl (3)</t>
+  </si>
+  <si>
+    <t>Guddal/Mydland ved Linepollen (4)</t>
+  </si>
+  <si>
+    <t>Sokndalselva ved Prestbru (5)</t>
+  </si>
+  <si>
+    <t>Eljansåna nedstrøms Homme sag (10)</t>
+  </si>
+  <si>
+    <t>Høiebekken oppstrøms doserer (3)</t>
   </si>
 </sst>
 </file>
@@ -2671,7 +2671,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
+      <selection pane="bottomLeft" activeCell="D224" sqref="D224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2689,37 +2689,37 @@
   <sheetData>
     <row r="1" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>657</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>658</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>659</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>660</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>663</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>664</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>665</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>666</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>669</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>670</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>671</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>672</v>
-      </c>
       <c r="I1" s="6" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -2730,10 +2730,10 @@
         <v>58</v>
       </c>
       <c r="C2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E2" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="G2" s="7">
         <v>292044.86731100001</v>
@@ -2745,7 +2745,7 @@
         <v>33</v>
       </c>
       <c r="J2" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -2756,16 +2756,16 @@
         <v>58</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="D3" s="7">
         <v>2</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="G3">
         <v>291371</v>
@@ -2777,10 +2777,10 @@
         <v>33</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="K3" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -2791,16 +2791,16 @@
         <v>58</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="D4" s="7">
         <v>1</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="G4">
         <v>292354</v>
@@ -2812,10 +2812,10 @@
         <v>33</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="K4" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -2826,13 +2826,13 @@
         <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D5">
         <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G5" s="7">
         <v>143378.37487199999</v>
@@ -2844,10 +2844,10 @@
         <v>33</v>
       </c>
       <c r="J5" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="K5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -2864,7 +2864,7 @@
         <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G6" s="7">
         <v>146117.19357</v>
@@ -2876,10 +2876,10 @@
         <v>33</v>
       </c>
       <c r="J6" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="K6" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -2890,7 +2890,7 @@
         <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D7">
         <v>4</v>
@@ -2911,7 +2911,7 @@
         <v>33</v>
       </c>
       <c r="J7" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="K7" t="s">
         <v>44</v>
@@ -2931,7 +2931,7 @@
         <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G8" s="7">
         <v>143490.19312499999</v>
@@ -2943,7 +2943,7 @@
         <v>33</v>
       </c>
       <c r="J8" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -2975,7 +2975,7 @@
         <v>33</v>
       </c>
       <c r="J9" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -2992,7 +2992,7 @@
         <v>21</v>
       </c>
       <c r="E10" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G10" s="7">
         <v>143345.53039299999</v>
@@ -3004,7 +3004,7 @@
         <v>33</v>
       </c>
       <c r="J10" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -3018,7 +3018,7 @@
         <v>391</v>
       </c>
       <c r="E11" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="G11" s="7">
         <v>131566</v>
@@ -3030,10 +3030,10 @@
         <v>33</v>
       </c>
       <c r="J11" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="K11" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -3044,7 +3044,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D12">
         <v>18</v>
@@ -3062,7 +3062,7 @@
         <v>33</v>
       </c>
       <c r="J12" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="K12" t="s">
         <v>341</v>
@@ -3082,7 +3082,7 @@
         <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G13" s="7">
         <v>127731.485267</v>
@@ -3094,7 +3094,7 @@
         <v>33</v>
       </c>
       <c r="J13" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="K13" t="s">
         <v>7</v>
@@ -3114,7 +3114,7 @@
         <v>7</v>
       </c>
       <c r="E14" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G14" s="7">
         <v>101429.58238000001</v>
@@ -3126,7 +3126,7 @@
         <v>33</v>
       </c>
       <c r="J14" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="K14" t="s">
         <v>5</v>
@@ -3146,7 +3146,7 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G15" s="7">
         <v>128523.96044900001</v>
@@ -3158,7 +3158,7 @@
         <v>33</v>
       </c>
       <c r="J15" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -3175,7 +3175,7 @@
         <v>14</v>
       </c>
       <c r="E16" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G16" s="7">
         <v>135135.323378</v>
@@ -3187,7 +3187,7 @@
         <v>33</v>
       </c>
       <c r="J16" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -3204,7 +3204,7 @@
         <v>5</v>
       </c>
       <c r="E17" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G17" s="7">
         <v>112203.512682</v>
@@ -3216,7 +3216,7 @@
         <v>33</v>
       </c>
       <c r="J17" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="K17" t="s">
         <v>3</v>
@@ -3248,7 +3248,7 @@
         <v>33</v>
       </c>
       <c r="J18" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -3262,10 +3262,10 @@
         <v>291</v>
       </c>
       <c r="D19" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="E19" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G19" s="7">
         <v>28114.788872000001</v>
@@ -3277,7 +3277,7 @@
         <v>33</v>
       </c>
       <c r="J19" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -3291,10 +3291,10 @@
         <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="E20" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G20" s="7">
         <v>97590.25232</v>
@@ -3306,7 +3306,7 @@
         <v>33</v>
       </c>
       <c r="J20" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="K20" t="s">
         <v>26</v>
@@ -3326,7 +3326,7 @@
         <v>2</v>
       </c>
       <c r="E21" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G21" s="7">
         <v>110363.331603</v>
@@ -3338,7 +3338,7 @@
         <v>33</v>
       </c>
       <c r="J21" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -3355,7 +3355,7 @@
         <v>4</v>
       </c>
       <c r="E22" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G22" s="7">
         <v>107965.167865</v>
@@ -3367,7 +3367,7 @@
         <v>33</v>
       </c>
       <c r="J22" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -3384,7 +3384,7 @@
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G23" s="7">
         <v>97714.164554000003</v>
@@ -3396,7 +3396,7 @@
         <v>33</v>
       </c>
       <c r="J23" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -3407,10 +3407,10 @@
         <v>20</v>
       </c>
       <c r="C24" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E24" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="G24" s="7">
         <v>108864.263483</v>
@@ -3422,10 +3422,10 @@
         <v>33</v>
       </c>
       <c r="J24" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="K24" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -3436,10 +3436,10 @@
         <v>20</v>
       </c>
       <c r="C25" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E25" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="G25" s="7">
         <v>109017.94520099999</v>
@@ -3451,10 +3451,10 @@
         <v>33</v>
       </c>
       <c r="J25" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="K25" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -3471,7 +3471,7 @@
         <v>3</v>
       </c>
       <c r="E26" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G26" s="7">
         <v>113473.019562949</v>
@@ -3483,7 +3483,7 @@
         <v>33</v>
       </c>
       <c r="J26" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -3500,7 +3500,7 @@
         <v>7</v>
       </c>
       <c r="E27" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G27" s="7">
         <v>102268.121399</v>
@@ -3512,7 +3512,7 @@
         <v>33</v>
       </c>
       <c r="J27" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -3544,7 +3544,7 @@
         <v>33</v>
       </c>
       <c r="J28" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="K28" t="s">
         <v>30</v>
@@ -3579,7 +3579,7 @@
         <v>33</v>
       </c>
       <c r="J29" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -3605,7 +3605,7 @@
         <v>33</v>
       </c>
       <c r="J30" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="K30" t="s">
         <v>342</v>
@@ -3619,25 +3619,28 @@
         <v>330</v>
       </c>
       <c r="C31" t="s">
-        <v>599</v>
+        <v>697</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
       </c>
       <c r="E31" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="G31" s="7">
-        <v>83862</v>
+        <v>83465</v>
       </c>
       <c r="H31" s="7">
-        <v>6475878</v>
+        <v>6476329</v>
       </c>
       <c r="I31" s="9">
         <v>33</v>
       </c>
       <c r="J31" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="K31" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -3648,10 +3651,10 @@
         <v>330</v>
       </c>
       <c r="C32" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="E32" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="G32" s="8">
         <v>83953</v>
@@ -3663,10 +3666,10 @@
         <v>33</v>
       </c>
       <c r="J32" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="K32" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -3677,10 +3680,10 @@
         <v>330</v>
       </c>
       <c r="C33" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="E33" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="G33" s="8">
         <v>85526</v>
@@ -3692,10 +3695,10 @@
         <v>33</v>
       </c>
       <c r="J33" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="K33" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -3724,7 +3727,7 @@
         <v>33</v>
       </c>
       <c r="J34" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="K34" t="s">
         <v>381</v>
@@ -3753,7 +3756,7 @@
         <v>33</v>
       </c>
       <c r="J35" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="K35" t="s">
         <v>382</v>
@@ -3767,10 +3770,10 @@
         <v>330</v>
       </c>
       <c r="C36" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E36" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G36" s="7">
         <v>89026</v>
@@ -3782,10 +3785,10 @@
         <v>33</v>
       </c>
       <c r="J36" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="K36" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -3799,7 +3802,7 @@
         <v>392</v>
       </c>
       <c r="E37" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G37" s="7">
         <v>84324</v>
@@ -3811,10 +3814,10 @@
         <v>33</v>
       </c>
       <c r="J37" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="K37" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -3840,7 +3843,7 @@
         <v>33</v>
       </c>
       <c r="J38" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="K38" t="s">
         <v>385</v>
@@ -3872,7 +3875,7 @@
         <v>33</v>
       </c>
       <c r="J39" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="K39" t="s">
         <v>383</v>
@@ -3886,10 +3889,13 @@
         <v>330</v>
       </c>
       <c r="C40" t="s">
-        <v>393</v>
+        <v>696</v>
+      </c>
+      <c r="D40">
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G40" s="7">
         <v>76504</v>
@@ -3901,10 +3907,10 @@
         <v>33</v>
       </c>
       <c r="J40" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="K40" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -3933,7 +3939,7 @@
         <v>33</v>
       </c>
       <c r="J41" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="K41" t="s">
         <v>384</v>
@@ -3965,7 +3971,7 @@
         <v>33</v>
       </c>
       <c r="J42" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="K42" t="s">
         <v>384</v>
@@ -3982,7 +3988,7 @@
         <v>52</v>
       </c>
       <c r="E43" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="G43" s="7">
         <v>71614</v>
@@ -3994,7 +4000,7 @@
         <v>33</v>
       </c>
       <c r="J43" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="K43" t="s">
         <v>343</v>
@@ -4023,7 +4029,7 @@
         <v>33</v>
       </c>
       <c r="J44" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="K44" t="s">
         <v>50</v>
@@ -4052,7 +4058,7 @@
         <v>33</v>
       </c>
       <c r="J45" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="K45" t="s">
         <v>343</v>
@@ -4081,7 +4087,7 @@
         <v>33</v>
       </c>
       <c r="J46" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="K46" t="s">
         <v>343</v>
@@ -4095,13 +4101,13 @@
         <v>302</v>
       </c>
       <c r="C47" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D47">
         <v>13</v>
       </c>
       <c r="E47" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G47" s="7">
         <v>64515.144346000001</v>
@@ -4113,7 +4119,7 @@
         <v>33</v>
       </c>
       <c r="J47" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -4124,13 +4130,13 @@
         <v>302</v>
       </c>
       <c r="C48" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D48">
         <v>15</v>
       </c>
       <c r="E48" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G48" s="7">
         <v>60469.991418999998</v>
@@ -4142,7 +4148,7 @@
         <v>33</v>
       </c>
       <c r="J48" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -4159,7 +4165,7 @@
         <v>3</v>
       </c>
       <c r="E49" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G49" s="7">
         <v>62838.750856999999</v>
@@ -4171,7 +4177,7 @@
         <v>33</v>
       </c>
       <c r="J49" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -4200,7 +4206,7 @@
         <v>33</v>
       </c>
       <c r="J50" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="K50" t="s">
         <v>323</v>
@@ -4220,7 +4226,7 @@
         <v>324</v>
       </c>
       <c r="F51" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="G51" s="7">
         <v>75109</v>
@@ -4232,7 +4238,7 @@
         <v>33</v>
       </c>
       <c r="J51" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="K51" t="s">
         <v>323</v>
@@ -4252,7 +4258,7 @@
         <v>329</v>
       </c>
       <c r="F52" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G52" s="7">
         <v>76554</v>
@@ -4264,7 +4270,7 @@
         <v>33</v>
       </c>
       <c r="J52" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="K52" t="s">
         <v>323</v>
@@ -4284,7 +4290,7 @@
         <v>1</v>
       </c>
       <c r="E53" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G53" s="7">
         <v>61346.669367000002</v>
@@ -4296,7 +4302,7 @@
         <v>33</v>
       </c>
       <c r="J53" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -4328,7 +4334,7 @@
         <v>33</v>
       </c>
       <c r="J54" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -4354,7 +4360,7 @@
         <v>33</v>
       </c>
       <c r="J55" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="K55" t="s">
         <v>376</v>
@@ -4368,13 +4374,13 @@
         <v>302</v>
       </c>
       <c r="C56" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D56">
         <v>5</v>
       </c>
       <c r="E56" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G56" s="7">
         <v>63676.259080999997</v>
@@ -4386,7 +4392,7 @@
         <v>33</v>
       </c>
       <c r="J56" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -4397,13 +4403,13 @@
         <v>302</v>
       </c>
       <c r="C57" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D57">
         <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G57" s="7">
         <v>60939.076349000003</v>
@@ -4415,7 +4421,7 @@
         <v>33</v>
       </c>
       <c r="J57" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -4429,7 +4435,7 @@
         <v>321</v>
       </c>
       <c r="E58" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="G58" s="7">
         <v>78337.500564999995</v>
@@ -4441,7 +4447,7 @@
         <v>33</v>
       </c>
       <c r="J58" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -4467,7 +4473,7 @@
         <v>33</v>
       </c>
       <c r="J59" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="K59" t="s">
         <v>377</v>
@@ -4496,7 +4502,7 @@
         <v>33</v>
       </c>
       <c r="J60" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="K60" t="s">
         <v>378</v>
@@ -4516,7 +4522,7 @@
         <v>3</v>
       </c>
       <c r="E61" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G61" s="7">
         <v>53424.904893999999</v>
@@ -4528,7 +4534,7 @@
         <v>33</v>
       </c>
       <c r="J61" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -4560,7 +4566,7 @@
         <v>33</v>
       </c>
       <c r="J62" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -4577,7 +4583,7 @@
         <v>16</v>
       </c>
       <c r="E63" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G63" s="7">
         <v>51069.624163</v>
@@ -4589,7 +4595,7 @@
         <v>33</v>
       </c>
       <c r="J63" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -4606,7 +4612,7 @@
         <v>6</v>
       </c>
       <c r="E64" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G64" s="7">
         <v>49359.760647000003</v>
@@ -4618,7 +4624,7 @@
         <v>33</v>
       </c>
       <c r="J64" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -4632,10 +4638,10 @@
         <v>278</v>
       </c>
       <c r="D65" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="E65" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G65" s="7">
         <v>51266.087678999997</v>
@@ -4647,7 +4653,7 @@
         <v>33</v>
       </c>
       <c r="J65" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="K65" t="s">
         <v>373</v>
@@ -4664,10 +4670,10 @@
         <v>279</v>
       </c>
       <c r="D66" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="E66" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="G66" s="7">
         <v>51203</v>
@@ -4679,7 +4685,7 @@
         <v>33</v>
       </c>
       <c r="J66" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="K66" t="s">
         <v>374</v>
@@ -4699,7 +4705,7 @@
         <v>14</v>
       </c>
       <c r="E67" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G67" s="7">
         <v>50228.873606000001</v>
@@ -4711,7 +4717,7 @@
         <v>33</v>
       </c>
       <c r="J67" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
@@ -4725,10 +4731,10 @@
         <v>281</v>
       </c>
       <c r="D68" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="E68" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G68" s="7">
         <v>54729.520605999998</v>
@@ -4740,7 +4746,7 @@
         <v>33</v>
       </c>
       <c r="J68" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
@@ -4769,7 +4775,7 @@
         <v>33</v>
       </c>
       <c r="J69" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="K69" t="s">
         <v>283</v>
@@ -4783,10 +4789,10 @@
         <v>294</v>
       </c>
       <c r="C70" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E70" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="G70" s="7">
         <v>33005</v>
@@ -4798,10 +4804,10 @@
         <v>33</v>
       </c>
       <c r="J70" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="K70" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
@@ -4827,7 +4833,7 @@
         <v>33</v>
       </c>
       <c r="J71" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="K71" t="s">
         <v>386</v>
@@ -4847,7 +4853,7 @@
         <v>1</v>
       </c>
       <c r="E72" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G72" s="7">
         <v>38898.998094000002</v>
@@ -4859,7 +4865,7 @@
         <v>33</v>
       </c>
       <c r="J72" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
@@ -4876,7 +4882,7 @@
         <v>3</v>
       </c>
       <c r="E73" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G73" s="7">
         <v>44280.163765999998</v>
@@ -4888,7 +4894,7 @@
         <v>33</v>
       </c>
       <c r="J73" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
@@ -4899,13 +4905,13 @@
         <v>294</v>
       </c>
       <c r="C74" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D74">
         <v>19</v>
       </c>
       <c r="E74" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G74" s="7">
         <v>35691.362739999997</v>
@@ -4917,7 +4923,7 @@
         <v>33</v>
       </c>
       <c r="J74" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
@@ -4928,13 +4934,13 @@
         <v>294</v>
       </c>
       <c r="C75" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D75">
         <v>18</v>
       </c>
       <c r="E75" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="G75" s="7">
         <v>40380.618582000003</v>
@@ -4946,7 +4952,7 @@
         <v>33</v>
       </c>
       <c r="J75" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
@@ -4963,7 +4969,7 @@
         <v>2</v>
       </c>
       <c r="E76" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G76" s="7">
         <v>40591.952972999999</v>
@@ -4975,7 +4981,7 @@
         <v>33</v>
       </c>
       <c r="J76" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
@@ -4992,7 +4998,7 @@
         <v>6</v>
       </c>
       <c r="E77" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G77" s="7">
         <v>33804.067872</v>
@@ -5004,7 +5010,7 @@
         <v>33</v>
       </c>
       <c r="J77" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
@@ -5021,7 +5027,7 @@
         <v>4</v>
       </c>
       <c r="E78" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G78" s="7">
         <v>46399.403963999997</v>
@@ -5033,7 +5039,7 @@
         <v>33</v>
       </c>
       <c r="J78" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
@@ -5059,7 +5065,7 @@
         <v>33</v>
       </c>
       <c r="J79" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
@@ -5070,13 +5076,13 @@
         <v>288</v>
       </c>
       <c r="C80" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D80">
         <v>5</v>
       </c>
       <c r="E80" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G80" s="7">
         <v>35953.846236999998</v>
@@ -5088,7 +5094,7 @@
         <v>33</v>
       </c>
       <c r="J80" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
@@ -5105,7 +5111,7 @@
         <v>8</v>
       </c>
       <c r="E81" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="G81" s="7">
         <v>30470.752357000001</v>
@@ -5117,7 +5123,7 @@
         <v>33</v>
       </c>
       <c r="J81" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
@@ -5134,7 +5140,7 @@
         <v>3</v>
       </c>
       <c r="E82" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G82" s="7">
         <v>30498.686836000001</v>
@@ -5146,7 +5152,7 @@
         <v>33</v>
       </c>
       <c r="J82" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
@@ -5175,7 +5181,7 @@
         <v>33</v>
       </c>
       <c r="J83" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="K83" t="s">
         <v>375</v>
@@ -5189,13 +5195,13 @@
         <v>190</v>
       </c>
       <c r="C84" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D84">
         <v>6</v>
       </c>
       <c r="E84" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="G84" s="7">
         <v>344012</v>
@@ -5207,10 +5213,10 @@
         <v>32</v>
       </c>
       <c r="J84" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="K84" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
@@ -5221,13 +5227,13 @@
         <v>190</v>
       </c>
       <c r="C85" t="s">
-        <v>465</v>
+        <v>692</v>
       </c>
       <c r="D85">
         <v>1</v>
       </c>
       <c r="E85" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="G85" s="7">
         <v>-7923.0859179999998</v>
@@ -5239,10 +5245,10 @@
         <v>33</v>
       </c>
       <c r="J85" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="K85" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
@@ -5253,13 +5259,13 @@
         <v>190</v>
       </c>
       <c r="C86" t="s">
-        <v>466</v>
+        <v>694</v>
       </c>
       <c r="D86">
         <v>4</v>
       </c>
       <c r="E86" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="G86" s="7">
         <v>-6353.2602809999998</v>
@@ -5271,7 +5277,7 @@
         <v>33</v>
       </c>
       <c r="J86" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
@@ -5282,13 +5288,13 @@
         <v>190</v>
       </c>
       <c r="C87" t="s">
-        <v>468</v>
+        <v>695</v>
       </c>
       <c r="D87">
         <v>5</v>
       </c>
       <c r="E87" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="G87" s="7">
         <v>-7669.1387459999996</v>
@@ -5300,7 +5306,7 @@
         <v>33</v>
       </c>
       <c r="J87" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
@@ -5311,13 +5317,13 @@
         <v>190</v>
       </c>
       <c r="C88" t="s">
-        <v>469</v>
+        <v>693</v>
       </c>
       <c r="D88">
         <v>3</v>
       </c>
       <c r="E88" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="G88" s="7">
         <v>-5753.0666590000001</v>
@@ -5329,7 +5335,7 @@
         <v>33</v>
       </c>
       <c r="J88" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
@@ -5340,13 +5346,13 @@
         <v>190</v>
       </c>
       <c r="C89" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="D89">
         <v>2</v>
       </c>
       <c r="E89" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="G89" s="7">
         <v>-7928.9469600000002</v>
@@ -5358,7 +5364,7 @@
         <v>33</v>
       </c>
       <c r="J89" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
@@ -5369,13 +5375,13 @@
         <v>314</v>
       </c>
       <c r="C90" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D90">
         <v>2</v>
       </c>
       <c r="E90" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G90" s="7">
         <v>-239.22803300000001</v>
@@ -5387,7 +5393,7 @@
         <v>33</v>
       </c>
       <c r="J90" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
@@ -5398,7 +5404,7 @@
         <v>314</v>
       </c>
       <c r="C91" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D91">
         <v>3</v>
@@ -5416,7 +5422,7 @@
         <v>33</v>
       </c>
       <c r="J91" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="K91" t="s">
         <v>380</v>
@@ -5430,7 +5436,7 @@
         <v>314</v>
       </c>
       <c r="C92" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D92">
         <v>1</v>
@@ -5448,7 +5454,7 @@
         <v>33</v>
       </c>
       <c r="J92" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="K92" t="s">
         <v>317</v>
@@ -5477,7 +5483,7 @@
         <v>33</v>
       </c>
       <c r="J93" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="K93" t="s">
         <v>379</v>
@@ -5497,7 +5503,7 @@
         <v>4</v>
       </c>
       <c r="E94" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="G94" s="7">
         <v>-16555.674385999999</v>
@@ -5509,7 +5515,7 @@
         <v>33</v>
       </c>
       <c r="J94" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
@@ -5526,7 +5532,7 @@
         <v>1</v>
       </c>
       <c r="E95" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="G95" s="7">
         <v>-24148.784555999999</v>
@@ -5538,7 +5544,7 @@
         <v>33</v>
       </c>
       <c r="J95" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
@@ -5555,10 +5561,10 @@
         <v>12</v>
       </c>
       <c r="E96" s="9" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="F96" s="9" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="G96" s="9">
         <v>-16217</v>
@@ -5570,7 +5576,7 @@
         <v>33</v>
       </c>
       <c r="J96" s="9" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="K96" s="9"/>
     </row>
@@ -5597,7 +5603,7 @@
         <v>33</v>
       </c>
       <c r="J97" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="K97" t="s">
         <v>363</v>
@@ -5626,7 +5632,7 @@
         <v>33</v>
       </c>
       <c r="J98" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="K98" t="s">
         <v>363</v>
@@ -5646,7 +5652,7 @@
         <v>6</v>
       </c>
       <c r="E99" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="G99" s="7">
         <v>865.74685199999999</v>
@@ -5658,7 +5664,7 @@
         <v>33</v>
       </c>
       <c r="J99" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
@@ -5675,7 +5681,7 @@
         <v>7</v>
       </c>
       <c r="E100" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="G100" s="7">
         <v>1688.192515</v>
@@ -5687,7 +5693,7 @@
         <v>33</v>
       </c>
       <c r="J100" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
@@ -5704,7 +5710,7 @@
         <v>15</v>
       </c>
       <c r="E101" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="G101" s="7">
         <v>-9693.6067800000001</v>
@@ -5716,7 +5722,7 @@
         <v>33</v>
       </c>
       <c r="J101" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="K101" t="s">
         <v>145</v>
@@ -5736,7 +5742,7 @@
         <v>14</v>
       </c>
       <c r="E102" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="G102" s="7">
         <v>-9237.6714699999993</v>
@@ -5748,7 +5754,7 @@
         <v>33</v>
       </c>
       <c r="J102" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="K102" t="s">
         <v>147</v>
@@ -5768,7 +5774,7 @@
         <v>8</v>
       </c>
       <c r="E103" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="G103" s="7">
         <v>-7748.0731370000003</v>
@@ -5780,7 +5786,7 @@
         <v>33</v>
       </c>
       <c r="J103" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
@@ -5797,7 +5803,7 @@
         <v>9</v>
       </c>
       <c r="E104" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="G104" s="7">
         <v>-11817.160059</v>
@@ -5809,7 +5815,7 @@
         <v>33</v>
       </c>
       <c r="J104" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
@@ -5820,7 +5826,7 @@
         <v>175</v>
       </c>
       <c r="C105" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="D105">
         <v>53</v>
@@ -5841,10 +5847,10 @@
         <v>33</v>
       </c>
       <c r="J105" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="K105" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
@@ -5861,7 +5867,7 @@
         <v>51</v>
       </c>
       <c r="E106" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="G106" s="7">
         <v>-23746.894015999998</v>
@@ -5873,7 +5879,7 @@
         <v>33</v>
       </c>
       <c r="J106" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
@@ -5890,7 +5896,7 @@
         <v>50</v>
       </c>
       <c r="E107" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="G107" s="7">
         <v>-23756.366348</v>
@@ -5902,7 +5908,7 @@
         <v>33</v>
       </c>
       <c r="J107" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
@@ -5919,7 +5925,7 @@
         <v>52</v>
       </c>
       <c r="E108" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="G108" s="7">
         <v>-32698.885877000001</v>
@@ -5931,10 +5937,10 @@
         <v>33</v>
       </c>
       <c r="J108" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="K108" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
@@ -5951,7 +5957,7 @@
         <v>48</v>
       </c>
       <c r="E109" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="G109" s="7">
         <v>-21333.146041</v>
@@ -5963,10 +5969,10 @@
         <v>33</v>
       </c>
       <c r="J109" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="K109" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
@@ -5977,13 +5983,13 @@
         <v>175</v>
       </c>
       <c r="C110" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="D110">
         <v>4</v>
       </c>
       <c r="E110" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="G110" s="7">
         <v>-32671.270689000001</v>
@@ -5995,10 +6001,10 @@
         <v>33</v>
       </c>
       <c r="J110" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="K110" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
@@ -6015,7 +6021,7 @@
         <v>12</v>
       </c>
       <c r="E111" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="G111" s="7">
         <v>-15325.023718</v>
@@ -6027,7 +6033,7 @@
         <v>33</v>
       </c>
       <c r="J111" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
@@ -6053,7 +6059,7 @@
         <v>33</v>
       </c>
       <c r="J112" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="K112" t="s">
         <v>363</v>
@@ -6085,7 +6091,7 @@
         <v>33</v>
       </c>
       <c r="J113" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="K113" t="s">
         <v>364</v>
@@ -6114,7 +6120,7 @@
         <v>33</v>
       </c>
       <c r="J114" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="K114" t="s">
         <v>363</v>
@@ -6146,7 +6152,7 @@
         <v>33</v>
       </c>
       <c r="J115" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="K115" t="s">
         <v>365</v>
@@ -6166,7 +6172,7 @@
         <v>5</v>
       </c>
       <c r="E116" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="G116" s="7">
         <v>-9405.6402849999995</v>
@@ -6178,7 +6184,7 @@
         <v>33</v>
       </c>
       <c r="J116" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
@@ -6195,7 +6201,7 @@
         <v>6</v>
       </c>
       <c r="E117" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="G117" s="7">
         <v>847.46973000000003</v>
@@ -6207,7 +6213,7 @@
         <v>33</v>
       </c>
       <c r="J117" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
@@ -6218,16 +6224,16 @@
         <v>159</v>
       </c>
       <c r="C118" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="D118">
         <v>4</v>
       </c>
       <c r="E118" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="F118" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="G118" s="7">
         <v>2589.447658</v>
@@ -6239,7 +6245,7 @@
         <v>33</v>
       </c>
       <c r="J118" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="K118" t="s">
         <v>356</v>
@@ -6253,16 +6259,16 @@
         <v>159</v>
       </c>
       <c r="C119" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="D119">
         <v>2</v>
       </c>
       <c r="E119" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="F119" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="G119" s="7">
         <v>2426.211605</v>
@@ -6274,7 +6280,7 @@
         <v>33</v>
       </c>
       <c r="J119" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="K119" t="s">
         <v>160</v>
@@ -6288,16 +6294,16 @@
         <v>159</v>
       </c>
       <c r="C120" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="D120">
         <v>5</v>
       </c>
       <c r="E120" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="F120" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="G120" s="7">
         <v>3231.5613589999998</v>
@@ -6309,7 +6315,7 @@
         <v>33</v>
       </c>
       <c r="J120" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="K120" t="s">
         <v>357</v>
@@ -6329,7 +6335,7 @@
         <v>1</v>
       </c>
       <c r="E121" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="G121" s="7">
         <v>-445.99656299999998</v>
@@ -6341,7 +6347,7 @@
         <v>33</v>
       </c>
       <c r="J121" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="K121" t="s">
         <v>157</v>
@@ -6352,7 +6358,7 @@
         <v>139</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="C122" s="9" t="s">
         <v>153</v>
@@ -6361,10 +6367,10 @@
         <v>5</v>
       </c>
       <c r="E122" s="9" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="F122" s="9" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="G122" s="9">
         <v>-9344.5495999995619</v>
@@ -6376,7 +6382,7 @@
         <v>33</v>
       </c>
       <c r="J122" s="9" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="K122" s="9"/>
     </row>
@@ -6394,7 +6400,7 @@
         <v>3</v>
       </c>
       <c r="E123" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="G123" s="7">
         <v>-4131.4289749999998</v>
@@ -6406,7 +6412,7 @@
         <v>33</v>
       </c>
       <c r="J123" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
@@ -6420,10 +6426,10 @@
         <v>158</v>
       </c>
       <c r="D124" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="E124" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="G124" s="7">
         <v>-435.61006500000002</v>
@@ -6435,7 +6441,7 @@
         <v>33</v>
       </c>
       <c r="J124" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
@@ -6467,7 +6473,7 @@
         <v>33</v>
       </c>
       <c r="J125" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="K125" t="s">
         <v>162</v>
@@ -6487,7 +6493,7 @@
         <v>1</v>
       </c>
       <c r="E126" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="G126" s="7">
         <v>-967.01564800000006</v>
@@ -6499,7 +6505,7 @@
         <v>33</v>
       </c>
       <c r="J126" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="K126" t="s">
         <v>166</v>
@@ -6513,13 +6519,13 @@
         <v>172</v>
       </c>
       <c r="C127" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D127">
         <v>4</v>
       </c>
       <c r="E127" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="G127" s="7">
         <v>22042.742042999998</v>
@@ -6531,7 +6537,7 @@
         <v>33</v>
       </c>
       <c r="J127" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="K127" t="s">
         <v>174</v>
@@ -6551,7 +6557,7 @@
         <v>7</v>
       </c>
       <c r="E128" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="G128" s="7">
         <v>23098.613496999998</v>
@@ -6563,7 +6569,7 @@
         <v>33</v>
       </c>
       <c r="J128" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
@@ -6574,13 +6580,13 @@
         <v>172</v>
       </c>
       <c r="C129" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="D129">
         <v>1</v>
       </c>
       <c r="E129" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="G129" s="7">
         <v>24767.383523</v>
@@ -6592,7 +6598,7 @@
         <v>33</v>
       </c>
       <c r="J129" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
@@ -6603,13 +6609,13 @@
         <v>172</v>
       </c>
       <c r="C130" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="D130">
         <v>3</v>
       </c>
       <c r="E130" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="G130" s="7">
         <v>22269.240881000002</v>
@@ -6621,7 +6627,7 @@
         <v>33</v>
       </c>
       <c r="J130" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
@@ -6638,7 +6644,7 @@
         <v>4</v>
       </c>
       <c r="E131" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="G131" s="7">
         <v>-13128.407453</v>
@@ -6650,7 +6656,7 @@
         <v>33</v>
       </c>
       <c r="J131" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
@@ -6664,7 +6670,7 @@
         <v>168</v>
       </c>
       <c r="D132" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="E132" t="s">
         <v>169</v>
@@ -6682,10 +6688,10 @@
         <v>33</v>
       </c>
       <c r="J132" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="K132" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
@@ -6696,10 +6702,10 @@
         <v>206</v>
       </c>
       <c r="C133" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="D133" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="E133" t="s">
         <v>226</v>
@@ -6714,7 +6720,7 @@
         <v>33</v>
       </c>
       <c r="J133" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="K133" t="s">
         <v>368</v>
@@ -6746,7 +6752,7 @@
         <v>33</v>
       </c>
       <c r="J134" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
@@ -6775,7 +6781,7 @@
         <v>33</v>
       </c>
       <c r="J135" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="K135" t="s">
         <v>367</v>
@@ -6792,7 +6798,7 @@
         <v>224</v>
       </c>
       <c r="D136" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="E136" t="s">
         <v>225</v>
@@ -6807,7 +6813,7 @@
         <v>33</v>
       </c>
       <c r="J136" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
@@ -6821,7 +6827,7 @@
         <v>222</v>
       </c>
       <c r="D137" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="E137" t="s">
         <v>223</v>
@@ -6836,7 +6842,7 @@
         <v>33</v>
       </c>
       <c r="J137" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
@@ -6850,7 +6856,7 @@
         <v>218</v>
       </c>
       <c r="D138" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="E138" t="s">
         <v>219</v>
@@ -6865,7 +6871,7 @@
         <v>33</v>
       </c>
       <c r="J138" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
@@ -6879,7 +6885,7 @@
         <v>216</v>
       </c>
       <c r="D139" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="E139" t="s">
         <v>217</v>
@@ -6894,7 +6900,7 @@
         <v>33</v>
       </c>
       <c r="J139" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
@@ -6908,7 +6914,7 @@
         <v>207</v>
       </c>
       <c r="D140" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="E140" t="s">
         <v>208</v>
@@ -6923,7 +6929,7 @@
         <v>33</v>
       </c>
       <c r="J140" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
@@ -6934,7 +6940,7 @@
         <v>206</v>
       </c>
       <c r="C141" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="D141">
         <v>12</v>
@@ -6952,7 +6958,7 @@
         <v>33</v>
       </c>
       <c r="J141" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="K141" t="s">
         <v>366</v>
@@ -6966,7 +6972,7 @@
         <v>206</v>
       </c>
       <c r="C142" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="D142">
         <v>14</v>
@@ -6984,7 +6990,7 @@
         <v>33</v>
       </c>
       <c r="J142" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
@@ -7013,7 +7019,7 @@
         <v>33</v>
       </c>
       <c r="J143" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
@@ -7024,7 +7030,7 @@
         <v>206</v>
       </c>
       <c r="C144" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="D144">
         <v>11</v>
@@ -7042,7 +7048,7 @@
         <v>33</v>
       </c>
       <c r="J144" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
@@ -7053,10 +7059,10 @@
         <v>206</v>
       </c>
       <c r="C145" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="D145" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="E145" t="s">
         <v>228</v>
@@ -7071,7 +7077,7 @@
         <v>33</v>
       </c>
       <c r="J145" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="K145" t="s">
         <v>247</v>
@@ -7085,10 +7091,10 @@
         <v>206</v>
       </c>
       <c r="C146" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="D146" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="E146" t="s">
         <v>227</v>
@@ -7103,7 +7109,7 @@
         <v>33</v>
       </c>
       <c r="J146" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="K146" t="s">
         <v>369</v>
@@ -7120,7 +7126,7 @@
         <v>233</v>
       </c>
       <c r="D147" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="E147" t="s">
         <v>234</v>
@@ -7138,10 +7144,10 @@
         <v>32</v>
       </c>
       <c r="J147" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="K147" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
@@ -7152,10 +7158,10 @@
         <v>229</v>
       </c>
       <c r="C148" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="D148" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="E148" t="s">
         <v>237</v>
@@ -7170,7 +7176,7 @@
         <v>33</v>
       </c>
       <c r="J148" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="K148" t="s">
         <v>370</v>
@@ -7187,10 +7193,10 @@
         <v>231</v>
       </c>
       <c r="D149" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="E149" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="G149" s="7">
         <v>-9248.3661780000002</v>
@@ -7202,7 +7208,7 @@
         <v>33</v>
       </c>
       <c r="J149" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
@@ -7216,13 +7222,13 @@
         <v>183</v>
       </c>
       <c r="D150" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="E150" t="s">
         <v>184</v>
       </c>
       <c r="F150" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="G150" s="7">
         <v>-15236</v>
@@ -7234,10 +7240,10 @@
         <v>33</v>
       </c>
       <c r="J150" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="K150" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
@@ -7251,7 +7257,7 @@
         <v>359</v>
       </c>
       <c r="D151" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="E151" t="s">
         <v>185</v>
@@ -7266,7 +7272,7 @@
         <v>33</v>
       </c>
       <c r="J151" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="K151" t="s">
         <v>358</v>
@@ -7283,7 +7289,7 @@
         <v>360</v>
       </c>
       <c r="D152" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="E152" t="s">
         <v>186</v>
@@ -7301,7 +7307,7 @@
         <v>33</v>
       </c>
       <c r="J152" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="K152" t="s">
         <v>361</v>
@@ -7318,10 +7324,10 @@
         <v>230</v>
       </c>
       <c r="D153" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="E153" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="G153" s="7">
         <v>-9339.310442</v>
@@ -7333,7 +7339,7 @@
         <v>33</v>
       </c>
       <c r="J153" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
@@ -7347,10 +7353,10 @@
         <v>232</v>
       </c>
       <c r="D154" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="E154" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="G154" s="7">
         <v>-10380.171338</v>
@@ -7362,7 +7368,7 @@
         <v>33</v>
       </c>
       <c r="J154" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
@@ -7376,10 +7382,10 @@
         <v>236</v>
       </c>
       <c r="D155" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="E155" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="G155" s="7">
         <v>-13388.353966000001</v>
@@ -7391,7 +7397,7 @@
         <v>33</v>
       </c>
       <c r="J155" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
@@ -7405,7 +7411,7 @@
         <v>188</v>
       </c>
       <c r="D156" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="E156" t="s">
         <v>189</v>
@@ -7420,7 +7426,7 @@
         <v>33</v>
       </c>
       <c r="J156" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="K156" t="s">
         <v>362</v>
@@ -7437,7 +7443,7 @@
         <v>88</v>
       </c>
       <c r="E157" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="G157" s="7">
         <v>205.46729999999999</v>
@@ -7449,7 +7455,7 @@
         <v>33</v>
       </c>
       <c r="J157" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
@@ -7463,7 +7469,7 @@
         <v>89</v>
       </c>
       <c r="E158" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="G158" s="7">
         <v>-1511.7375999999999</v>
@@ -7475,7 +7481,7 @@
         <v>33</v>
       </c>
       <c r="J158" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
@@ -7486,16 +7492,16 @@
         <v>93</v>
       </c>
       <c r="C159" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="D159" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="E159" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="F159" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="G159" s="7">
         <v>-7682.8486999999996</v>
@@ -7507,10 +7513,10 @@
         <v>33</v>
       </c>
       <c r="J159" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="K159" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
@@ -7521,16 +7527,16 @@
         <v>93</v>
       </c>
       <c r="C160" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="D160" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="E160" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="F160" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="G160" s="7">
         <v>-7941.6787000000004</v>
@@ -7542,10 +7548,10 @@
         <v>33</v>
       </c>
       <c r="J160" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="K160" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
@@ -7556,16 +7562,16 @@
         <v>93</v>
       </c>
       <c r="C161" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="D161" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="E161" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="F161" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="G161" s="7">
         <v>-9606.8189999999995</v>
@@ -7577,7 +7583,7 @@
         <v>33</v>
       </c>
       <c r="J161" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
@@ -7588,16 +7594,16 @@
         <v>93</v>
       </c>
       <c r="C162" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="D162" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="E162" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="F162" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="G162" s="7">
         <v>-7081.4575999999997</v>
@@ -7609,7 +7615,7 @@
         <v>33</v>
       </c>
       <c r="J162" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
@@ -7623,10 +7629,10 @@
         <v>90</v>
       </c>
       <c r="D163" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="E163" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="G163" s="7">
         <v>-5621.3424999999997</v>
@@ -7638,7 +7644,7 @@
         <v>33</v>
       </c>
       <c r="J163" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
@@ -7652,10 +7658,10 @@
         <v>91</v>
       </c>
       <c r="D164" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="E164" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="G164" s="7">
         <v>-5808.415</v>
@@ -7667,7 +7673,7 @@
         <v>33</v>
       </c>
       <c r="J164" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="K164" t="s">
         <v>344</v>
@@ -7684,10 +7690,10 @@
         <v>92</v>
       </c>
       <c r="D165" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="E165" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="G165" s="7">
         <v>-7743.46</v>
@@ -7699,7 +7705,7 @@
         <v>33</v>
       </c>
       <c r="J165" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
@@ -7713,10 +7719,10 @@
         <v>60</v>
       </c>
       <c r="D166" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="E166" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="G166" s="7">
         <v>-1325.5878</v>
@@ -7728,7 +7734,7 @@
         <v>33</v>
       </c>
       <c r="J166" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
@@ -7742,10 +7748,10 @@
         <v>61</v>
       </c>
       <c r="D167" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="E167" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="G167" s="7">
         <v>-2308.2676999999999</v>
@@ -7757,7 +7763,7 @@
         <v>33</v>
       </c>
       <c r="J167" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
@@ -7771,10 +7777,10 @@
         <v>96</v>
       </c>
       <c r="D168" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="E168" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="G168" s="7">
         <v>17092.468199999999</v>
@@ -7786,7 +7792,7 @@
         <v>33</v>
       </c>
       <c r="J168" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
@@ -7800,10 +7806,10 @@
         <v>95</v>
       </c>
       <c r="D169" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="E169" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="G169" s="7">
         <v>6492.1962000000003</v>
@@ -7815,7 +7821,7 @@
         <v>33</v>
       </c>
       <c r="J169" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
@@ -7826,16 +7832,16 @@
         <v>94</v>
       </c>
       <c r="C170" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="D170">
         <v>10</v>
       </c>
       <c r="E170" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="F170" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="G170" s="7">
         <v>14174.4043</v>
@@ -7847,7 +7853,7 @@
         <v>33</v>
       </c>
       <c r="J170" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
@@ -7861,10 +7867,10 @@
         <v>97</v>
       </c>
       <c r="D171" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="E171" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="G171" s="7">
         <v>37414.972500000003</v>
@@ -7876,7 +7882,7 @@
         <v>33</v>
       </c>
       <c r="J171" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
@@ -7890,10 +7896,10 @@
         <v>98</v>
       </c>
       <c r="D172" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="E172" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="G172" s="7">
         <v>32589.801899999999</v>
@@ -7905,7 +7911,7 @@
         <v>33</v>
       </c>
       <c r="J172" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
@@ -7919,10 +7925,10 @@
         <v>99</v>
       </c>
       <c r="D173" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="E173" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="G173" s="7">
         <v>14021.164199999999</v>
@@ -7934,7 +7940,7 @@
         <v>33</v>
       </c>
       <c r="J173" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
@@ -7948,10 +7954,10 @@
         <v>100</v>
       </c>
       <c r="D174" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="E174" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="G174" s="7">
         <v>14581.5694</v>
@@ -7963,7 +7969,7 @@
         <v>33</v>
       </c>
       <c r="J174" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
@@ -7977,7 +7983,7 @@
         <v>63</v>
       </c>
       <c r="D175" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="E175" t="s">
         <v>64</v>
@@ -7995,7 +8001,7 @@
         <v>33</v>
       </c>
       <c r="J175" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
@@ -8009,7 +8015,7 @@
         <v>66</v>
       </c>
       <c r="D176" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="E176" t="s">
         <v>67</v>
@@ -8027,7 +8033,7 @@
         <v>33</v>
       </c>
       <c r="J176" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
@@ -8041,7 +8047,7 @@
         <v>69</v>
       </c>
       <c r="D177" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="E177" t="s">
         <v>70</v>
@@ -8059,7 +8065,7 @@
         <v>33</v>
       </c>
       <c r="J177" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
@@ -8073,7 +8079,7 @@
         <v>72</v>
       </c>
       <c r="D178" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="E178" t="s">
         <v>73</v>
@@ -8091,7 +8097,7 @@
         <v>33</v>
       </c>
       <c r="J178" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
@@ -8105,7 +8111,7 @@
         <v>75</v>
       </c>
       <c r="D179" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="E179" t="s">
         <v>76</v>
@@ -8123,7 +8129,7 @@
         <v>33</v>
       </c>
       <c r="J179" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
@@ -8137,7 +8143,7 @@
         <v>78</v>
       </c>
       <c r="D180" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="E180" t="s">
         <v>79</v>
@@ -8155,7 +8161,7 @@
         <v>33</v>
       </c>
       <c r="J180" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
@@ -8169,7 +8175,7 @@
         <v>85</v>
       </c>
       <c r="D181" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="E181" t="s">
         <v>86</v>
@@ -8187,7 +8193,7 @@
         <v>33</v>
       </c>
       <c r="J181" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.25">
@@ -8201,7 +8207,7 @@
         <v>81</v>
       </c>
       <c r="D182" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="E182" t="s">
         <v>83</v>
@@ -8219,7 +8225,7 @@
         <v>33</v>
       </c>
       <c r="J182" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="K182" t="s">
         <v>82</v>
@@ -8233,10 +8239,10 @@
         <v>128</v>
       </c>
       <c r="C183" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="D183" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="E183" t="s">
         <v>129</v>
@@ -8254,7 +8260,7 @@
         <v>33</v>
       </c>
       <c r="J183" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="K183" t="s">
         <v>352</v>
@@ -8268,10 +8274,10 @@
         <v>128</v>
       </c>
       <c r="C184" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="D184" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="E184" t="s">
         <v>137</v>
@@ -8289,7 +8295,7 @@
         <v>33</v>
       </c>
       <c r="J184" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="K184" t="s">
         <v>355</v>
@@ -8321,7 +8327,7 @@
         <v>33</v>
       </c>
       <c r="J185" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="K185" t="s">
         <v>82</v>
@@ -8353,7 +8359,7 @@
         <v>33</v>
       </c>
       <c r="J186" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="K186" t="s">
         <v>82</v>
@@ -8382,7 +8388,7 @@
         <v>33</v>
       </c>
       <c r="J187" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="K187" t="s">
         <v>82</v>
@@ -8396,10 +8402,10 @@
         <v>128</v>
       </c>
       <c r="C188" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="D188" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="E188" t="s">
         <v>133</v>
@@ -8414,7 +8420,7 @@
         <v>33</v>
       </c>
       <c r="J188" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="K188" t="s">
         <v>353</v>
@@ -8428,10 +8434,10 @@
         <v>128</v>
       </c>
       <c r="C189" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="D189" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="E189" t="s">
         <v>132</v>
@@ -8446,7 +8452,7 @@
         <v>33</v>
       </c>
       <c r="J189" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="K189" t="s">
         <v>131</v>
@@ -8460,10 +8466,10 @@
         <v>128</v>
       </c>
       <c r="C190" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="D190" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="E190" t="s">
         <v>136</v>
@@ -8478,7 +8484,7 @@
         <v>33</v>
       </c>
       <c r="J190" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="K190" t="s">
         <v>131</v>
@@ -8492,10 +8498,10 @@
         <v>128</v>
       </c>
       <c r="C191" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="D191" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="E191" t="s">
         <v>134</v>
@@ -8513,7 +8519,7 @@
         <v>33</v>
       </c>
       <c r="J191" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="K191" t="s">
         <v>354</v>
@@ -8530,10 +8536,10 @@
         <v>103</v>
       </c>
       <c r="D192" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="E192" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="G192" s="7">
         <v>-22737.912199999999</v>
@@ -8545,7 +8551,7 @@
         <v>33</v>
       </c>
       <c r="J192" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="K192" t="s">
         <v>350</v>
@@ -8562,10 +8568,10 @@
         <v>102</v>
       </c>
       <c r="D193" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="E193" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="G193" s="7">
         <v>-27117.159599999999</v>
@@ -8577,7 +8583,7 @@
         <v>33</v>
       </c>
       <c r="J193" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
@@ -8588,13 +8594,13 @@
         <v>390</v>
       </c>
       <c r="C194" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="D194" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="E194" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="G194" s="7">
         <v>-30216.382900000001</v>
@@ -8606,7 +8612,7 @@
         <v>33</v>
       </c>
       <c r="J194" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="K194" t="s">
         <v>349</v>
@@ -8620,13 +8626,13 @@
         <v>390</v>
       </c>
       <c r="C195" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="D195" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="E195" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="G195" s="7">
         <v>-24672.011399999999</v>
@@ -8638,10 +8644,10 @@
         <v>33</v>
       </c>
       <c r="J195" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="K195" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
@@ -8652,13 +8658,13 @@
         <v>390</v>
       </c>
       <c r="C196" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="D196" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="E196" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="G196" s="7">
         <v>-30401.414799999999</v>
@@ -8670,10 +8676,10 @@
         <v>33</v>
       </c>
       <c r="J196" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="K196" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
@@ -8687,10 +8693,10 @@
         <v>101</v>
       </c>
       <c r="D197" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="E197" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="G197" s="7">
         <v>-27524.878000000001</v>
@@ -8702,7 +8708,7 @@
         <v>33</v>
       </c>
       <c r="J197" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
@@ -8716,7 +8722,7 @@
         <v>346</v>
       </c>
       <c r="D198" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="E198" t="s">
         <v>104</v>
@@ -8731,7 +8737,7 @@
         <v>33</v>
       </c>
       <c r="J198" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="K198" t="s">
         <v>345</v>
@@ -8748,7 +8754,7 @@
         <v>106</v>
       </c>
       <c r="D199" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="E199" t="s">
         <v>107</v>
@@ -8763,7 +8769,7 @@
         <v>33</v>
       </c>
       <c r="J199" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="K199" t="s">
         <v>347</v>
@@ -8780,7 +8786,7 @@
         <v>108</v>
       </c>
       <c r="D200" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="E200" t="s">
         <v>109</v>
@@ -8795,7 +8801,7 @@
         <v>33</v>
       </c>
       <c r="J200" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="K200" t="s">
         <v>347</v>
@@ -8812,7 +8818,7 @@
         <v>110</v>
       </c>
       <c r="D201" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="E201" t="s">
         <v>111</v>
@@ -8827,7 +8833,7 @@
         <v>33</v>
       </c>
       <c r="J201" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="K201" t="s">
         <v>347</v>
@@ -8844,7 +8850,7 @@
         <v>112</v>
       </c>
       <c r="D202" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="E202" t="s">
         <v>113</v>
@@ -8859,7 +8865,7 @@
         <v>33</v>
       </c>
       <c r="J202" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="K202" t="s">
         <v>347</v>
@@ -8876,7 +8882,7 @@
         <v>115</v>
       </c>
       <c r="D203" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="E203" t="s">
         <v>116</v>
@@ -8891,7 +8897,7 @@
         <v>33</v>
       </c>
       <c r="J203" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="K203" t="s">
         <v>347</v>
@@ -8908,7 +8914,7 @@
         <v>117</v>
       </c>
       <c r="D204" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="E204" t="s">
         <v>118</v>
@@ -8923,7 +8929,7 @@
         <v>33</v>
       </c>
       <c r="J204" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="K204" t="s">
         <v>347</v>
@@ -8940,7 +8946,7 @@
         <v>119</v>
       </c>
       <c r="D205" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="E205" t="s">
         <v>120</v>
@@ -8955,7 +8961,7 @@
         <v>33</v>
       </c>
       <c r="J205" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="K205" t="s">
         <v>347</v>
@@ -8972,10 +8978,10 @@
         <v>259</v>
       </c>
       <c r="E206" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="F206" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="G206" s="7">
         <v>26158.044693</v>
@@ -8987,7 +8993,7 @@
         <v>33</v>
       </c>
       <c r="J206" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="K206" t="s">
         <v>260</v>
@@ -9004,10 +9010,10 @@
         <v>261</v>
       </c>
       <c r="E207" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="F207" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="G207" s="7">
         <v>26065.148562999999</v>
@@ -9019,7 +9025,7 @@
         <v>33</v>
       </c>
       <c r="J207" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="K207" t="s">
         <v>262</v>
@@ -9036,10 +9042,10 @@
         <v>263</v>
       </c>
       <c r="E208" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="F208" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="G208" s="7">
         <v>26116.073284999999</v>
@@ -9051,7 +9057,7 @@
         <v>33</v>
       </c>
       <c r="J208" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="K208" t="s">
         <v>372</v>
@@ -9068,10 +9074,10 @@
         <v>264</v>
       </c>
       <c r="E209" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="F209" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="G209" s="7">
         <v>21795.243349</v>
@@ -9083,7 +9089,7 @@
         <v>33</v>
       </c>
       <c r="J209" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="K209" t="s">
         <v>265</v>
@@ -9100,10 +9106,10 @@
         <v>266</v>
       </c>
       <c r="E210" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="F210" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="G210" s="7">
         <v>24700.341451</v>
@@ -9115,7 +9121,7 @@
         <v>33</v>
       </c>
       <c r="J210" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.25">
@@ -9144,7 +9150,7 @@
         <v>33</v>
       </c>
       <c r="J211" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="K211" t="s">
         <v>268</v>
@@ -9161,10 +9167,10 @@
         <v>249</v>
       </c>
       <c r="D212" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="E212" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="G212" s="7">
         <v>-15587.081733000001</v>
@@ -9176,7 +9182,7 @@
         <v>33</v>
       </c>
       <c r="J212" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="K212" t="s">
         <v>250</v>
@@ -9193,7 +9199,7 @@
         <v>255</v>
       </c>
       <c r="D213" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="E213" t="s">
         <v>256</v>
@@ -9208,7 +9214,7 @@
         <v>33</v>
       </c>
       <c r="J213" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="K213" t="s">
         <v>371</v>
@@ -9225,10 +9231,10 @@
         <v>239</v>
       </c>
       <c r="D214" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="E214" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="G214" s="7">
         <v>-16699.671394000001</v>
@@ -9240,7 +9246,7 @@
         <v>33</v>
       </c>
       <c r="J214" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="K214" t="s">
         <v>240</v>
@@ -9257,10 +9263,10 @@
         <v>241</v>
       </c>
       <c r="D215" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="E215" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="G215" s="7">
         <v>-17974.03659</v>
@@ -9272,7 +9278,7 @@
         <v>33</v>
       </c>
       <c r="J215" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="K215" t="s">
         <v>242</v>
@@ -9289,10 +9295,10 @@
         <v>243</v>
       </c>
       <c r="D216" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="E216" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="G216" s="7">
         <v>-14532.244757</v>
@@ -9304,7 +9310,7 @@
         <v>33</v>
       </c>
       <c r="J216" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.25">
@@ -9318,10 +9324,10 @@
         <v>244</v>
       </c>
       <c r="D217" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="E217" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="G217" s="7">
         <v>-14821.784298</v>
@@ -9333,7 +9339,7 @@
         <v>33</v>
       </c>
       <c r="J217" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="K217" t="s">
         <v>245</v>
@@ -9350,10 +9356,10 @@
         <v>246</v>
       </c>
       <c r="D218" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="E218" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="G218" s="7">
         <v>-16184.035458</v>
@@ -9365,7 +9371,7 @@
         <v>33</v>
       </c>
       <c r="J218" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="K218" t="s">
         <v>247</v>
@@ -9382,10 +9388,10 @@
         <v>248</v>
       </c>
       <c r="D219" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="E219" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="G219" s="7">
         <v>-5382.4546069999997</v>
@@ -9397,7 +9403,7 @@
         <v>33</v>
       </c>
       <c r="J219" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.25">
@@ -9408,16 +9414,16 @@
         <v>238</v>
       </c>
       <c r="C220" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="D220" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="E220" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="F220" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="G220" s="7">
         <v>-6692</v>
@@ -9429,10 +9435,10 @@
         <v>33</v>
       </c>
       <c r="J220" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="K220" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.25">
@@ -9446,10 +9452,10 @@
         <v>251</v>
       </c>
       <c r="D221" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="E221" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="G221" s="7">
         <v>-5863.5875050000004</v>
@@ -9461,7 +9467,7 @@
         <v>33</v>
       </c>
       <c r="J221" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="K221" t="s">
         <v>252</v>
@@ -9478,7 +9484,7 @@
         <v>257</v>
       </c>
       <c r="D222" s="7" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="E222" s="7" t="s">
         <v>258</v>
@@ -9494,7 +9500,7 @@
         <v>33</v>
       </c>
       <c r="J222" s="7" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="K222" s="7" t="s">
         <v>371</v>
@@ -9511,7 +9517,7 @@
         <v>253</v>
       </c>
       <c r="D223" s="7" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="E223" s="7" t="s">
         <v>254</v>
@@ -9527,24 +9533,25 @@
         <v>33</v>
       </c>
       <c r="J223" s="7" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="K223" s="7" t="s">
         <v>371</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K221" xr:uid="{8F9C49C6-D2D5-48DC-90F7-163878AA0983}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K223">
-      <sortCondition ref="E1:E221"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:K223" xr:uid="{8F9C49C6-D2D5-48DC-90F7-163878AA0983}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="f3010fb3-0ead-40f9-8418-3186255a05f9" ContentTypeId="0x010100D14BD004BF1C4459B890F3727F092580" PreviousValue="false"/>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Miljødirektoratet Dokument" ma:contentTypeID="0x010100D14BD004BF1C4459B890F3727F0925800030788E1E5F06E4499248722442C9E1E2" ma:contentTypeVersion="4" ma:contentTypeDescription="Opprett et nytt dokument. " ma:contentTypeScope="" ma:versionID="31d2f06e1319184035b49374dedadd14">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="99b93dda-0db1-4804-bcd9-79ac3408f7b3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4b39a69652e56cca026e8bfba402999b" ns2:_="">
     <xsd:import namespace="99b93dda-0db1-4804-bcd9-79ac3408f7b3"/>
@@ -9710,12 +9717,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="f3010fb3-0ead-40f9-8418-3186255a05f9" ContentTypeId="0x010100D14BD004BF1C4459B890F3727F092580" PreviousValue="false"/>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <gdc15e87e6184dc285cecc59dfe3e409 xmlns="99b93dda-0db1-4804-bcd9-79ac3408f7b3">
@@ -9752,16 +9763,15 @@
 </p:properties>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{045B6229-1055-4164-AB1C-6A3398378E43}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{465F94C6-DADA-41F7-9419-4CB4FA36834F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9779,15 +9789,15 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{045B6229-1055-4164-AB1C-6A3398378E43}">
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3C45CF2-DB67-4850-A387-8CB1B8396D69}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5E2C70A-39DB-4E9F-AC55-CF83C6FAF41A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -9801,12 +9811,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3C45CF2-DB67-4850-A387-8CB1B8396D69}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>